--- a/Smart_Nodes_Routing/Evaluations_v2.xlsx
+++ b/Smart_Nodes_Routing/Evaluations_v2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://technionmail-my.sharepoint.com/personal/idoye_campus_technion_ac_il/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IdoYe\PycharmProjects\Research_Implementing\Smart_Nodes_Routing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1226" documentId="13_ncr:1_{B806FBD7-644E-45BA-B042-A995AA317C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34329620-BA22-475B-947A-F4B742230D0E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9412727-2CE4-4713-B968-35BCDF148ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="4" xr2:uid="{F03132DC-CDBD-427F-ACA0-8693D7E39B80}"/>
   </bookViews>
@@ -392,7 +392,7 @@
     <numFmt numFmtId="166" formatCode="0.000%"/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
     <numFmt numFmtId="168" formatCode="[$-1010000]d/m/yy;@"/>
-    <numFmt numFmtId="174" formatCode="0.0000%"/>
+    <numFmt numFmtId="169" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -490,7 +490,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
@@ -568,24 +568,25 @@
     <xf numFmtId="166" fontId="1" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="1" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="1" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="1" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="1" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -26225,10 +26226,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C33A39D1-43FA-44E6-81F0-607644488718}">
-  <dimension ref="A1:AC149"/>
+  <dimension ref="A1:AC150"/>
   <sheetViews>
-    <sheetView topLeftCell="D127" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T149" sqref="T149"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26882,6 +26883,17 @@
         <v>5.647698026880188E-2</v>
       </c>
     </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="G12" s="10">
+        <f>AVERAGE(G5:G11)</f>
+        <v>0.16342922014039113</v>
+      </c>
+      <c r="H12" s="26"/>
+      <c r="I12" s="10">
+        <f>AVERAGE(I5:I11)</f>
+        <v>0.24276130952290217</v>
+      </c>
+    </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>4</v>
@@ -27487,6 +27499,17 @@
         <v>6.5413211323992027E-2</v>
       </c>
     </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G60" s="10">
+        <f>AVERAGE(G53:G59)</f>
+        <v>0.16368221965298119</v>
+      </c>
+      <c r="H60" s="26"/>
+      <c r="I60" s="10">
+        <f>AVERAGE(I53:I59)</f>
+        <v>0.24302891513004818</v>
+      </c>
+    </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>4</v>
@@ -28090,6 +28113,17 @@
       <c r="U106" s="11">
         <f t="shared" si="27"/>
         <v>4.4506910283438783E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G107" s="10">
+        <f>AVERAGE(G100:G106)</f>
+        <v>0.14133948081675365</v>
+      </c>
+      <c r="H107" s="26"/>
+      <c r="I107" s="10">
+        <f>AVERAGE(I100:I106)</f>
+        <v>0.20255712177139862</v>
       </c>
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.25">
@@ -28695,19 +28729,30 @@
         <v>6.2848101265822853E-2</v>
       </c>
     </row>
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G150" s="10">
+        <f>AVERAGE(G143:G149)</f>
+        <v>0.32546765857079313</v>
+      </c>
+      <c r="I150" s="10">
+        <f>AVERAGE(I143:I149)</f>
+        <v>0.28165303400902736</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C0D8DB7-6494-4FCD-A0B5-1CAEA70C909F}">
-  <dimension ref="A1:AD227"/>
+  <dimension ref="A1:AD228"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C221" sqref="C221:D227"/>
+    <sheetView topLeftCell="A250" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G228" sqref="G228:I228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29470,6 +29515,15 @@
       <c r="AD11" s="12"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="G12" s="10">
+        <f>AVERAGE(G5:G11)</f>
+        <v>4.9575305453318119E-2</v>
+      </c>
+      <c r="H12" s="26"/>
+      <c r="I12" s="10">
+        <f>AVERAGE(I5:I11)</f>
+        <v>0.32384158784106215</v>
+      </c>
       <c r="Z12" s="12"/>
       <c r="AA12" s="12"/>
       <c r="AB12" s="12"/>
@@ -30248,6 +30302,17 @@
         <v>4.8479304825062908E-2</v>
       </c>
     </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G60" s="10">
+        <f>AVERAGE(G53:G59)</f>
+        <v>4.8783723874609067E-2</v>
+      </c>
+      <c r="H60" s="26"/>
+      <c r="I60" s="10">
+        <f>AVERAGE(I53:I59)</f>
+        <v>0.32150982831840241</v>
+      </c>
+    </row>
     <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>4</v>
@@ -30908,6 +30973,17 @@
         <v>2.2821270310191988E-2</v>
       </c>
     </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G115" s="10">
+        <f>AVERAGE(G108:G114)</f>
+        <v>4.4880674418907099E-2</v>
+      </c>
+      <c r="H115" s="26"/>
+      <c r="I115" s="10">
+        <f>AVERAGE(I108:I114)</f>
+        <v>0.19378008690880336</v>
+      </c>
+    </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>4</v>
@@ -31567,6 +31643,17 @@
       <c r="W170" s="11">
         <f t="shared" ref="W170" si="43">V170/C170-1</f>
         <v>1.0559847496739216E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G171" s="10">
+        <f>AVERAGE(G164:G170)</f>
+        <v>2.7126456002128645E-2</v>
+      </c>
+      <c r="H171" s="26"/>
+      <c r="I171" s="10">
+        <f>AVERAGE(I164:I170)</f>
+        <v>0.13939444591129171</v>
       </c>
     </row>
     <row r="217" spans="1:23" x14ac:dyDescent="0.25">
@@ -32225,6 +32312,17 @@
       <c r="W227" s="11">
         <f t="shared" ref="W227" si="55">V227/C227-1</f>
         <v>7.0202068114979754E-2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G228" s="10">
+        <f>AVERAGE(G221:G227)</f>
+        <v>0.1912974332410855</v>
+      </c>
+      <c r="H228" s="26"/>
+      <c r="I228" s="10">
+        <f>AVERAGE(I221:I227)</f>
+        <v>0.42552098653301107</v>
       </c>
     </row>
   </sheetData>
@@ -32236,10 +32334,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6CCFCAA-0285-4239-A64A-B8ADCDB804CF}">
-  <dimension ref="A1:AD59"/>
+  <dimension ref="A1:AD60"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T59" sqref="T59"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32947,6 +33045,15 @@
       <c r="AD11" s="12"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="G12" s="10">
+        <f>AVERAGE(G5:G11)</f>
+        <v>0.15088705874977998</v>
+      </c>
+      <c r="H12" s="26"/>
+      <c r="I12" s="10">
+        <f>AVERAGE(I5:I11)</f>
+        <v>7.8091801285272239E-2</v>
+      </c>
       <c r="Z12" s="12"/>
       <c r="AA12" s="12"/>
       <c r="AB12" s="12"/>
@@ -33673,6 +33780,17 @@
       <c r="W59" s="18"/>
       <c r="X59" s="19"/>
     </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G60" s="10">
+        <f>AVERAGE(G53:G59)</f>
+        <v>0.26674776894425922</v>
+      </c>
+      <c r="H60" s="26"/>
+      <c r="I60" s="10">
+        <f>AVERAGE(I53:I59)</f>
+        <v>0.34784093530118632</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33683,10 +33801,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FFAF1FE-2FEA-46A2-8EC9-1166977F4C6E}">
-  <dimension ref="A1:AD114"/>
+  <dimension ref="A1:AD115"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView topLeftCell="A118" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G115" sqref="G115:I115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34394,6 +34512,15 @@
       <c r="AD11" s="12"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="G12" s="10">
+        <f>AVERAGE(G5:G11)</f>
+        <v>1.1685070988920496E-2</v>
+      </c>
+      <c r="H12" s="26"/>
+      <c r="I12" s="10">
+        <f>AVERAGE(I5:I11)</f>
+        <v>0.28523751452828716</v>
+      </c>
       <c r="Z12" s="12"/>
       <c r="AA12" s="12"/>
       <c r="AB12" s="12"/>
@@ -34967,6 +35094,17 @@
         <v>0.11241909725013932</v>
       </c>
     </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G58" s="10">
+        <f>AVERAGE(G51:G57)</f>
+        <v>0.48677195222684821</v>
+      </c>
+      <c r="H58" s="26"/>
+      <c r="I58" s="10">
+        <f>AVERAGE(I51:I57)</f>
+        <v>0.66442614020953705</v>
+      </c>
+    </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>4</v>
@@ -35568,6 +35706,17 @@
       <c r="U114" s="11">
         <f t="shared" si="26"/>
         <v>9.7582443375190842E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G115" s="10">
+        <f>AVERAGE(G108:G114)</f>
+        <v>0.48530293513747852</v>
+      </c>
+      <c r="H115" s="26"/>
+      <c r="I115" s="10">
+        <f>AVERAGE(I108:I114)</f>
+        <v>0.67114416365909946</v>
       </c>
     </row>
   </sheetData>
@@ -35582,7 +35731,7 @@
   <dimension ref="A1:AD71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G11" sqref="G5:G11"/>
+      <selection activeCell="G60" sqref="G60:I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36346,6 +36495,15 @@
       <c r="AD11" s="12"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="G12" s="10">
+        <f>AVERAGE(G5:G11)</f>
+        <v>4.7288460696611904E-4</v>
+      </c>
+      <c r="H12" s="26"/>
+      <c r="I12" s="10">
+        <f>AVERAGE(I5:I11)</f>
+        <v>0.12725075081989862</v>
+      </c>
       <c r="Z12" s="12"/>
       <c r="AA12" s="12"/>
       <c r="AB12" s="12"/>
@@ -37282,15 +37440,26 @@
         <v>0.12778730703259011</v>
       </c>
     </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G60" s="10">
+        <f>AVERAGE(G53:G59)</f>
+        <v>0.52701095353325544</v>
+      </c>
+      <c r="H60" s="26"/>
+      <c r="I60" s="10">
+        <f>AVERAGE(I53:I59)</f>
+        <v>0.61050677564826827</v>
+      </c>
+    </row>
     <row r="71" spans="20:27" x14ac:dyDescent="0.25">
-      <c r="T71" s="26"/>
-      <c r="U71" s="26"/>
-      <c r="V71" s="26"/>
-      <c r="W71" s="26"/>
-      <c r="X71" s="26"/>
-      <c r="Y71" s="26"/>
-      <c r="Z71" s="26"/>
-      <c r="AA71" s="26"/>
+      <c r="T71" s="37"/>
+      <c r="U71" s="37"/>
+      <c r="V71" s="37"/>
+      <c r="W71" s="37"/>
+      <c r="X71" s="37"/>
+      <c r="Y71" s="37"/>
+      <c r="Z71" s="37"/>
+      <c r="AA71" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Smart_Nodes_Routing/Evaluations_v2.xlsx
+++ b/Smart_Nodes_Routing/Evaluations_v2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IdoYe\PycharmProjects\Research_Implementing\Smart_Nodes_Routing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9412727-2CE4-4713-B968-35BCDF148ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F9391A-37A1-4F12-BAA3-3358B6D11159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="4" xr2:uid="{F03132DC-CDBD-427F-ACA0-8693D7E39B80}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="116">
   <si>
     <t>Number of Nodes</t>
   </si>
@@ -334,19 +334,10 @@
     <t>3 Smart Node        (0, 2, 3) 1.42965</t>
   </si>
   <si>
-    <t>4 Smart Node                 (0, 4, 9, 13) 20.3216</t>
-  </si>
-  <si>
-    <t>2 Smart Node        (4, 9) 22.664</t>
-  </si>
-  <si>
     <t>{8, 18, 27, 28, 39}</t>
   </si>
   <si>
     <t xml:space="preserve"> G_1 (2.0,0.2)  G_2 (0.2,0.02)</t>
-  </si>
-  <si>
-    <t>1 Smart Node        (13,) 23.9</t>
   </si>
   <si>
     <t>1 Smart Node       (39,)  1.69309</t>
@@ -379,7 +370,22 @@
     <t>5 Smart Node (8, 18, 27, 28, 39)1.507</t>
   </si>
   <si>
-    <t>3 Smart Node         (4, 9, 13) 21.8902</t>
+    <t>Naïve RL</t>
+  </si>
+  <si>
+    <t>Naïve RL Vs. Optimal</t>
+  </si>
+  <si>
+    <t>2 Smart Node        (4, 9) 21.7095</t>
+  </si>
+  <si>
+    <t>1 Smart Node        (13,) 23.4611</t>
+  </si>
+  <si>
+    <t>3 Smart Node         (4, 9, 13) 21.2016</t>
+  </si>
+  <si>
+    <t>4 Smart Node                 (0, 4, 9, 13) 20.3526</t>
   </si>
 </sst>
 </file>
@@ -424,7 +430,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -444,12 +450,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -461,7 +461,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -484,13 +484,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
@@ -537,24 +550,11 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -562,31 +562,58 @@
     <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="169" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="169" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4949,16 +4976,16 @@
                   <c:v>0.22029127154850325</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21349151996132609</c:v>
+                  <c:v>0.16184586875075535</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.18142448535632294</c:v>
+                  <c:v>0.14655259235386531</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1268128348708859</c:v>
+                  <c:v>7.2966603553156428E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.2312774443056735E-2</c:v>
+                  <c:v>5.0668734641260205E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>7.7045482012638722E-4</c:v>
@@ -5050,16 +5077,16 @@
                   <c:v>0.23049772498639842</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21645481789863719</c:v>
+                  <c:v>0.16168908179183195</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17611743458769435</c:v>
+                  <c:v>0.15183725290461636</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.11529395554374511</c:v>
+                  <c:v>6.1743704819128942E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.7215308226424639E-2</c:v>
+                  <c:v>3.1666592851764985E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2.460496725076311E-5</c:v>
@@ -5151,16 +5178,16 @@
                   <c:v>0.20813150280500747</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.22444322146431106</c:v>
+                  <c:v>0.175397230118298</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1724738587996506</c:v>
+                  <c:v>0.13116293629676012</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.11910592298254552</c:v>
+                  <c:v>7.3255948984898289E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.7274953422969972E-2</c:v>
+                  <c:v>3.6014520925582882E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4.4936104898041229E-4</c:v>
@@ -5252,16 +5279,16 @@
                   <c:v>0.21925241313515853</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21725031450323518</c:v>
+                  <c:v>0.17529984312428248</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1809082753193898</c:v>
+                  <c:v>0.15241002200269627</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.11707038356864685</c:v>
+                  <c:v>7.5525884493361506E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.3205326757584288E-2</c:v>
+                  <c:v>4.8325740147653562E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4.1098430741626224E-4</c:v>
@@ -5353,16 +5380,16 @@
                   <c:v>0.21796733886209618</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.22364295049869076</c:v>
+                  <c:v>0.16920691557296008</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.18373776878848269</c:v>
+                  <c:v>0.14781316622520846</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.11797621591535945</c:v>
+                  <c:v>8.2329906026527233E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.8612711017905124E-2</c:v>
+                  <c:v>4.0454312791027069E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>9.5911582441732257E-4</c:v>
@@ -5454,16 +5481,16 @@
                   <c:v>0.21386113887078984</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21077993045206167</c:v>
+                  <c:v>0.17123199205166406</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.18202682563338302</c:v>
+                  <c:v>0.15202185792349732</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.11708395429706897</c:v>
+                  <c:v>7.6224540486835579E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.8703427719821306E-2</c:v>
+                  <c:v>5.0064580228514677E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3.328365623449514E-4</c:v>
@@ -5557,16 +5584,16 @@
                   <c:v>0.22158274879109285</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.22970812286133291</c:v>
+                  <c:v>0.19081493400684368</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17826299494867182</c:v>
+                  <c:v>0.15179444353918847</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12407833632067766</c:v>
+                  <c:v>7.7842390418771501E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.3223887893107298E-2</c:v>
+                  <c:v>4.588459344956819E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5.8558742056380453E-4</c:v>
@@ -25268,7 +25295,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>549306</xdr:colOff>
+      <xdr:colOff>549305</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>28918</xdr:rowOff>
     </xdr:to>
@@ -25642,7 +25669,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>549305</xdr:colOff>
+      <xdr:colOff>549306</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>81101</xdr:rowOff>
     </xdr:to>
@@ -26228,8 +26255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C33A39D1-43FA-44E6-81F0-607644488718}">
   <dimension ref="A1:AC150"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12:I12"/>
+    <sheetView topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W64" sqref="W64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26255,6 +26282,8 @@
     <col min="19" max="19" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="19.140625" customWidth="1"/>
     <col min="21" max="21" width="13.85546875" customWidth="1"/>
+    <col min="22" max="22" width="9.5703125" customWidth="1"/>
+    <col min="23" max="23" width="10" customWidth="1"/>
     <col min="27" max="27" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="14.42578125" bestFit="1" customWidth="1"/>
@@ -26364,6 +26393,12 @@
       <c r="U4" s="5" t="s">
         <v>33</v>
       </c>
+      <c r="V4" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -26438,6 +26473,13 @@
         <f>T5/C5-1</f>
         <v>5.5297103741987597E-2</v>
       </c>
+      <c r="V5" s="1">
+        <v>1.6101000000000001</v>
+      </c>
+      <c r="W5" s="35">
+        <f>V5/C5-1</f>
+        <v>0.15681771972697045</v>
+      </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -26512,6 +26554,13 @@
         <f>T6/C6-1</f>
         <v>3.8522881143711718E-2</v>
       </c>
+      <c r="V6" s="1">
+        <v>1.6269</v>
+      </c>
+      <c r="W6" s="35">
+        <f t="shared" ref="W6:W11" si="8">V6/C6-1</f>
+        <v>0.1416032941437193</v>
+      </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -26583,8 +26632,15 @@
         <v>1.5232000000000001</v>
       </c>
       <c r="U7" s="11">
-        <f t="shared" ref="U7:U11" si="8">T7/C7-1</f>
+        <f t="shared" ref="U7:U11" si="9">T7/C7-1</f>
         <v>5.7653522301207127E-2</v>
+      </c>
+      <c r="V7" s="1">
+        <v>1.6624000000000001</v>
+      </c>
+      <c r="W7" s="35">
+        <f t="shared" si="8"/>
+        <v>0.15430883368797699</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
@@ -26657,8 +26713,15 @@
         <v>1.4870000000000001</v>
       </c>
       <c r="U8" s="11">
+        <f t="shared" si="9"/>
+        <v>5.9682586265801918E-2</v>
+      </c>
+      <c r="V8" s="1">
+        <v>1.6612</v>
+      </c>
+      <c r="W8" s="35">
         <f t="shared" si="8"/>
-        <v>5.9682586265801918E-2</v>
+        <v>0.18382294035289171</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -26731,8 +26794,15 @@
         <v>1.4772000000000001</v>
       </c>
       <c r="U9" s="11">
+        <f t="shared" si="9"/>
+        <v>4.8460544514749682E-2</v>
+      </c>
+      <c r="V9" s="1">
+        <v>1.6444000000000001</v>
+      </c>
+      <c r="W9" s="35">
         <f t="shared" si="8"/>
-        <v>4.8460544514749682E-2</v>
+        <v>0.16713276428381696</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
@@ -26805,8 +26875,15 @@
         <v>1.4634</v>
       </c>
       <c r="U10" s="11">
+        <f t="shared" si="9"/>
+        <v>5.2200172562553826E-2</v>
+      </c>
+      <c r="V10" s="1">
+        <v>1.6073</v>
+      </c>
+      <c r="W10" s="35">
         <f t="shared" si="8"/>
-        <v>5.2200172562553826E-2</v>
+        <v>0.15566580385389694</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
@@ -26879,8 +26956,15 @@
         <v>1.4778</v>
       </c>
       <c r="U11" s="11">
+        <f t="shared" si="9"/>
+        <v>5.647698026880188E-2</v>
+      </c>
+      <c r="V11" s="1">
+        <v>1.6392</v>
+      </c>
+      <c r="W11" s="35">
         <f t="shared" si="8"/>
-        <v>5.647698026880188E-2</v>
+        <v>0.17186159565341708</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
@@ -26888,13 +26972,13 @@
         <f>AVERAGE(G5:G11)</f>
         <v>0.16342922014039113</v>
       </c>
-      <c r="H12" s="26"/>
+      <c r="H12" s="21"/>
       <c r="I12" s="10">
         <f>AVERAGE(I5:I11)</f>
         <v>0.24276130952290217</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>4</v>
       </c>
@@ -26905,7 +26989,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>5</v>
       </c>
@@ -26916,7 +27000,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="90" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" ht="90" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>16</v>
       </c>
@@ -26980,8 +27064,14 @@
       <c r="U52" s="5" t="s">
         <v>33</v>
       </c>
+      <c r="V52" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="W52" s="5" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>9</v>
       </c>
@@ -27054,8 +27144,15 @@
         <f>T53/C53-1</f>
         <v>5.4255313981348863E-2</v>
       </c>
+      <c r="V53" s="1">
+        <v>1.6101000000000001</v>
+      </c>
+      <c r="W53" s="35">
+        <f>V53/C53-1</f>
+        <v>0.15681771972697045</v>
+      </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>10</v>
       </c>
@@ -27069,67 +27166,74 @@
         <v>1.6384512228296799</v>
       </c>
       <c r="E54" s="11">
-        <f t="shared" ref="E54:E59" si="9">D54/C54-1</f>
+        <f t="shared" ref="E54:E59" si="10">D54/C54-1</f>
         <v>0.15145747989103642</v>
       </c>
       <c r="F54" s="7">
         <v>1.6594</v>
       </c>
       <c r="G54" s="11">
-        <f t="shared" ref="G54:G59" si="10">F54/C54-1</f>
+        <f t="shared" ref="G54:G59" si="11">F54/C54-1</f>
         <v>0.16617969183804604</v>
       </c>
       <c r="H54" s="7">
         <v>1.7552000000000001</v>
       </c>
       <c r="I54" s="11">
-        <f t="shared" ref="I54:I57" si="11">H54/C54-1</f>
+        <f t="shared" ref="I54:I57" si="12">H54/C54-1</f>
         <v>0.23350523991451055</v>
       </c>
       <c r="J54" s="7">
         <v>1.5930801255845</v>
       </c>
       <c r="K54" s="11">
-        <f t="shared" ref="K54:K59" si="12">J54/C54-1</f>
+        <f t="shared" ref="K54:K59" si="13">J54/C54-1</f>
         <v>0.1195719476482151</v>
       </c>
       <c r="L54" s="7">
         <v>1.5720000000000001</v>
       </c>
       <c r="M54" s="11">
-        <f t="shared" ref="M54:M59" si="13">L54/C54-1</f>
+        <f t="shared" ref="M54:M59" si="14">L54/C54-1</f>
         <v>0.10475742772653285</v>
       </c>
       <c r="N54" s="7">
         <v>1.5546</v>
       </c>
       <c r="O54" s="11">
-        <f t="shared" ref="O54:O59" si="14">N54/C54-1</f>
+        <f t="shared" ref="O54:O59" si="15">N54/C54-1</f>
         <v>9.2529196656277346E-2</v>
       </c>
       <c r="P54" s="7">
         <v>1.5417000000000001</v>
       </c>
       <c r="Q54" s="11">
-        <f t="shared" ref="Q54:Q59" si="15">P54/C54-1</f>
+        <f t="shared" ref="Q54:Q59" si="16">P54/C54-1</f>
         <v>8.3463439138674156E-2</v>
       </c>
       <c r="R54" s="7">
         <v>1.5116000000000001</v>
       </c>
       <c r="S54" s="11">
-        <f t="shared" ref="S54:S59" si="16">R54/C54-1</f>
+        <f t="shared" ref="S54:S59" si="17">R54/C54-1</f>
         <v>6.2310004930933305E-2</v>
       </c>
       <c r="T54" s="7">
         <v>1.4996</v>
       </c>
       <c r="U54" s="11">
-        <f t="shared" ref="U54:U59" si="17">T54/C54-1</f>
+        <f t="shared" ref="U54:U59" si="18">T54/C54-1</f>
         <v>5.3876742123860399E-2</v>
       </c>
+      <c r="V54" s="1">
+        <v>1.6305000000000001</v>
+      </c>
+      <c r="W54" s="35">
+        <f t="shared" ref="W54:W59" si="19">V54/C54-1</f>
+        <v>0.14586958391101268</v>
+      </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>11</v>
       </c>
@@ -27143,67 +27247,74 @@
         <v>1.65112145478332</v>
       </c>
       <c r="E55" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.14647743067139674</v>
       </c>
       <c r="F55" s="7">
         <v>1.6619999999999999</v>
       </c>
       <c r="G55" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.15403108854031378</v>
       </c>
       <c r="H55" s="7">
         <v>1.7850999999999999</v>
       </c>
       <c r="I55" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.23950715773364273</v>
       </c>
       <c r="J55" s="6">
         <v>1.6225542097230301</v>
       </c>
       <c r="K55" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.12664139642739891</v>
       </c>
       <c r="L55" s="7">
         <v>1.6032</v>
       </c>
       <c r="M55" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.11320255183383332</v>
       </c>
       <c r="N55" s="6">
         <v>1.5658000000000001</v>
       </c>
       <c r="O55" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8.7233380527330651E-2</v>
       </c>
       <c r="P55" s="6">
         <v>1.5374000000000001</v>
       </c>
       <c r="Q55" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6.7513475043248228E-2</v>
       </c>
       <c r="R55" s="6">
         <v>1.5264</v>
       </c>
       <c r="S55" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>5.9875483482511926E-2</v>
       </c>
       <c r="T55" s="6">
         <v>1.5085999999999999</v>
       </c>
       <c r="U55" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4.7515824411502594E-2</v>
       </c>
+      <c r="V55" s="1">
+        <v>1.6624000000000001</v>
+      </c>
+      <c r="W55" s="35">
+        <f t="shared" si="19"/>
+        <v>0.15430883368797699</v>
+      </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>12</v>
       </c>
@@ -27217,67 +27328,74 @@
         <v>1.6239972671196301</v>
       </c>
       <c r="E56" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.15731111238058104</v>
       </c>
       <c r="F56" s="7">
         <v>1.6387</v>
       </c>
       <c r="G56" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.16778873847597153</v>
       </c>
       <c r="H56" s="7">
         <v>1.7501</v>
       </c>
       <c r="I56" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.24717585354659022</v>
       </c>
       <c r="J56" s="6">
         <v>1.60438635583918</v>
       </c>
       <c r="K56" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.14333576524897595</v>
       </c>
       <c r="L56" s="7">
         <v>1.5947</v>
       </c>
       <c r="M56" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.13643296591666054</v>
       </c>
       <c r="N56" s="6">
         <v>1.5638000000000001</v>
       </c>
       <c r="O56" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.11441266200569</v>
       </c>
       <c r="P56" s="6">
         <v>1.536</v>
       </c>
       <c r="Q56" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>9.4601514797761688E-2</v>
       </c>
       <c r="R56" s="6">
         <v>1.50315</v>
       </c>
       <c r="S56" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>7.119158005745807E-2</v>
       </c>
       <c r="T56" s="6">
         <v>1.4990000000000001</v>
       </c>
       <c r="U56" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>6.8234160600159521E-2</v>
       </c>
+      <c r="V56" s="1">
+        <v>1.6612</v>
+      </c>
+      <c r="W56" s="35">
+        <f t="shared" si="19"/>
+        <v>0.18382294035289171</v>
+      </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>13</v>
       </c>
@@ -27291,67 +27409,74 @@
         <v>1.6259054204517001</v>
       </c>
       <c r="E57" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.15400601303565686</v>
       </c>
       <c r="F57" s="7">
         <v>1.6374</v>
       </c>
       <c r="G57" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.16216442972410694</v>
       </c>
       <c r="H57" s="7">
         <v>1.7484999999999999</v>
       </c>
       <c r="I57" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.24101899680750027</v>
       </c>
       <c r="J57" s="7">
         <v>1.58823566729892</v>
       </c>
       <c r="K57" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.12726945068641493</v>
       </c>
       <c r="L57" s="7">
         <v>1.5730999999999999</v>
       </c>
       <c r="M57" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.11652672798277308</v>
       </c>
       <c r="N57" s="7">
         <v>1.5528999999999999</v>
       </c>
       <c r="O57" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.10218953396761066</v>
       </c>
       <c r="P57" s="7">
         <v>1.52555</v>
       </c>
       <c r="Q57" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>8.2777541080744754E-2</v>
       </c>
       <c r="R57" s="7">
         <v>1.4941500000000001</v>
       </c>
       <c r="S57" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>6.0491011770046788E-2</v>
       </c>
       <c r="T57" s="7">
         <v>1.4890000000000001</v>
       </c>
       <c r="U57" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5.6835737058260394E-2</v>
       </c>
+      <c r="V57" s="1">
+        <v>1.6444000000000001</v>
+      </c>
+      <c r="W57" s="35">
+        <f t="shared" si="19"/>
+        <v>0.16713276428381696</v>
+      </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>14</v>
       </c>
@@ -27365,14 +27490,14 @@
         <v>1.6309</v>
       </c>
       <c r="E58" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.17263445498993391</v>
       </c>
       <c r="F58" s="7">
         <v>1.6218999999999999</v>
       </c>
       <c r="G58" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.1661633592177163</v>
       </c>
       <c r="H58" s="7">
@@ -27386,46 +27511,53 @@
         <v>1.5714692249114099</v>
       </c>
       <c r="K58" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.12990309527711386</v>
       </c>
       <c r="L58" s="7">
         <v>1.5488</v>
       </c>
       <c r="M58" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.11360368133448362</v>
       </c>
       <c r="N58" s="7">
         <v>1.5229999999999999</v>
       </c>
       <c r="O58" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9.505320678746032E-2</v>
       </c>
       <c r="P58" s="7">
         <v>1.5123</v>
       </c>
       <c r="Q58" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>8.7359792924935231E-2</v>
       </c>
       <c r="R58" s="7">
         <v>1.4873000000000001</v>
       </c>
       <c r="S58" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>6.9384526890998055E-2</v>
       </c>
       <c r="T58" s="7">
         <v>1.4783999999999999</v>
       </c>
       <c r="U58" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>6.2985332182916132E-2</v>
       </c>
+      <c r="V58" s="1">
+        <v>1.6073</v>
+      </c>
+      <c r="W58" s="35">
+        <f t="shared" si="19"/>
+        <v>0.15566580385389694</v>
+      </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>15</v>
       </c>
@@ -27439,72 +27571,79 @@
         <v>1.6198999999999999</v>
       </c>
       <c r="E59" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.15806405490420339</v>
       </c>
       <c r="F59" s="7">
         <v>1.6251</v>
       </c>
       <c r="G59" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.16178152702316262</v>
       </c>
       <c r="H59" s="7">
         <v>1.7341</v>
       </c>
       <c r="I59" s="11">
-        <f t="shared" ref="I59" si="18">H59/C59-1</f>
+        <f t="shared" ref="I59" si="20">H59/C59-1</f>
         <v>0.23970546182442098</v>
       </c>
       <c r="J59" s="7">
         <v>1.5817710443322599</v>
       </c>
       <c r="K59" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.13080572228500142</v>
       </c>
       <c r="L59" s="7">
         <v>1.5681</v>
       </c>
       <c r="M59" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.12103231341149567</v>
       </c>
       <c r="N59" s="7">
         <v>1.5343</v>
       </c>
       <c r="O59" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9.6868744638261228E-2</v>
       </c>
       <c r="P59" s="7">
         <v>1.508</v>
       </c>
       <c r="Q59" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>7.8066914498141182E-2</v>
       </c>
       <c r="R59" s="7">
         <v>1.4976</v>
       </c>
       <c r="S59" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>7.0631970260222943E-2</v>
       </c>
       <c r="T59" s="7">
         <v>1.4903</v>
       </c>
       <c r="U59" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>6.5413211323992027E-2</v>
       </c>
+      <c r="V59" s="1">
+        <v>1.6392</v>
+      </c>
+      <c r="W59" s="35">
+        <f t="shared" si="19"/>
+        <v>0.17186159565341708</v>
+      </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G60" s="10">
         <f>AVERAGE(G53:G59)</f>
         <v>0.16368221965298119</v>
       </c>
-      <c r="H60" s="26"/>
+      <c r="H60" s="21"/>
       <c r="I60" s="10">
         <f>AVERAGE(I53:I59)</f>
         <v>0.24302891513004818</v>
@@ -27521,7 +27660,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>41</v>
       </c>
@@ -27532,7 +27671,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="99" spans="1:21" ht="90" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23" ht="90" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>16</v>
       </c>
@@ -27596,8 +27735,14 @@
       <c r="U99" s="5" t="s">
         <v>33</v>
       </c>
+      <c r="V99" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="W99" s="5" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>9</v>
       </c>
@@ -27670,8 +27815,15 @@
         <f>T100/C100-1</f>
         <v>4.326671535397586E-2</v>
       </c>
+      <c r="V100" s="1">
+        <v>2.8329</v>
+      </c>
+      <c r="W100" s="35">
+        <f t="shared" ref="W100:W101" si="21">V100/C100-1</f>
+        <v>0.11472495678583261</v>
+      </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>10</v>
       </c>
@@ -27685,67 +27837,74 @@
         <v>2.8817251471608398</v>
       </c>
       <c r="E101" s="11">
-        <f t="shared" ref="E101:E106" si="19">D101/C101-1</f>
+        <f t="shared" ref="E101:E106" si="22">D101/C101-1</f>
         <v>0.13430313565064456</v>
       </c>
       <c r="F101" s="3">
         <v>2.9001000000000001</v>
       </c>
       <c r="G101" s="11">
-        <f t="shared" ref="G101:G106" si="20">F101/C101-1</f>
+        <f t="shared" ref="G101:G106" si="23">F101/C101-1</f>
         <v>0.1415358355537264</v>
       </c>
       <c r="H101" s="3">
         <v>3.0446</v>
       </c>
       <c r="I101" s="11">
-        <f t="shared" ref="I101:I104" si="21">H101/C101-1</f>
+        <f t="shared" ref="I101:I104" si="24">H101/C101-1</f>
         <v>0.19841384949721563</v>
       </c>
       <c r="J101" s="7">
         <v>2.8000348036949099</v>
       </c>
       <c r="K101" s="11">
-        <f t="shared" ref="K101:K106" si="22">J101/C101-1</f>
+        <f t="shared" ref="K101:K106" si="25">J101/C101-1</f>
         <v>0.10214822565269577</v>
       </c>
       <c r="L101" s="7">
         <v>2.7299000000000002</v>
       </c>
       <c r="M101" s="11">
-        <f t="shared" ref="M101:M106" si="23">L101/C101-1</f>
+        <f t="shared" ref="M101:M106" si="26">L101/C101-1</f>
         <v>7.4541801137242736E-2</v>
       </c>
       <c r="N101" s="7">
         <v>2.7054999999999998</v>
       </c>
       <c r="O101" s="11">
-        <f t="shared" ref="O101:O106" si="24">N101/C101-1</f>
+        <f t="shared" ref="O101:O106" si="27">N101/C101-1</f>
         <v>6.4937485980002929E-2</v>
       </c>
       <c r="P101" s="7">
         <v>2.6892999999999998</v>
       </c>
       <c r="Q101" s="11">
-        <f t="shared" ref="Q101:Q106" si="25">P101/C101-1</f>
+        <f t="shared" ref="Q101:Q106" si="28">P101/C101-1</f>
         <v>5.8560850506753637E-2</v>
       </c>
       <c r="R101" s="7">
         <v>2.6556000000000002</v>
       </c>
       <c r="S101" s="11">
-        <f t="shared" ref="S101:S106" si="26">R101/C101-1</f>
+        <f t="shared" ref="S101:S106" si="29">R101/C101-1</f>
         <v>4.5295874244500434E-2</v>
       </c>
       <c r="T101" s="7">
         <v>2.6501000000000001</v>
       </c>
       <c r="U101" s="11">
-        <f t="shared" ref="U101:U106" si="27">T101/C101-1</f>
+        <f t="shared" ref="U101:U106" si="30">T101/C101-1</f>
         <v>4.3130967139384913E-2</v>
       </c>
+      <c r="V101" s="1">
+        <v>2.8477000000000001</v>
+      </c>
+      <c r="W101" s="35">
+        <f t="shared" si="21"/>
+        <v>0.12091017513408042</v>
+      </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>11</v>
       </c>
@@ -27759,67 +27918,74 @@
         <v>2.8456289052827399</v>
       </c>
       <c r="E102" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.11658923579713942</v>
       </c>
       <c r="F102" s="7">
         <v>2.8975</v>
       </c>
       <c r="G102" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.13694280540798487</v>
       </c>
       <c r="H102" s="7">
         <v>3.0760000000000001</v>
       </c>
       <c r="I102" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.2069839756462335</v>
       </c>
       <c r="J102" s="6">
         <v>2.7771028780357798</v>
       </c>
       <c r="K102" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>8.9700478709435316E-2</v>
       </c>
       <c r="L102" s="7">
         <v>2.7461000000000002</v>
       </c>
       <c r="M102" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>7.7535336645683461E-2</v>
       </c>
       <c r="N102" s="6">
         <v>2.7050000000000001</v>
       </c>
       <c r="O102" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>6.1408210053011114E-2</v>
       </c>
       <c r="P102" s="6">
         <v>2.68405</v>
       </c>
       <c r="Q102" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>5.3187691753339816E-2</v>
       </c>
       <c r="R102" s="6">
         <v>2.6648999999999998</v>
       </c>
       <c r="S102" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>4.5673470968676133E-2</v>
       </c>
       <c r="T102" s="6">
         <v>2.6564000000000001</v>
       </c>
       <c r="U102" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>4.2338177147807299E-2</v>
       </c>
+      <c r="V102" s="1">
+        <v>2.8492999999999999</v>
+      </c>
+      <c r="W102" s="35">
+        <f>V102/C102-1</f>
+        <v>0.11802972750611618</v>
+      </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>12</v>
       </c>
@@ -27833,67 +27999,74 @@
         <v>2.8504626978918099</v>
       </c>
       <c r="E103" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.12505440096500875</v>
       </c>
       <c r="F103" s="7">
         <v>2.8921999999999999</v>
       </c>
       <c r="G103" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.1415277740268468</v>
       </c>
       <c r="H103" s="3">
         <v>3.0547</v>
       </c>
       <c r="I103" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.2056651999584429</v>
       </c>
       <c r="J103" s="6">
         <v>2.77976258862126</v>
       </c>
       <c r="K103" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>9.7149643908420069E-2</v>
       </c>
       <c r="L103" s="7">
         <v>2.7467999999999999</v>
       </c>
       <c r="M103" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>8.4139578762513878E-2</v>
       </c>
       <c r="N103" s="6">
         <v>2.6833</v>
       </c>
       <c r="O103" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>5.9076646167705471E-2</v>
       </c>
       <c r="P103" s="6">
         <v>2.6777000000000002</v>
       </c>
       <c r="Q103" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>5.6866371797139825E-2</v>
       </c>
       <c r="R103" s="6">
         <v>2.6655000000000002</v>
       </c>
       <c r="S103" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>5.2051131204121637E-2</v>
       </c>
       <c r="T103" s="6">
         <v>2.6432000000000002</v>
       </c>
       <c r="U103" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>4.324950290704721E-2</v>
       </c>
+      <c r="V103" s="36">
+        <v>2.8494999999999999</v>
+      </c>
+      <c r="W103" s="35">
+        <f t="shared" ref="W103:W106" si="31">V103/C103-1</f>
+        <v>0.12467443195128269</v>
+      </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>13</v>
       </c>
@@ -27907,67 +28080,74 @@
         <v>2.8549267922268702</v>
       </c>
       <c r="E104" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.12137680189499345</v>
       </c>
       <c r="F104" s="3">
         <v>2.8894000000000002</v>
       </c>
       <c r="G104" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.13491741372046895</v>
       </c>
       <c r="H104" s="3">
         <v>3.0503</v>
       </c>
       <c r="I104" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.19811676717365079</v>
       </c>
       <c r="J104" s="7">
         <v>2.77599378277867</v>
       </c>
       <c r="K104" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>9.0372978630604894E-2</v>
       </c>
       <c r="L104" s="7">
         <v>2.7490999999999999</v>
       </c>
       <c r="M104" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>7.9809462884661508E-2</v>
       </c>
       <c r="N104" s="7">
         <v>2.6985999999999999</v>
       </c>
       <c r="O104" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>5.9973742876049618E-2</v>
       </c>
       <c r="P104" s="7">
         <v>2.6697000000000002</v>
       </c>
       <c r="Q104" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>4.8622212019636013E-2</v>
       </c>
       <c r="R104" s="7">
         <v>2.6631</v>
       </c>
       <c r="S104" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>4.6029820889797568E-2</v>
       </c>
       <c r="T104" s="7">
         <v>2.6532</v>
       </c>
       <c r="U104" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>4.2141234195040012E-2</v>
       </c>
+      <c r="V104" s="1">
+        <v>2.8256000000000001</v>
+      </c>
+      <c r="W104" s="35">
+        <f t="shared" si="31"/>
+        <v>0.10985763279869776</v>
+      </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>14</v>
       </c>
@@ -27981,14 +28161,14 @@
         <v>2.8978999999999999</v>
       </c>
       <c r="E105" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.14523395510591208</v>
       </c>
       <c r="F105" s="7">
         <v>2.9064999999999999</v>
       </c>
       <c r="G105" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.14863262725260817</v>
       </c>
       <c r="H105" s="7">
@@ -28002,46 +28182,53 @@
         <v>2.7796121444159199</v>
       </c>
       <c r="K105" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>9.8487252772652356E-2</v>
       </c>
       <c r="L105" s="7">
         <v>2.7254</v>
       </c>
       <c r="M105" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>7.7062914954157291E-2</v>
       </c>
       <c r="N105" s="7">
         <v>2.6960000000000002</v>
       </c>
       <c r="O105" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>6.5444198545684396E-2</v>
       </c>
       <c r="P105" s="7">
         <v>2.6711</v>
       </c>
       <c r="Q105" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>5.5603857097692E-2</v>
       </c>
       <c r="R105" s="7">
         <v>2.6524999999999999</v>
       </c>
       <c r="S105" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>4.8253240594372304E-2</v>
       </c>
       <c r="T105" s="7">
         <v>2.6362000000000001</v>
       </c>
       <c r="U105" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>4.1811571293076222E-2</v>
       </c>
+      <c r="V105" s="1">
+        <v>2.8292999999999999</v>
+      </c>
+      <c r="W105" s="35">
+        <f t="shared" si="31"/>
+        <v>0.11812361681947503</v>
+      </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>15</v>
       </c>
@@ -28055,78 +28242,85 @@
         <v>2.9123000000000001</v>
       </c>
       <c r="E106" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.13699539314437437</v>
       </c>
       <c r="F106" s="7">
         <v>2.9047999999999998</v>
       </c>
       <c r="G106" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.13406730694151636</v>
       </c>
       <c r="H106" s="7">
         <v>3.0678000000000001</v>
       </c>
       <c r="I106" s="11">
-        <f t="shared" ref="I106" si="28">H106/C106-1</f>
+        <f t="shared" ref="I106" si="32">H106/C106-1</f>
         <v>0.19770438041695959</v>
       </c>
       <c r="J106" s="7">
         <v>2.80452028977296</v>
       </c>
       <c r="K106" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>9.4916955482533094E-2</v>
       </c>
       <c r="L106" s="7">
         <v>2.7511999999999999</v>
       </c>
       <c r="M106" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>7.4100101506988425E-2</v>
       </c>
       <c r="N106" s="7">
         <v>2.6901000000000002</v>
       </c>
       <c r="O106" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>5.024595924104025E-2</v>
       </c>
       <c r="P106" s="7">
         <v>2.6987000000000001</v>
       </c>
       <c r="Q106" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>5.3603498086983725E-2</v>
       </c>
       <c r="R106" s="7">
         <v>2.6791999999999998</v>
       </c>
       <c r="S106" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>4.5990473959553357E-2</v>
       </c>
       <c r="T106" s="7">
         <v>2.6753999999999998</v>
       </c>
       <c r="U106" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>4.4506910283438783E-2</v>
       </c>
+      <c r="V106" s="1">
+        <v>2.8542000000000001</v>
+      </c>
+      <c r="W106" s="35">
+        <f t="shared" si="31"/>
+        <v>0.11431248535956895</v>
+      </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G107" s="10">
         <f>AVERAGE(G100:G106)</f>
         <v>0.14133948081675365</v>
       </c>
-      <c r="H107" s="26"/>
+      <c r="H107" s="21"/>
       <c r="I107" s="10">
         <f>AVERAGE(I100:I106)</f>
         <v>0.20255712177139862</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>4</v>
       </c>
@@ -28137,7 +28331,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>47</v>
       </c>
@@ -28146,7 +28340,7 @@
       </c>
       <c r="C140" s="1"/>
     </row>
-    <row r="142" spans="1:21" ht="90" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:23" ht="90" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>16</v>
       </c>
@@ -28207,11 +28401,17 @@
       <c r="T142" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="U142" s="5" t="s">
+      <c r="U142" s="33" t="s">
         <v>33</v>
       </c>
+      <c r="V142" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="W142" s="5" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>9</v>
       </c>
@@ -28280,12 +28480,19 @@
       <c r="T143" s="3">
         <v>1.6838</v>
       </c>
-      <c r="U143" s="11">
+      <c r="U143" s="34">
         <f>T143/C143-1</f>
         <v>6.1520030727223673E-2</v>
       </c>
+      <c r="V143" s="1">
+        <v>1.9448000000000001</v>
+      </c>
+      <c r="W143" s="35">
+        <f t="shared" ref="W143:W145" si="33">V143/C143-1</f>
+        <v>0.2260625702329877</v>
+      </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>10</v>
       </c>
@@ -28299,67 +28506,74 @@
         <v>1.92814683456512</v>
       </c>
       <c r="E144" s="11">
-        <f t="shared" ref="E144:E149" si="29">D144/C144-1</f>
+        <f t="shared" ref="E144:E149" si="34">D144/C144-1</f>
         <v>0.20602666529568969</v>
       </c>
       <c r="F144" s="7">
         <v>2.1211880499165798</v>
       </c>
       <c r="G144" s="11">
-        <f t="shared" ref="G144:G149" si="30">F144/C144-1</f>
+        <f t="shared" ref="G144:G149" si="35">F144/C144-1</f>
         <v>0.32677102409731473</v>
       </c>
       <c r="H144" s="3">
         <v>2.0672999999999999</v>
       </c>
       <c r="I144" s="11">
-        <f t="shared" ref="I144:I147" si="31">H144/C144-1</f>
+        <f t="shared" ref="I144:I147" si="36">H144/C144-1</f>
         <v>0.29306486439250223</v>
       </c>
       <c r="J144" s="3">
         <v>1.86982973084582</v>
       </c>
       <c r="K144" s="11">
-        <f t="shared" ref="K144:K149" si="32">J144/C144-1</f>
+        <f t="shared" ref="K144:K149" si="37">J144/C144-1</f>
         <v>0.16955019946462513</v>
       </c>
       <c r="L144" s="3">
         <v>1.8488</v>
       </c>
       <c r="M144" s="11">
-        <f t="shared" ref="M144:M149" si="33">L144/C144-1</f>
+        <f t="shared" ref="M144:M149" si="38">L144/C144-1</f>
         <v>0.15639642107524709</v>
       </c>
       <c r="N144" s="3">
         <v>1.7955000000000001</v>
       </c>
       <c r="O144" s="11">
-        <f t="shared" ref="O144:O149" si="34">N144/C144-1</f>
+        <f t="shared" ref="O144:O149" si="39">N144/C144-1</f>
         <v>0.12305807769396693</v>
       </c>
       <c r="P144" s="3">
         <v>1.7457</v>
       </c>
       <c r="Q144" s="11">
-        <f t="shared" ref="Q144:Q149" si="35">P144/C144-1</f>
+        <f t="shared" ref="Q144:Q149" si="40">P144/C144-1</f>
         <v>9.1908931345228595E-2</v>
       </c>
       <c r="R144" s="3">
         <v>1.7002999999999999</v>
       </c>
       <c r="S144" s="11">
-        <f t="shared" ref="S144:S149" si="36">R144/C144-1</f>
+        <f t="shared" ref="S144:S149" si="41">R144/C144-1</f>
         <v>6.3511918408828638E-2</v>
       </c>
       <c r="T144" s="3">
         <v>1.6953</v>
       </c>
-      <c r="U144" s="11">
-        <f t="shared" ref="U144:U149" si="37">T144/C144-1</f>
+      <c r="U144" s="34">
+        <f t="shared" ref="U144:U149" si="42">T144/C144-1</f>
         <v>6.038449407662605E-2</v>
       </c>
+      <c r="V144" s="1">
+        <v>1.9710000000000001</v>
+      </c>
+      <c r="W144" s="35">
+        <f t="shared" si="33"/>
+        <v>0.23283067175427963</v>
+      </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>11</v>
       </c>
@@ -28373,67 +28587,74 @@
         <v>1.92401219223888</v>
       </c>
       <c r="E145" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>0.20133005133269388</v>
       </c>
       <c r="F145" s="7">
         <v>2.1233449351182698</v>
       </c>
       <c r="G145" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0.32579101639390329</v>
       </c>
       <c r="H145" s="7">
         <v>2.0486</v>
       </c>
       <c r="I145" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>0.27912117869500497</v>
       </c>
       <c r="J145" s="5">
         <v>1.8761925364165799</v>
       </c>
       <c r="K145" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0.1714720338962934</v>
       </c>
       <c r="L145" s="3">
         <v>1.853</v>
       </c>
       <c r="M145" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0.15699089335245731</v>
       </c>
       <c r="N145" s="5">
         <v>1.7922</v>
       </c>
       <c r="O145" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0.11902810527052043</v>
       </c>
       <c r="P145" s="5">
         <v>1.7532000000000001</v>
       </c>
       <c r="Q145" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>9.4676974757435861E-2</v>
       </c>
       <c r="R145" s="5">
         <v>1.7162999999999999</v>
       </c>
       <c r="S145" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>7.1637058964286293E-2</v>
       </c>
       <c r="T145" s="5">
         <v>1.7094</v>
       </c>
-      <c r="U145" s="11">
-        <f t="shared" si="37"/>
+      <c r="U145" s="34">
+        <f t="shared" si="42"/>
         <v>6.7328782027356038E-2</v>
       </c>
+      <c r="V145" s="1">
+        <v>1.9757</v>
+      </c>
+      <c r="W145" s="35">
+        <f t="shared" si="33"/>
+        <v>0.23360329627439302</v>
+      </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>12</v>
       </c>
@@ -28447,67 +28668,74 @@
         <v>1.9186157067508001</v>
       </c>
       <c r="E146" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>0.20749862164402111</v>
       </c>
       <c r="F146" s="7">
         <v>2.1073028858963698</v>
       </c>
       <c r="G146" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0.32625065100482686</v>
       </c>
       <c r="H146" s="3">
         <v>2.0343</v>
       </c>
       <c r="I146" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>0.28030560646790548</v>
       </c>
       <c r="J146" s="5">
         <v>1.8478369317604699</v>
       </c>
       <c r="K146" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0.1629533419708904</v>
       </c>
       <c r="L146" s="3">
         <v>1.8392999999999999</v>
       </c>
       <c r="M146" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0.15758054464750448</v>
       </c>
       <c r="N146" s="5">
         <v>1.7865</v>
       </c>
       <c r="O146" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0.12435037406228844</v>
       </c>
       <c r="P146" s="5">
         <v>1.734</v>
       </c>
       <c r="Q146" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>9.1309011264488094E-2</v>
       </c>
       <c r="R146" s="5">
         <v>1.7077</v>
       </c>
       <c r="S146" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>7.4756861901018601E-2</v>
       </c>
       <c r="T146" s="5">
         <v>1.6946000000000001</v>
       </c>
-      <c r="U146" s="11">
-        <f t="shared" si="37"/>
+      <c r="U146" s="34">
+        <f t="shared" si="42"/>
         <v>6.6512255183853286E-2</v>
       </c>
+      <c r="V146" s="1">
+        <v>1.9805999999999999</v>
+      </c>
+      <c r="W146" s="35">
+        <f t="shared" ref="W146:W149" si="43">V146/C146-1</f>
+        <v>0.24650901252044122</v>
+      </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>13</v>
       </c>
@@ -28521,67 +28749,74 @@
         <v>1.93180315684259</v>
       </c>
       <c r="E147" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>0.20798305456277677</v>
       </c>
       <c r="F147" s="7">
         <v>2.1222231600811399</v>
       </c>
       <c r="G147" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0.32705529872346917</v>
       </c>
       <c r="H147" s="3">
         <v>2.0274000000000001</v>
       </c>
       <c r="I147" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>0.26776107397164384</v>
       </c>
       <c r="J147" s="3">
         <v>1.8538872310599499</v>
       </c>
       <c r="K147" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0.1592611557023178</v>
       </c>
       <c r="L147" s="3">
         <v>1.8505</v>
       </c>
       <c r="M147" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0.15714307358416035</v>
       </c>
       <c r="N147" s="3">
         <v>1.7901</v>
       </c>
       <c r="O147" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0.11937412376276968</v>
       </c>
       <c r="P147" s="3">
         <v>1.7431000000000001</v>
       </c>
       <c r="Q147" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>8.9984378040826707E-2</v>
       </c>
       <c r="R147" s="3">
         <v>1.7097</v>
       </c>
       <c r="S147" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>6.909889916608436E-2</v>
       </c>
       <c r="T147" s="3">
         <v>1.7000999999999999</v>
       </c>
-      <c r="U147" s="11">
-        <f t="shared" si="37"/>
+      <c r="U147" s="34">
+        <f t="shared" si="42"/>
         <v>6.3095887273942663E-2</v>
       </c>
+      <c r="V147" s="1">
+        <v>1.9538</v>
+      </c>
+      <c r="W147" s="35">
+        <f t="shared" si="43"/>
+        <v>0.22173798279855839</v>
+      </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>14</v>
       </c>
@@ -28595,14 +28830,14 @@
         <v>1.9468000000000001</v>
       </c>
       <c r="E148" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>0.22209667294413071</v>
       </c>
       <c r="F148" s="7">
         <v>2.10965887757999</v>
       </c>
       <c r="G148" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0.32433074549905205</v>
       </c>
       <c r="H148" s="7">
@@ -28616,46 +28851,53 @@
         <v>1.8594177739356701</v>
       </c>
       <c r="K148" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0.16724279594204017</v>
       </c>
       <c r="L148" s="7">
         <v>1.8416999999999999</v>
       </c>
       <c r="M148" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0.1561205273069679</v>
       </c>
       <c r="N148" s="7">
         <v>1.7891999999999999</v>
       </c>
       <c r="O148" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0.12316384180790951</v>
       </c>
       <c r="P148" s="7">
         <v>1.7417</v>
       </c>
       <c r="Q148" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>9.3345888261142429E-2</v>
       </c>
       <c r="R148" s="7">
         <v>1.7020999999999999</v>
       </c>
       <c r="S148" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>6.8487131198995632E-2</v>
       </c>
       <c r="T148" s="7">
         <v>1.6962999999999999</v>
       </c>
-      <c r="U148" s="11">
-        <f t="shared" si="37"/>
+      <c r="U148" s="34">
+        <f t="shared" si="42"/>
         <v>6.4846202134337672E-2</v>
       </c>
+      <c r="V148" s="1">
+        <v>1.9613</v>
+      </c>
+      <c r="W148" s="35">
+        <f t="shared" si="43"/>
+        <v>0.23119899560577539</v>
+      </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>15</v>
       </c>
@@ -28669,67 +28911,74 @@
         <v>1.9118999999999999</v>
       </c>
       <c r="E149" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>0.21006329113924038</v>
       </c>
       <c r="F149" s="7">
         <v>2.0909496968580599</v>
       </c>
       <c r="G149" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0.32338588408737956</v>
       </c>
       <c r="H149" s="7">
         <v>2.0234000000000001</v>
       </c>
       <c r="I149" s="11">
-        <f t="shared" ref="I149" si="38">H149/C149-1</f>
+        <f t="shared" ref="I149" si="44">H149/C149-1</f>
         <v>0.28063291139240509</v>
       </c>
       <c r="J149" s="7">
         <v>1.83787258189714</v>
       </c>
       <c r="K149" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0.16321049487160755</v>
       </c>
       <c r="L149" s="7">
         <v>1.8298000000000001</v>
       </c>
       <c r="M149" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0.15810126582278472</v>
       </c>
       <c r="N149" s="7">
         <v>1.7821</v>
       </c>
       <c r="O149" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0.12791139240506322</v>
       </c>
       <c r="P149" s="7">
         <v>1.7226999999999999</v>
       </c>
       <c r="Q149" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>9.0316455696202391E-2</v>
       </c>
       <c r="R149" s="7">
         <v>1.6919999999999999</v>
       </c>
       <c r="S149" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>7.0886075949367022E-2</v>
       </c>
       <c r="T149" s="7">
         <v>1.6793</v>
       </c>
-      <c r="U149" s="11">
-        <f t="shared" si="37"/>
+      <c r="U149" s="34">
+        <f t="shared" si="42"/>
         <v>6.2848101265822853E-2</v>
       </c>
+      <c r="V149" s="1">
+        <v>1.9419999999999999</v>
+      </c>
+      <c r="W149" s="35">
+        <f t="shared" si="43"/>
+        <v>0.2291139240506328</v>
+      </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G150" s="10">
         <f>AVERAGE(G143:G149)</f>
         <v>0.32546765857079313</v>
@@ -28751,8 +29000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C0D8DB7-6494-4FCD-A0B5-1CAEA70C909F}">
   <dimension ref="A1:AD228"/>
   <sheetViews>
-    <sheetView topLeftCell="A250" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G228" sqref="G228:I228"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X220" sqref="X220:Y227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28780,6 +29029,7 @@
     <col min="21" max="21" width="13.85546875" customWidth="1"/>
     <col min="22" max="22" width="23.28515625" customWidth="1"/>
     <col min="23" max="23" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="20.140625" bestFit="1" customWidth="1"/>
@@ -28906,6 +29156,12 @@
       <c r="W4" s="5" t="s">
         <v>51</v>
       </c>
+      <c r="X4" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="Z4" s="12"/>
       <c r="AA4" s="12"/>
       <c r="AB4" s="12"/>
@@ -28992,6 +29248,13 @@
         <f>V5/C5-1</f>
         <v>6.9276807158665132E-2</v>
       </c>
+      <c r="X5" s="1">
+        <v>2.1383999999999999</v>
+      </c>
+      <c r="Y5" s="35">
+        <f>X5/C5-1</f>
+        <v>0.22708035012777139</v>
+      </c>
       <c r="Z5" s="12"/>
       <c r="AA5" s="12"/>
       <c r="AB5" s="12"/>
@@ -29078,6 +29341,13 @@
         <f t="shared" ref="W6:W11" si="8">V6/C6-1</f>
         <v>3.4304871792890435E-2</v>
       </c>
+      <c r="X6" s="1">
+        <v>2.1657999999999999</v>
+      </c>
+      <c r="Y6" s="35">
+        <f t="shared" ref="Y6:Y11" si="9">X6/C6-1</f>
+        <v>0.21797384261039698</v>
+      </c>
       <c r="Z6" s="12"/>
       <c r="AA6" s="12"/>
       <c r="AB6" s="12"/>
@@ -29154,7 +29424,7 @@
         <v>1.8862000000000001</v>
       </c>
       <c r="U7" s="11">
-        <f t="shared" ref="U7:U11" si="9">T7/C7-1</f>
+        <f t="shared" ref="U7:U11" si="10">T7/C7-1</f>
         <v>7.3587137499906197E-2</v>
       </c>
       <c r="V7" s="5">
@@ -29163,6 +29433,13 @@
       <c r="W7" s="11">
         <f t="shared" si="8"/>
         <v>7.3131793575613724E-2</v>
+      </c>
+      <c r="X7" s="1">
+        <v>2.1261999999999999</v>
+      </c>
+      <c r="Y7" s="35">
+        <f t="shared" si="9"/>
+        <v>0.21019031478756234</v>
       </c>
       <c r="Z7" s="12"/>
       <c r="AA7" s="12"/>
@@ -29240,7 +29517,7 @@
         <v>1.8498000000000001</v>
       </c>
       <c r="U8" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.6108713094269032E-2</v>
       </c>
       <c r="V8" s="5">
@@ -29249,6 +29526,13 @@
       <c r="W8" s="11">
         <f t="shared" si="8"/>
         <v>7.273460208986493E-2</v>
+      </c>
+      <c r="X8" s="1">
+        <v>2.1114999999999999</v>
+      </c>
+      <c r="Y8" s="35">
+        <f t="shared" si="9"/>
+        <v>0.22835092858608985</v>
       </c>
       <c r="Z8" s="12"/>
       <c r="AA8" s="12"/>
@@ -29326,7 +29610,7 @@
         <v>1.9018999999999999</v>
       </c>
       <c r="U9" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.7951643245222977E-2</v>
       </c>
       <c r="V9" s="3">
@@ -29335,6 +29619,13 @@
       <c r="W9" s="11">
         <f t="shared" si="8"/>
         <v>7.1019434064898856E-2</v>
+      </c>
+      <c r="X9" s="1">
+        <v>2.1433</v>
+      </c>
+      <c r="Y9" s="35">
+        <f t="shared" si="9"/>
+        <v>0.2260406735198941</v>
       </c>
       <c r="Z9" s="12"/>
       <c r="AA9" s="12"/>
@@ -29412,7 +29703,7 @@
         <v>1.9156</v>
       </c>
       <c r="U10" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.6310536463649612E-2</v>
       </c>
       <c r="V10" s="7">
@@ -29421,6 +29712,13 @@
       <c r="W10" s="11">
         <f t="shared" si="8"/>
         <v>7.34943858455257E-2</v>
+      </c>
+      <c r="X10" s="1">
+        <v>2.1423000000000001</v>
+      </c>
+      <c r="Y10" s="35">
+        <f t="shared" si="9"/>
+        <v>0.21486900306226597</v>
       </c>
       <c r="Z10" s="12"/>
       <c r="AA10" s="12"/>
@@ -29498,7 +29796,7 @@
         <v>1.8924000000000001</v>
       </c>
       <c r="U11" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.1865995883832587E-2</v>
       </c>
       <c r="V11" s="7">
@@ -29507,6 +29805,13 @@
       <c r="W11" s="11">
         <f t="shared" si="8"/>
         <v>7.9121884289961031E-2</v>
+      </c>
+      <c r="X11" s="1">
+        <v>2.1111</v>
+      </c>
+      <c r="Y11" s="35">
+        <f t="shared" si="9"/>
+        <v>0.20689458037960207</v>
       </c>
       <c r="Z11" s="12"/>
       <c r="AA11" s="12"/>
@@ -29519,7 +29824,7 @@
         <f>AVERAGE(G5:G11)</f>
         <v>4.9575305453318119E-2</v>
       </c>
-      <c r="H12" s="26"/>
+      <c r="H12" s="21"/>
       <c r="I12" s="10">
         <f>AVERAGE(I5:I11)</f>
         <v>0.32384158784106215</v>
@@ -29642,7 +29947,7 @@
       <c r="AC28" s="12"/>
       <c r="AD28" s="12"/>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>4</v>
       </c>
@@ -29653,7 +29958,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>5</v>
       </c>
@@ -29664,7 +29969,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" ht="90" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>16</v>
       </c>
@@ -29734,8 +30039,14 @@
       <c r="W52" s="5" t="s">
         <v>51</v>
       </c>
+      <c r="X52" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y52" s="5" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>9</v>
       </c>
@@ -29815,8 +30126,15 @@
         <f>V53/C53-1</f>
         <v>5.2061875198398999E-2</v>
       </c>
+      <c r="X53" s="1">
+        <v>2.1383999999999999</v>
+      </c>
+      <c r="Y53" s="35">
+        <f>X53/C53-1</f>
+        <v>0.22708035012777139</v>
+      </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>10</v>
       </c>
@@ -29830,74 +30148,81 @@
         <v>1.9789000000000001</v>
       </c>
       <c r="E54" s="11">
-        <f t="shared" ref="E54:E59" si="10">D54/C54-1</f>
+        <f t="shared" ref="E54:E59" si="11">D54/C54-1</f>
         <v>0.12290756397889124</v>
       </c>
       <c r="F54" s="3">
         <v>1.8341000000000001</v>
       </c>
       <c r="G54" s="11">
-        <f t="shared" ref="G54:G59" si="11">F54/C54-1</f>
+        <f t="shared" ref="G54:G59" si="12">F54/C54-1</f>
         <v>4.0742211882199397E-2</v>
       </c>
       <c r="H54" s="3">
         <v>2.3250000000000002</v>
       </c>
       <c r="I54" s="11">
-        <f t="shared" ref="I54:I57" si="12">H54/C54-1</f>
+        <f t="shared" ref="I54:I57" si="13">H54/C54-1</f>
         <v>0.31929864381773831</v>
       </c>
       <c r="J54" s="8">
         <v>1.9959225129367899</v>
       </c>
       <c r="K54" s="11">
-        <f t="shared" ref="K54:K59" si="13">J54/C54-1</f>
+        <f t="shared" ref="K54:K59" si="14">J54/C54-1</f>
         <v>0.13256682343346182</v>
       </c>
       <c r="L54" s="8">
         <v>1.9798</v>
       </c>
       <c r="M54" s="11">
-        <f t="shared" ref="M54:M59" si="14">L54/C54-1</f>
+        <f t="shared" ref="M54:M59" si="15">L54/C54-1</f>
         <v>0.12341826022811109</v>
       </c>
       <c r="N54" s="8">
         <v>1.9416</v>
       </c>
       <c r="O54" s="11">
-        <f t="shared" ref="O54:O59" si="15">N54/C54-1</f>
+        <f t="shared" ref="O54:O59" si="16">N54/C54-1</f>
         <v>0.10174204165011624</v>
       </c>
       <c r="P54" s="3">
         <v>1.9124000000000001</v>
       </c>
       <c r="Q54" s="11">
-        <f t="shared" ref="Q54:Q59" si="16">P54/C54-1</f>
+        <f t="shared" ref="Q54:Q59" si="17">P54/C54-1</f>
         <v>8.5172785564319398E-2</v>
       </c>
       <c r="R54" s="3">
         <v>1.8837999999999999</v>
       </c>
       <c r="S54" s="11">
-        <f t="shared" ref="S54:S59" si="17">R54/C54-1</f>
+        <f t="shared" ref="S54:S59" si="18">R54/C54-1</f>
         <v>6.8943993644668966E-2</v>
       </c>
       <c r="T54" s="3">
         <v>1.8475999999999999</v>
       </c>
       <c r="U54" s="11">
-        <f t="shared" ref="U54:U59" si="18">T54/C54-1</f>
+        <f t="shared" ref="U54:U59" si="19">T54/C54-1</f>
         <v>4.8402655620495949E-2</v>
       </c>
       <c r="V54" s="3">
         <v>1.8230999999999999</v>
       </c>
       <c r="W54" s="11">
-        <f t="shared" ref="W54:W59" si="19">V54/C54-1</f>
+        <f t="shared" ref="W54:W59" si="20">V54/C54-1</f>
         <v>3.4500368836180018E-2</v>
       </c>
+      <c r="X54" s="1">
+        <v>2.1349999999999998</v>
+      </c>
+      <c r="Y54" s="35">
+        <f t="shared" ref="Y54:Y59" si="21">X54/C54-1</f>
+        <v>0.21148499120467568</v>
+      </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>11</v>
       </c>
@@ -29911,74 +30236,81 @@
         <v>1.99270368507493</v>
       </c>
       <c r="E55" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.13420689489190352</v>
       </c>
       <c r="F55" s="7">
         <v>1.8434999999999999</v>
       </c>
       <c r="G55" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.9283155540810419E-2</v>
       </c>
       <c r="H55" s="7">
         <v>2.3214999999999999</v>
       </c>
       <c r="I55" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.32135115030539274</v>
       </c>
       <c r="J55" s="9">
         <v>1.9865538302805399</v>
       </c>
       <c r="K55" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.13070652112202263</v>
       </c>
       <c r="L55" s="9">
         <v>1.9717</v>
       </c>
       <c r="M55" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.12225201940863362</v>
       </c>
       <c r="N55" s="5">
         <v>1.9551000000000001</v>
       </c>
       <c r="O55" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.11280363297957074</v>
       </c>
       <c r="P55" s="5">
         <v>1.9248000000000001</v>
       </c>
       <c r="Q55" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>9.5557481847004189E-2</v>
       </c>
       <c r="R55" s="5">
         <v>1.9040999999999999</v>
       </c>
       <c r="S55" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>8.3775457805943754E-2</v>
       </c>
       <c r="T55" s="5">
         <v>1.8749</v>
       </c>
       <c r="U55" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>6.715540456927882E-2</v>
       </c>
       <c r="V55" s="5">
         <v>1.84</v>
       </c>
       <c r="W55" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.7291025872032266E-2</v>
       </c>
+      <c r="X55" s="1">
+        <v>2.1261999999999999</v>
+      </c>
+      <c r="Y55" s="35">
+        <f t="shared" si="21"/>
+        <v>0.21019031478756234</v>
+      </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>12</v>
       </c>
@@ -29992,74 +30324,81 @@
         <v>1.95346624798365</v>
       </c>
       <c r="E56" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.13641585587132443</v>
       </c>
       <c r="F56" s="7">
         <v>1.8077000000000001</v>
       </c>
       <c r="G56" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5.1617321148508033E-2</v>
       </c>
       <c r="H56" s="7">
         <v>2.3069000000000002</v>
       </c>
       <c r="I56" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.34202356483791196</v>
       </c>
       <c r="J56" s="9">
         <v>1.9579511236240199</v>
       </c>
       <c r="K56" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.13902490212159258</v>
       </c>
       <c r="L56" s="9">
         <v>1.9392</v>
       </c>
       <c r="M56" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.12811656202422239</v>
       </c>
       <c r="N56" s="5">
         <v>1.9085000000000001</v>
       </c>
       <c r="O56" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.11025704343194542</v>
       </c>
       <c r="P56" s="5">
         <v>1.8884000000000001</v>
       </c>
       <c r="Q56" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>9.856400357185513E-2</v>
       </c>
       <c r="R56" s="5">
         <v>1.8552999999999999</v>
       </c>
       <c r="S56" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>7.9308301115686763E-2</v>
       </c>
       <c r="T56" s="5">
         <v>1.8345</v>
       </c>
       <c r="U56" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>6.7208040961961535E-2</v>
       </c>
       <c r="V56" s="5">
         <v>1.8051999999999999</v>
       </c>
       <c r="W56" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>5.0162962956954438E-2</v>
       </c>
+      <c r="X56" s="1">
+        <v>2.1114999999999999</v>
+      </c>
+      <c r="Y56" s="35">
+        <f t="shared" si="21"/>
+        <v>0.22835092858608985</v>
+      </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>13</v>
       </c>
@@ -30073,74 +30412,81 @@
         <v>1.98302474750952</v>
       </c>
       <c r="E57" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.13435776468212102</v>
       </c>
       <c r="F57" s="3">
         <v>1.8425</v>
       </c>
       <c r="G57" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5.3972818065788797E-2</v>
       </c>
       <c r="H57" s="3">
         <v>2.3315999999999999</v>
       </c>
       <c r="I57" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.3337546934068889</v>
       </c>
       <c r="J57" s="8">
         <v>1.9893018750137099</v>
       </c>
       <c r="K57" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.1379484956264625</v>
       </c>
       <c r="L57" s="8">
         <v>1.9758</v>
       </c>
       <c r="M57" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.13022496278664053</v>
       </c>
       <c r="N57" s="3">
         <v>1.9581999999999999</v>
       </c>
       <c r="O57" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.12015716273347476</v>
       </c>
       <c r="P57" s="3">
         <v>1.9236</v>
       </c>
       <c r="Q57" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.10036478308350127</v>
       </c>
       <c r="R57" s="3">
         <v>1.8946000000000001</v>
       </c>
       <c r="S57" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>8.3775794359534972E-2</v>
       </c>
       <c r="T57" s="3">
         <v>1.8693500000000001</v>
       </c>
       <c r="U57" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>6.9331933487805752E-2</v>
       </c>
       <c r="V57" s="3">
         <v>1.8341000000000001</v>
       </c>
       <c r="W57" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.9167731676777793E-2</v>
       </c>
+      <c r="X57" s="1">
+        <v>2.1433</v>
+      </c>
+      <c r="Y57" s="35">
+        <f t="shared" si="21"/>
+        <v>0.2260406735198941</v>
+      </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>14</v>
       </c>
@@ -30154,14 +30500,14 @@
         <v>1.9957</v>
       </c>
       <c r="E58" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.13173414993762056</v>
       </c>
       <c r="F58" s="7">
         <v>1.8489</v>
       </c>
       <c r="G58" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.8485879550867583E-2</v>
       </c>
       <c r="H58" s="7">
@@ -30175,53 +30521,60 @@
         <v>1.9923436803236501</v>
       </c>
       <c r="K58" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.12983082699537829</v>
       </c>
       <c r="L58" s="7">
         <v>1.9862</v>
       </c>
       <c r="M58" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.12634682998752411</v>
       </c>
       <c r="N58" s="7">
         <v>1.9578</v>
       </c>
       <c r="O58" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.11024157876828844</v>
       </c>
       <c r="P58" s="7">
         <v>1.9184000000000001</v>
       </c>
       <c r="Q58" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8.7898378133151933E-2</v>
       </c>
       <c r="R58" s="7">
         <v>1.8947000000000001</v>
       </c>
       <c r="S58" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>7.445843257343765E-2</v>
       </c>
       <c r="T58" s="7">
         <v>1.8729</v>
       </c>
       <c r="U58" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>6.2095951003742655E-2</v>
       </c>
       <c r="V58" s="7">
         <v>1.8494999999999999</v>
       </c>
       <c r="W58" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.8826131337189382E-2</v>
       </c>
+      <c r="X58" s="1">
+        <v>2.1423000000000001</v>
+      </c>
+      <c r="Y58" s="35">
+        <f t="shared" si="21"/>
+        <v>0.21486900306226597</v>
+      </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>15</v>
       </c>
@@ -30235,85 +30588,92 @@
         <v>1.9803999999999999</v>
       </c>
       <c r="E59" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.13217470843814305</v>
       </c>
       <c r="F59" s="7">
         <v>1.8342000000000001</v>
       </c>
       <c r="G59" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.8593642808140824E-2</v>
       </c>
       <c r="H59" s="7">
         <v>2.2707000000000002</v>
       </c>
       <c r="I59" s="11">
-        <f t="shared" ref="I59" si="20">H59/C59-1</f>
+        <f t="shared" ref="I59" si="22">H59/C59-1</f>
         <v>0.29813629087582894</v>
       </c>
       <c r="J59" s="7">
         <v>1.9765702128837801</v>
       </c>
       <c r="K59" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.12998525776571013</v>
       </c>
       <c r="L59" s="7">
         <v>1.9635</v>
       </c>
       <c r="M59" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.12251314886805398</v>
       </c>
       <c r="N59" s="7">
         <v>1.9422999999999999</v>
       </c>
       <c r="O59" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.11039332266178814</v>
       </c>
       <c r="P59" s="7">
         <v>1.9157</v>
       </c>
       <c r="Q59" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>9.5186370912416995E-2</v>
       </c>
       <c r="R59" s="7">
         <v>1.8959999999999999</v>
       </c>
       <c r="S59" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>8.3924079579236199E-2</v>
       </c>
       <c r="T59" s="7">
         <v>1.8608</v>
       </c>
       <c r="U59" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>6.3800594557511969E-2</v>
       </c>
       <c r="V59" s="7">
         <v>1.8340000000000001</v>
       </c>
       <c r="W59" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.8479304825062908E-2</v>
       </c>
+      <c r="X59" s="1">
+        <v>2.1111</v>
+      </c>
+      <c r="Y59" s="35">
+        <f t="shared" si="21"/>
+        <v>0.20689458037960207</v>
+      </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="G60" s="10">
         <f>AVERAGE(G53:G59)</f>
         <v>4.8783723874609067E-2</v>
       </c>
-      <c r="H60" s="26"/>
+      <c r="H60" s="21"/>
       <c r="I60" s="10">
         <f>AVERAGE(I53:I59)</f>
         <v>0.32150982831840241</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>4</v>
       </c>
@@ -30324,7 +30684,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>5</v>
       </c>
@@ -30335,7 +30695,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="107" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:25" ht="90" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>16</v>
       </c>
@@ -30405,8 +30765,14 @@
       <c r="W107" s="5" t="s">
         <v>51</v>
       </c>
+      <c r="X107" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y107" s="5" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>9</v>
       </c>
@@ -30486,8 +30852,15 @@
         <f>V108/C108-1</f>
         <v>2.1628007980440289E-2</v>
       </c>
+      <c r="X108" s="1">
+        <v>1.7778</v>
+      </c>
+      <c r="Y108" s="35">
+        <f>X108/C108-1</f>
+        <v>0.307595588616002</v>
+      </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>10</v>
       </c>
@@ -30501,56 +30874,56 @@
         <v>1.4440434327273799</v>
       </c>
       <c r="E109" s="11">
-        <f t="shared" ref="E109:E114" si="21">D109/C109-1</f>
+        <f t="shared" ref="E109:E114" si="23">D109/C109-1</f>
         <v>6.6848336716290868E-2</v>
       </c>
       <c r="F109" s="3">
         <v>1.4185000000000001</v>
       </c>
       <c r="G109" s="11">
-        <f t="shared" ref="G109:G114" si="22">F109/C109-1</f>
+        <f t="shared" ref="G109:G114" si="24">F109/C109-1</f>
         <v>4.7977042334403475E-2</v>
       </c>
       <c r="H109" s="3">
         <v>1.6224000000000001</v>
       </c>
       <c r="I109" s="11">
-        <f t="shared" ref="I109:I112" si="23">H109/C109-1</f>
+        <f t="shared" ref="I109:I112" si="25">H109/C109-1</f>
         <v>0.19861681599107239</v>
       </c>
       <c r="J109" s="7">
         <v>1.4461600187364501</v>
       </c>
       <c r="K109" s="11">
-        <f t="shared" ref="K109:K114" si="24">J109/C109-1</f>
+        <f t="shared" ref="K109:K114" si="26">J109/C109-1</f>
         <v>6.8412054407959388E-2</v>
       </c>
       <c r="L109" s="7">
         <v>1.4466000000000001</v>
       </c>
       <c r="M109" s="11">
-        <f t="shared" ref="M109:M114" si="25">L109/C109-1</f>
+        <f t="shared" ref="M109:M114" si="27">L109/C109-1</f>
         <v>6.8737109228726112E-2</v>
       </c>
       <c r="N109" s="8">
         <v>1.4253</v>
       </c>
       <c r="O109" s="11">
-        <f t="shared" ref="O109:O114" si="26">N109/C109-1</f>
+        <f t="shared" ref="O109:O114" si="28">N109/C109-1</f>
         <v>5.3000830764346141E-2</v>
       </c>
       <c r="P109" s="13">
         <v>1.4083000000000001</v>
       </c>
       <c r="Q109" s="11">
-        <f t="shared" ref="Q109:Q114" si="27">P109/C109-1</f>
+        <f t="shared" ref="Q109:Q114" si="29">P109/C109-1</f>
         <v>4.0441359689489031E-2</v>
       </c>
       <c r="R109" s="13">
         <v>1.3953</v>
       </c>
       <c r="S109" s="11">
-        <f t="shared" ref="S109:S114" si="28">R109/C109-1</f>
+        <f t="shared" ref="S109:S114" si="30">R109/C109-1</f>
         <v>3.0837058279304275E-2</v>
       </c>
       <c r="T109" s="3">
@@ -30564,11 +30937,18 @@
         <v>1.3791</v>
       </c>
       <c r="W109" s="11">
-        <f t="shared" ref="W109:W114" si="29">V109/C109-1</f>
+        <f t="shared" ref="W109:W114" si="31">V109/C109-1</f>
         <v>1.8868621137381414E-2</v>
       </c>
+      <c r="X109" s="1">
+        <v>1.7733000000000001</v>
+      </c>
+      <c r="Y109" s="35">
+        <f t="shared" ref="Y109:Y114" si="32">X109/C109-1</f>
+        <v>0.3101005915908337</v>
+      </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>11</v>
       </c>
@@ -30582,74 +30962,81 @@
         <v>1.4414197010223</v>
       </c>
       <c r="E110" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5.6039170013573614E-2</v>
       </c>
       <c r="F110" s="7">
         <v>1.4261999999999999</v>
       </c>
       <c r="G110" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>4.4888635284483058E-2</v>
       </c>
       <c r="H110" s="7">
         <v>1.6247</v>
       </c>
       <c r="I110" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.19031732277850222</v>
       </c>
       <c r="J110" s="9">
         <v>1.4505647098873999</v>
       </c>
       <c r="K110" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>6.2739153068347653E-2</v>
       </c>
       <c r="L110" s="9">
         <v>1.4443999999999999</v>
       </c>
       <c r="M110" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5.8222650964035338E-2</v>
       </c>
       <c r="N110" s="14">
         <v>1.4411</v>
       </c>
       <c r="O110" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>5.5804944824336511E-2</v>
       </c>
       <c r="P110" s="14">
         <v>1.4228000000000001</v>
       </c>
       <c r="Q110" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>4.2397665322368994E-2</v>
       </c>
       <c r="R110" s="14">
         <v>1.4177</v>
       </c>
       <c r="S110" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>3.8661210379197675E-2</v>
       </c>
       <c r="T110" s="5">
         <v>1.413</v>
       </c>
       <c r="U110" s="11">
-        <f t="shared" ref="U110:U114" si="30">T110/C110-1</f>
+        <f t="shared" ref="U110:U114" si="33">T110/C110-1</f>
         <v>3.521781072568686E-2</v>
       </c>
       <c r="V110" s="5">
         <v>1.3992</v>
       </c>
       <c r="W110" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2.5107403232399905E-2</v>
       </c>
+      <c r="X110" s="1">
+        <v>1.7914000000000001</v>
+      </c>
+      <c r="Y110" s="35">
+        <f t="shared" si="32"/>
+        <v>0.31244811474451217</v>
+      </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>12</v>
       </c>
@@ -30663,74 +31050,81 @@
         <v>1.4281532851784999</v>
       </c>
       <c r="E111" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5.6809168568000112E-2</v>
       </c>
       <c r="F111" s="7">
         <v>1.4086000000000001</v>
       </c>
       <c r="G111" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>4.2340069720756546E-2</v>
       </c>
       <c r="H111" s="3">
         <v>1.6135999999999999</v>
       </c>
       <c r="I111" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.19403658703777693</v>
       </c>
       <c r="J111" s="9">
         <v>1.43061732675661</v>
       </c>
       <c r="K111" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>5.863251747494469E-2</v>
       </c>
       <c r="L111" s="9">
         <v>1.4159999999999999</v>
       </c>
       <c r="M111" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>4.7815944004395261E-2</v>
       </c>
       <c r="N111" s="5">
         <v>1.4127000000000001</v>
       </c>
       <c r="O111" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>4.537400006709702E-2</v>
       </c>
       <c r="P111" s="14">
         <v>1.4073</v>
       </c>
       <c r="Q111" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>4.1378091806063333E-2</v>
       </c>
       <c r="R111" s="14">
         <v>1.4015</v>
       </c>
       <c r="S111" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>3.7086190340508418E-2</v>
       </c>
       <c r="T111" s="5">
         <v>1.3936999999999999</v>
       </c>
       <c r="U111" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>3.1314322852348697E-2</v>
       </c>
       <c r="V111" s="5">
         <v>1.38</v>
       </c>
       <c r="W111" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2.1176555597503866E-2</v>
       </c>
+      <c r="X111" s="1">
+        <v>1.7739</v>
+      </c>
+      <c r="Y111" s="35">
+        <f t="shared" si="32"/>
+        <v>0.31265586374957399</v>
+      </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>13</v>
       </c>
@@ -30744,74 +31138,81 @@
         <v>1.4453774662964001</v>
       </c>
       <c r="E112" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5.8825090457264473E-2</v>
       </c>
       <c r="F112" s="3">
         <v>1.4274</v>
       </c>
       <c r="G112" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>4.5655525536446362E-2</v>
       </c>
       <c r="H112" s="3">
         <v>1.6561999999999999</v>
       </c>
       <c r="I112" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.2132651544020332</v>
       </c>
       <c r="J112" s="8">
         <v>1.4530930263575701</v>
       </c>
       <c r="K112" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>6.447719779267902E-2</v>
       </c>
       <c r="L112" s="8">
         <v>1.4461999999999999</v>
       </c>
       <c r="M112" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5.9427645390786488E-2</v>
       </c>
       <c r="N112" s="3">
         <v>1.4295</v>
       </c>
       <c r="O112" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>4.7193900626558705E-2</v>
       </c>
       <c r="P112" s="13">
         <v>1.42</v>
       </c>
       <c r="Q112" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>4.0234584742716573E-2</v>
       </c>
       <c r="R112" s="13">
         <v>1.4191</v>
       </c>
       <c r="S112" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>3.9575281132668394E-2</v>
       </c>
       <c r="T112" s="3">
         <v>1.4162999999999999</v>
       </c>
       <c r="U112" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>3.7524114345851789E-2</v>
       </c>
       <c r="V112" s="3">
         <v>1.4049</v>
       </c>
       <c r="W112" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2.917293528524123E-2</v>
       </c>
+      <c r="X112" s="1">
+        <v>1.8085</v>
+      </c>
+      <c r="Y112" s="35">
+        <f t="shared" si="32"/>
+        <v>0.3248339764135233</v>
+      </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>14</v>
       </c>
@@ -30825,14 +31226,14 @@
         <v>1.4371</v>
       </c>
       <c r="E113" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>6.1844244125905279E-2</v>
       </c>
       <c r="F113" s="7">
         <v>1.42</v>
       </c>
       <c r="G113" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>4.9209398551795402E-2</v>
       </c>
       <c r="H113" s="7">
@@ -30846,42 +31247,42 @@
         <v>1.44699979563638</v>
       </c>
       <c r="K113" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>6.9159003721279921E-2</v>
       </c>
       <c r="L113" s="7">
         <v>1.4366000000000001</v>
       </c>
       <c r="M113" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>6.1474804196837818E-2</v>
       </c>
       <c r="N113" s="7">
         <v>1.4236</v>
       </c>
       <c r="O113" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>5.1869366041081832E-2</v>
       </c>
       <c r="P113" s="7">
         <v>1.4156</v>
       </c>
       <c r="Q113" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>4.5958327176001124E-2</v>
       </c>
       <c r="R113" s="7">
         <v>1.405</v>
       </c>
       <c r="S113" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>3.8126200679769573E-2</v>
       </c>
       <c r="T113" s="7">
         <v>1.4034</v>
       </c>
       <c r="U113" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>3.6943992906753431E-2</v>
       </c>
       <c r="V113" s="7">
@@ -30891,8 +31292,15 @@
         <f>V113/C113-1</f>
         <v>2.8151322594946127E-2</v>
       </c>
+      <c r="X113" s="1">
+        <v>1.7926</v>
+      </c>
+      <c r="Y113" s="35">
+        <f t="shared" si="32"/>
+        <v>0.32451603369292159</v>
+      </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>15</v>
       </c>
@@ -30906,79 +31314,86 @@
         <v>1.4306000000000001</v>
       </c>
       <c r="E114" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5.6573116691285064E-2</v>
       </c>
       <c r="F114" s="7">
         <v>1.4093</v>
       </c>
       <c r="G114" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>4.084194977843425E-2</v>
       </c>
       <c r="H114" s="7">
         <v>1.5858000000000001</v>
       </c>
       <c r="I114" s="11">
-        <f t="shared" ref="I114" si="31">H114/C114-1</f>
+        <f t="shared" ref="I114" si="34">H114/C114-1</f>
         <v>0.17119645494830138</v>
       </c>
       <c r="J114" s="7">
         <v>1.43497120482698</v>
       </c>
       <c r="K114" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>5.9801480669852136E-2</v>
       </c>
       <c r="L114" s="7">
         <v>1.4234</v>
       </c>
       <c r="M114" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5.1255539143279183E-2</v>
       </c>
       <c r="N114" s="7">
         <v>1.4289000000000001</v>
       </c>
       <c r="O114" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>5.5317577548005925E-2</v>
       </c>
       <c r="P114" s="7">
         <v>1.4109</v>
       </c>
       <c r="Q114" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>4.2023633677991112E-2</v>
       </c>
       <c r="R114" s="7">
         <v>1.4057999999999999</v>
       </c>
       <c r="S114" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>3.8257016248153475E-2</v>
       </c>
       <c r="T114" s="7">
         <v>1.4021999999999999</v>
       </c>
       <c r="U114" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>3.5598227474150423E-2</v>
       </c>
       <c r="V114" s="7">
         <v>1.3849</v>
       </c>
       <c r="W114" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2.2821270310191988E-2</v>
       </c>
+      <c r="X114" s="1">
+        <v>1.7885</v>
+      </c>
+      <c r="Y114" s="35">
+        <f t="shared" si="32"/>
+        <v>0.32090103397341196</v>
+      </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
       <c r="G115" s="10">
         <f>AVERAGE(G108:G114)</f>
         <v>4.4880674418907099E-2</v>
       </c>
-      <c r="H115" s="26"/>
+      <c r="H115" s="21"/>
       <c r="I115" s="10">
         <f>AVERAGE(I108:I114)</f>
         <v>0.19378008690880336</v>
@@ -30995,7 +31410,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>41</v>
       </c>
@@ -31006,7 +31421,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="163" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:25" ht="90" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>16</v>
       </c>
@@ -31076,8 +31491,14 @@
       <c r="W163" s="5" t="s">
         <v>51</v>
       </c>
+      <c r="X163" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y163" s="5" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>9</v>
       </c>
@@ -31157,8 +31578,15 @@
         <f>V164/C164-1</f>
         <v>9.8398840361633155E-3</v>
       </c>
+      <c r="X164" s="1">
+        <v>4.7020999999999997</v>
+      </c>
+      <c r="Y164" s="35">
+        <f>X164/C164-1</f>
+        <v>0.17895722483028198</v>
+      </c>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>10</v>
       </c>
@@ -31172,56 +31600,56 @@
         <v>4.1363798911525702</v>
       </c>
       <c r="E165" s="11">
-        <f t="shared" ref="E165:E170" si="32">D165/C165-1</f>
+        <f t="shared" ref="E165:E170" si="35">D165/C165-1</f>
         <v>2.883459351179285E-2</v>
       </c>
       <c r="F165" s="8">
         <v>4.1220999999999997</v>
       </c>
       <c r="G165" s="11">
-        <f t="shared" ref="G165:G170" si="33">F165/C165-1</f>
+        <f t="shared" ref="G165:G170" si="36">F165/C165-1</f>
         <v>2.5282780961700002E-2</v>
       </c>
       <c r="H165" s="8">
         <v>4.6048999999999998</v>
       </c>
       <c r="I165" s="11">
-        <f t="shared" ref="I165:I168" si="34">H165/C165-1</f>
+        <f t="shared" ref="I165:I168" si="37">H165/C165-1</f>
         <v>0.1453687872808842</v>
       </c>
       <c r="J165" s="8">
         <v>4.1393162720710501</v>
       </c>
       <c r="K165" s="11">
-        <f t="shared" ref="K165:K170" si="35">J165/C165-1</f>
+        <f t="shared" ref="K165:K170" si="38">J165/C165-1</f>
         <v>2.9564954442886648E-2</v>
       </c>
       <c r="L165" s="8">
         <v>4.1280000000000001</v>
       </c>
       <c r="M165" s="11">
-        <f t="shared" ref="M165:M170" si="36">L165/C165-1</f>
+        <f t="shared" ref="M165:M170" si="39">L165/C165-1</f>
         <v>2.6750277724921334E-2</v>
       </c>
       <c r="N165" s="8">
         <v>4.1271000000000004</v>
       </c>
       <c r="O165" s="11">
-        <f t="shared" ref="O165:O170" si="37">N165/C165-1</f>
+        <f t="shared" ref="O165:O170" si="40">N165/C165-1</f>
         <v>2.6526422286463847E-2</v>
       </c>
       <c r="P165" s="3">
         <v>4.1045999999999996</v>
       </c>
       <c r="Q165" s="11">
-        <f t="shared" ref="Q165:Q170" si="38">P165/C165-1</f>
+        <f t="shared" ref="Q165:Q170" si="41">P165/C165-1</f>
         <v>2.0930036325027102E-2</v>
       </c>
       <c r="R165" s="3">
         <v>4.09</v>
       </c>
       <c r="S165" s="11">
-        <f t="shared" ref="S165:S170" si="39">R165/C165-1</f>
+        <f t="shared" ref="S165:S170" si="42">R165/C165-1</f>
         <v>1.7298603656717093E-2</v>
       </c>
       <c r="T165" s="3">
@@ -31235,11 +31663,18 @@
         <v>4.0507999999999997</v>
       </c>
       <c r="W165" s="11">
-        <f t="shared" ref="W165:W168" si="40">V165/C165-1</f>
+        <f t="shared" ref="W165:W168" si="43">V165/C165-1</f>
         <v>7.5484556705693873E-3</v>
       </c>
+      <c r="X165" s="1">
+        <v>4.7183999999999999</v>
+      </c>
+      <c r="Y165" s="35">
+        <f t="shared" ref="Y165:Y170" si="44">X165/C165-1</f>
+        <v>0.17359944535302052</v>
+      </c>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>11</v>
       </c>
@@ -31253,74 +31688,81 @@
         <v>4.1342819153106696</v>
       </c>
       <c r="E166" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>2.8501760241899987E-2</v>
       </c>
       <c r="F166" s="7">
         <v>4.1256000000000004</v>
       </c>
       <c r="G166" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>2.6341925629212781E-2</v>
       </c>
       <c r="H166" s="7">
         <v>4.5660999999999996</v>
       </c>
       <c r="I166" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0.13592686315094715</v>
       </c>
       <c r="J166" s="9">
         <v>4.1420308652738198</v>
       </c>
       <c r="K166" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>3.0429497353297918E-2</v>
       </c>
       <c r="L166" s="9">
         <v>4.12</v>
       </c>
       <c r="M166" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>2.4948791349708177E-2</v>
       </c>
       <c r="N166" s="5">
         <v>4.1036000000000001</v>
       </c>
       <c r="O166" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>2.0868898102587963E-2</v>
       </c>
       <c r="P166" s="5">
         <v>4.1007999999999996</v>
       </c>
       <c r="Q166" s="11">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>2.0172330962835661E-2</v>
       </c>
       <c r="R166" s="5">
         <v>4.0851499999999996</v>
       </c>
       <c r="S166" s="11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>1.6279018199577777E-2</v>
       </c>
       <c r="T166" s="5">
         <v>4.0810000000000004</v>
       </c>
       <c r="U166" s="11">
-        <f t="shared" ref="U166:U170" si="41">T166/C166-1</f>
+        <f t="shared" ref="U166:U170" si="45">T166/C166-1</f>
         <v>1.5246606188873635E-2</v>
       </c>
       <c r="V166" s="5">
         <v>4.0629</v>
       </c>
       <c r="W166" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>1.0743797178332404E-2</v>
       </c>
+      <c r="X166" s="1">
+        <v>4.7438000000000002</v>
+      </c>
+      <c r="Y166" s="35">
+        <f t="shared" si="44"/>
+        <v>0.18013399912736561</v>
+      </c>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>12</v>
       </c>
@@ -31334,74 +31776,81 @@
         <v>4.1356457863864398</v>
       </c>
       <c r="E167" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>2.9651943331376884E-2</v>
       </c>
       <c r="F167" s="7">
         <v>4.1261000000000001</v>
       </c>
       <c r="G167" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>2.7275328405655275E-2</v>
       </c>
       <c r="H167" s="3">
         <v>4.5572999999999997</v>
       </c>
       <c r="I167" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0.13463121449870141</v>
       </c>
       <c r="J167" s="9">
         <v>4.1354939247427502</v>
       </c>
       <c r="K167" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>2.9614134330166575E-2</v>
       </c>
       <c r="L167" s="9">
         <v>4.1186999999999996</v>
       </c>
       <c r="M167" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>2.5432950026507362E-2</v>
       </c>
       <c r="N167" s="5">
         <v>4.1147</v>
       </c>
       <c r="O167" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>2.4437069821562574E-2</v>
       </c>
       <c r="P167" s="5">
         <v>4.1033999999999997</v>
       </c>
       <c r="Q167" s="11">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>2.1623708242593631E-2</v>
       </c>
       <c r="R167" s="5">
         <v>4.0891000000000002</v>
       </c>
       <c r="S167" s="11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>1.8063436509916153E-2</v>
       </c>
       <c r="T167" s="5">
         <v>4.0631000000000004</v>
       </c>
       <c r="U167" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>1.1590215177775143E-2</v>
       </c>
       <c r="V167" s="5">
         <v>4.0589000000000004</v>
       </c>
       <c r="W167" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>1.054454096258306E-2</v>
       </c>
+      <c r="X167" s="1">
+        <v>4.7175000000000002</v>
+      </c>
+      <c r="Y167" s="35">
+        <f t="shared" si="44"/>
+        <v>0.17451621670673978</v>
+      </c>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>13</v>
       </c>
@@ -31415,74 +31864,81 @@
         <v>4.1580512116282797</v>
       </c>
       <c r="E168" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>2.4308351499255476E-2</v>
       </c>
       <c r="F168" s="3">
         <v>4.1599000000000004</v>
       </c>
       <c r="G168" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>2.4763788258671093E-2</v>
       </c>
       <c r="H168" s="3">
         <v>4.6017000000000001</v>
       </c>
       <c r="I168" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0.1335982894853065</v>
       </c>
       <c r="J168" s="8">
         <v>4.1721960256608996</v>
       </c>
       <c r="K168" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>2.7792832667620448E-2</v>
       </c>
       <c r="L168" s="8">
         <v>4.1646000000000001</v>
       </c>
       <c r="M168" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>2.5921602101507624E-2</v>
       </c>
       <c r="N168" s="3">
         <v>4.1399999999999997</v>
       </c>
       <c r="O168" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>1.9861555179426782E-2</v>
       </c>
       <c r="P168" s="3">
         <v>4.1353</v>
       </c>
       <c r="Q168" s="11">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1.8703741336590252E-2</v>
       </c>
       <c r="R168" s="3">
         <v>4.1097000000000001</v>
       </c>
       <c r="S168" s="11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>1.2397351043693439E-2</v>
       </c>
       <c r="T168" s="3">
         <v>4.0878500000000004</v>
       </c>
       <c r="U168" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>7.0147483913576281E-3</v>
       </c>
       <c r="V168" s="3">
         <v>4.0769000000000002</v>
       </c>
       <c r="W168" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>4.3172884809192791E-3</v>
       </c>
+      <c r="X168" s="1">
+        <v>4.7173999999999996</v>
+      </c>
+      <c r="Y168" s="35">
+        <f t="shared" si="44"/>
+        <v>0.1621002174887507</v>
+      </c>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>14</v>
       </c>
@@ -31496,14 +31952,14 @@
         <v>4.1483999999999996</v>
       </c>
       <c r="E169" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>3.0940132707075074E-2</v>
       </c>
       <c r="F169" s="7">
         <v>4.1271000000000004</v>
       </c>
       <c r="G169" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>2.5646760605382957E-2</v>
       </c>
       <c r="H169" s="7">
@@ -31517,35 +31973,35 @@
         <v>4.1477325684013202</v>
       </c>
       <c r="K169" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>3.0774265861805761E-2</v>
       </c>
       <c r="L169" s="7">
         <v>4.1280999999999999</v>
       </c>
       <c r="M169" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>2.5895275727527922E-2</v>
       </c>
       <c r="N169" s="7">
         <v>4.1094999999999997</v>
       </c>
       <c r="O169" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>2.1272894455627522E-2</v>
       </c>
       <c r="P169" s="7">
         <v>4.1028000000000002</v>
       </c>
       <c r="Q169" s="11">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1.9607843137254832E-2</v>
       </c>
       <c r="R169" s="7">
         <v>4.0749000000000004</v>
       </c>
       <c r="S169" s="11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>1.2674271229404344E-2</v>
       </c>
       <c r="T169" s="7">
@@ -31553,7 +32009,7 @@
         <v>4.0674000000000001</v>
       </c>
       <c r="U169" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>1.0810407813315326E-2</v>
       </c>
       <c r="V169" s="7">
@@ -31563,8 +32019,15 @@
         <f>V169/C169-1</f>
         <v>1.0040010934665444E-2</v>
       </c>
+      <c r="X169" s="1">
+        <v>4.7107000000000001</v>
+      </c>
+      <c r="Y169" s="35">
+        <f t="shared" si="44"/>
+        <v>0.17068018588931122</v>
+      </c>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>15</v>
       </c>
@@ -31578,85 +32041,92 @@
         <v>4.0997000000000003</v>
       </c>
       <c r="E170" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>2.8318450887930169E-2</v>
       </c>
       <c r="F170" s="7">
         <v>4.1101000000000001</v>
       </c>
       <c r="G170" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>3.092705929567563E-2</v>
       </c>
       <c r="H170" s="7">
         <v>4.5393999999999997</v>
       </c>
       <c r="I170" s="11">
-        <f t="shared" ref="I170" si="42">H170/C170-1</f>
+        <f t="shared" ref="I170" si="46">H170/C170-1</f>
         <v>0.13860740443463415</v>
       </c>
       <c r="J170" s="7">
         <v>4.11685586391238</v>
       </c>
       <c r="K170" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>3.2621617315235163E-2</v>
       </c>
       <c r="L170" s="7">
         <v>4.0909000000000004</v>
       </c>
       <c r="M170" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>2.6111166850607104E-2</v>
       </c>
       <c r="N170" s="7">
         <v>4.0852000000000004</v>
       </c>
       <c r="O170" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>2.4681448780977222E-2</v>
       </c>
       <c r="P170" s="7">
         <v>4.0781000000000001</v>
       </c>
       <c r="Q170" s="11">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>2.2900571887227938E-2</v>
       </c>
       <c r="R170" s="7">
         <v>4.0625999999999998</v>
       </c>
       <c r="S170" s="11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>1.9012742048760911E-2</v>
       </c>
       <c r="T170" s="7">
         <v>4.0419999999999998</v>
       </c>
       <c r="U170" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>1.3845690779572539E-2</v>
       </c>
       <c r="V170" s="7">
         <v>4.0289000000000001</v>
       </c>
       <c r="W170" s="11">
-        <f t="shared" ref="W170" si="43">V170/C170-1</f>
+        <f t="shared" ref="W170" si="47">V170/C170-1</f>
         <v>1.0559847496739216E-2</v>
       </c>
+      <c r="X170" s="1">
+        <v>4.7229000000000001</v>
+      </c>
+      <c r="Y170" s="35">
+        <f t="shared" si="44"/>
+        <v>0.1846342931674525</v>
+      </c>
     </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
       <c r="G171" s="10">
         <f>AVERAGE(G164:G170)</f>
         <v>2.7126456002128645E-2</v>
       </c>
-      <c r="H171" s="26"/>
+      <c r="H171" s="21"/>
       <c r="I171" s="10">
         <f>AVERAGE(I164:I170)</f>
         <v>0.13939444591129171</v>
       </c>
     </row>
-    <row r="217" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>4</v>
       </c>
@@ -31667,7 +32137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="218" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>47</v>
       </c>
@@ -31676,7 +32146,7 @@
       </c>
       <c r="C218" s="1"/>
     </row>
-    <row r="220" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:25" ht="90" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>16</v>
       </c>
@@ -31746,8 +32216,14 @@
       <c r="W220" s="5" t="s">
         <v>51</v>
       </c>
+      <c r="X220" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y220" s="5" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="221" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>9</v>
       </c>
@@ -31827,8 +32303,15 @@
         <f>V221/C221-1</f>
         <v>6.5189904955878175E-2</v>
       </c>
+      <c r="X221" s="1">
+        <v>1.7130000000000001</v>
+      </c>
+      <c r="Y221" s="35">
+        <f>X221/C221-1</f>
+        <v>0.63223034903785646</v>
+      </c>
     </row>
-    <row r="222" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>10</v>
       </c>
@@ -31842,56 +32325,56 @@
         <v>1.27513580784989</v>
       </c>
       <c r="E222" s="11">
-        <f t="shared" ref="E222:E227" si="44">D222/C222-1</f>
+        <f t="shared" ref="E222:E227" si="48">D222/C222-1</f>
         <v>0.21074304814014777</v>
       </c>
       <c r="F222" s="3">
         <v>1.2524999999999999</v>
       </c>
       <c r="G222" s="11">
-        <f t="shared" ref="G222:G227" si="45">F222/C222-1</f>
+        <f t="shared" ref="G222:G227" si="49">F222/C222-1</f>
         <v>0.18925032020907162</v>
       </c>
       <c r="H222" s="3">
         <v>1.5157</v>
       </c>
       <c r="I222" s="11">
-        <f t="shared" ref="I222:I225" si="46">H222/C222-1</f>
+        <f t="shared" ref="I222:I225" si="50">H222/C222-1</f>
         <v>0.43915905017236723</v>
       </c>
       <c r="J222" s="8">
         <v>1.2519</v>
       </c>
       <c r="K222" s="11">
-        <f t="shared" ref="K222:K227" si="47">J222/C222-1</f>
+        <f t="shared" ref="K222:K227" si="51">J222/C222-1</f>
         <v>0.18868061945687575</v>
       </c>
       <c r="L222" s="8">
         <v>1.1849000000000001</v>
       </c>
       <c r="M222" s="11">
-        <f t="shared" ref="M222:M227" si="48">L222/C222-1</f>
+        <f t="shared" ref="M222:M227" si="52">L222/C222-1</f>
         <v>0.12506403546165989</v>
       </c>
       <c r="N222" s="8">
         <v>1.1675</v>
       </c>
       <c r="O222" s="11">
-        <f t="shared" ref="O222:O227" si="49">N222/C222-1</f>
+        <f t="shared" ref="O222:O227" si="53">N222/C222-1</f>
         <v>0.10854271364797685</v>
       </c>
       <c r="P222" s="3">
         <v>1.1492</v>
       </c>
       <c r="Q222" s="11">
-        <f t="shared" ref="Q222:Q227" si="50">P222/C222-1</f>
+        <f t="shared" ref="Q222:Q227" si="54">P222/C222-1</f>
         <v>9.1166840706000229E-2</v>
       </c>
       <c r="R222" s="3">
         <v>1.1407</v>
       </c>
       <c r="S222" s="11">
-        <f t="shared" ref="S222:S227" si="51">R222/C222-1</f>
+        <f t="shared" ref="S222:S227" si="55">R222/C222-1</f>
         <v>8.3096080049890775E-2</v>
       </c>
       <c r="T222" s="3">
@@ -31905,11 +32388,18 @@
         <v>1.0972999999999999</v>
       </c>
       <c r="W222" s="11">
-        <f t="shared" ref="W222:W225" si="52">V222/C222-1</f>
+        <f t="shared" ref="W222:W225" si="56">V222/C222-1</f>
         <v>4.1887725641049256E-2</v>
       </c>
+      <c r="X222" s="1">
+        <v>1.7241</v>
+      </c>
+      <c r="Y222" s="35">
+        <f t="shared" ref="Y222:Y227" si="57">X222/C222-1</f>
+        <v>0.63703511143509806</v>
+      </c>
     </row>
-    <row r="223" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>11</v>
       </c>
@@ -31923,74 +32413,81 @@
         <v>1.2355382856253401</v>
       </c>
       <c r="E223" s="11">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>0.17720523941511601</v>
       </c>
       <c r="F223" s="7">
         <v>1.2504999999999999</v>
       </c>
       <c r="G223" s="11">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0.19146057148972484</v>
       </c>
       <c r="H223" s="7">
         <v>1.5116000000000001</v>
       </c>
       <c r="I223" s="11">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>0.4402333465524737</v>
       </c>
       <c r="J223" s="5">
         <v>1.2381</v>
       </c>
       <c r="K223" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>0.1796460084457645</v>
       </c>
       <c r="L223" s="3">
         <v>1.1843999999999999</v>
       </c>
       <c r="M223" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>0.12848132816667746</v>
       </c>
       <c r="N223" s="5">
         <v>1.17</v>
       </c>
       <c r="O223" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>0.11476119043820709</v>
       </c>
       <c r="P223" s="5">
         <v>1.1599999999999999</v>
       </c>
       <c r="Q223" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>0.10523331701565852</v>
       </c>
       <c r="R223" s="5">
         <v>1.1539999999999999</v>
       </c>
       <c r="S223" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>9.9516592962129113E-2</v>
       </c>
       <c r="T223" s="5">
         <v>1.1379999999999999</v>
       </c>
       <c r="U223" s="11">
-        <f t="shared" ref="U223:U227" si="53">T223/C223-1</f>
+        <f t="shared" ref="U223:U227" si="58">T223/C223-1</f>
         <v>8.4271995486051132E-2</v>
       </c>
       <c r="V223" s="5">
         <v>1.1200000000000001</v>
       </c>
       <c r="W223" s="11">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>6.712182332546357E-2</v>
       </c>
+      <c r="X223" s="1">
+        <v>1.7236</v>
+      </c>
+      <c r="Y223" s="35">
+        <f t="shared" si="57"/>
+        <v>0.64222426311050773</v>
+      </c>
     </row>
-    <row r="224" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>12</v>
       </c>
@@ -32004,74 +32501,81 @@
         <v>1.25335906740328</v>
       </c>
       <c r="E224" s="11">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>0.19682603188880643</v>
       </c>
       <c r="F224" s="7">
         <v>1.2482</v>
       </c>
       <c r="G224" s="11">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0.19189966535179592</v>
       </c>
       <c r="H224" s="3">
         <v>1.4991000000000001</v>
       </c>
       <c r="I224" s="11">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>0.43148276584591994</v>
       </c>
       <c r="J224" s="5">
         <v>1.2310000000000001</v>
       </c>
       <c r="K224" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>0.17547547512262529</v>
       </c>
       <c r="L224" s="3">
         <v>1.1822999999999999</v>
       </c>
       <c r="M224" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>0.12897209929933351</v>
       </c>
       <c r="N224" s="5">
         <v>1.17</v>
       </c>
       <c r="O224" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>0.11722689349591486</v>
       </c>
       <c r="P224" s="5">
         <v>1.155</v>
       </c>
       <c r="Q224" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>0.10290347178442905</v>
       </c>
       <c r="R224" s="5">
         <v>1.145</v>
       </c>
       <c r="S224" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>9.3354523976771464E-2</v>
       </c>
       <c r="T224" s="5">
         <v>1.1347</v>
       </c>
       <c r="U224" s="11">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>8.3519107734884468E-2</v>
       </c>
       <c r="V224" s="5">
         <v>1.1220000000000001</v>
       </c>
       <c r="W224" s="11">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>7.1391944019159714E-2</v>
       </c>
+      <c r="X224" s="1">
+        <v>1.7135</v>
+      </c>
+      <c r="Y224" s="35">
+        <f t="shared" si="57"/>
+        <v>0.63621220684209434</v>
+      </c>
     </row>
-    <row r="225" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>13</v>
       </c>
@@ -32085,74 +32589,81 @@
         <v>1.21026334465077</v>
       </c>
       <c r="E225" s="11">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>0.15255959748146775</v>
       </c>
       <c r="F225" s="3">
         <v>1.2524999999999999</v>
       </c>
       <c r="G225" s="11">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0.19278246525932219</v>
       </c>
       <c r="H225" s="3">
         <v>1.4861</v>
       </c>
       <c r="I225" s="11">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>0.41524472784181943</v>
       </c>
       <c r="J225" s="3">
         <v>1.2423</v>
       </c>
       <c r="K225" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>0.18306878769792889</v>
       </c>
       <c r="L225" s="3">
         <v>1.1813</v>
       </c>
       <c r="M225" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>0.12497718659547896</v>
       </c>
       <c r="N225" s="3">
         <v>1.169</v>
       </c>
       <c r="O225" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>0.11326363424203412</v>
       </c>
       <c r="P225" s="3">
         <v>1.1599999999999999</v>
       </c>
       <c r="Q225" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>0.10469274227609882</v>
       </c>
       <c r="R225" s="3">
         <v>1.1499999999999999</v>
       </c>
       <c r="S225" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>9.5169528980615148E-2</v>
       </c>
       <c r="T225" s="3">
         <v>1.1364000000000001</v>
       </c>
       <c r="U225" s="11">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>8.2217958898757715E-2</v>
       </c>
       <c r="V225" s="3">
         <v>1.127</v>
       </c>
       <c r="W225" s="11">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>7.3266138401002934E-2</v>
       </c>
+      <c r="X225" s="1">
+        <v>1.7208000000000001</v>
+      </c>
+      <c r="Y225" s="35">
+        <f t="shared" si="57"/>
+        <v>0.63875454388681985</v>
+      </c>
     </row>
-    <row r="226" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>14</v>
       </c>
@@ -32166,14 +32677,14 @@
         <v>1.2801</v>
       </c>
       <c r="E226" s="11">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>0.2170564746149457</v>
       </c>
       <c r="F226" s="7">
         <v>1.2499</v>
       </c>
       <c r="G226" s="11">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0.1883437915953603</v>
       </c>
       <c r="H226" s="7">
@@ -32187,42 +32698,42 @@
         <v>1.2412251913861101</v>
       </c>
       <c r="K226" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>0.18009620782098312</v>
       </c>
       <c r="L226" s="7">
         <v>1.1857</v>
       </c>
       <c r="M226" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>0.12730557140140708</v>
       </c>
       <c r="N226" s="7">
         <v>1.1720999999999999</v>
       </c>
       <c r="O226" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>0.11437535653165987</v>
       </c>
       <c r="P226" s="7">
         <v>1.1581999999999999</v>
       </c>
       <c r="Q226" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>0.10115991633390364</v>
       </c>
       <c r="R226" s="7">
         <v>1.1484000000000001</v>
       </c>
       <c r="S226" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>9.1842555618939059E-2</v>
       </c>
       <c r="T226" s="7">
         <v>1.1374</v>
       </c>
       <c r="U226" s="11">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>8.1384293591937551E-2</v>
       </c>
       <c r="V226" s="7">
@@ -32232,8 +32743,15 @@
         <f>V226/C226-1</f>
         <v>7.2732458642327469E-2</v>
       </c>
+      <c r="X226" s="1">
+        <v>1.7223999999999999</v>
+      </c>
+      <c r="Y226" s="35">
+        <f t="shared" si="57"/>
+        <v>0.63757368320973562</v>
+      </c>
     </row>
-    <row r="227" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>15</v>
       </c>
@@ -32247,79 +32765,86 @@
         <v>1.2606999999999999</v>
       </c>
       <c r="E227" s="11">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>0.19599658476425375</v>
       </c>
       <c r="F227" s="7">
         <v>1.2601</v>
       </c>
       <c r="G227" s="11">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0.1954273788065648</v>
       </c>
       <c r="H227" s="7">
         <v>1.4950000000000001</v>
       </c>
       <c r="I227" s="11">
-        <f t="shared" ref="I227" si="54">H227/C227-1</f>
+        <f t="shared" ref="I227" si="59">H227/C227-1</f>
         <v>0.41827151124181761</v>
       </c>
       <c r="J227" s="7">
         <v>1.2484283194825001</v>
       </c>
       <c r="K227" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>0.18435472866189162</v>
       </c>
       <c r="L227" s="7">
         <v>1.1897</v>
       </c>
       <c r="M227" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>0.12864054643771938</v>
       </c>
       <c r="N227" s="7">
         <v>1.1769000000000001</v>
       </c>
       <c r="O227" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>0.11649748600702026</v>
       </c>
       <c r="P227" s="7">
         <v>1.1651</v>
       </c>
       <c r="Q227" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>0.1053031021724693</v>
       </c>
       <c r="R227" s="7">
         <v>1.1546000000000001</v>
       </c>
       <c r="S227" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>9.5341997912911536E-2</v>
       </c>
       <c r="T227" s="7">
         <v>1.141</v>
       </c>
       <c r="U227" s="11">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>8.243999620529352E-2</v>
       </c>
       <c r="V227" s="7">
         <v>1.1281000000000001</v>
       </c>
       <c r="W227" s="11">
-        <f t="shared" ref="W227" si="55">V227/C227-1</f>
+        <f t="shared" ref="W227" si="60">V227/C227-1</f>
         <v>7.0202068114979754E-2</v>
       </c>
+      <c r="X227" s="1">
+        <v>1.7202</v>
+      </c>
+      <c r="Y227" s="35">
+        <f t="shared" si="57"/>
+        <v>0.6319134806944311</v>
+      </c>
     </row>
-    <row r="228" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:25" x14ac:dyDescent="0.25">
       <c r="G228" s="10">
         <f>AVERAGE(G221:G227)</f>
         <v>0.1912974332410855</v>
       </c>
-      <c r="H228" s="26"/>
+      <c r="H228" s="21"/>
       <c r="I228" s="10">
         <f>AVERAGE(I221:I227)</f>
         <v>0.42552098653301107</v>
@@ -32336,8 +32861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6CCFCAA-0285-4239-A64A-B8ADCDB804CF}">
   <dimension ref="A1:AD60"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12:I12"/>
+    <sheetView topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4:W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32485,6 +33010,12 @@
       <c r="U4" s="5" t="s">
         <v>33</v>
       </c>
+      <c r="V4" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="Z4" s="12"/>
       <c r="AA4" s="12"/>
       <c r="AB4" s="12"/>
@@ -32564,6 +33095,13 @@
         <f>T5/C5-1</f>
         <v>1.9155904293331361E-2</v>
       </c>
+      <c r="V5" s="1">
+        <v>2.7524000000000002</v>
+      </c>
+      <c r="W5" s="35">
+        <f>V5/C5-1</f>
+        <v>0.27848535207008118</v>
+      </c>
       <c r="Z5" s="12"/>
       <c r="AA5" s="12"/>
       <c r="AB5" s="12"/>
@@ -32643,6 +33181,13 @@
         <f>T6/C6-1</f>
         <v>8.8638567009831082E-3</v>
       </c>
+      <c r="V6" s="1">
+        <v>2.7747000000000002</v>
+      </c>
+      <c r="W6" s="35">
+        <f t="shared" ref="W6:W11" si="8">V6/C6-1</f>
+        <v>0.28096579105304453</v>
+      </c>
       <c r="Z6" s="12"/>
       <c r="AA6" s="12"/>
       <c r="AB6" s="12"/>
@@ -32719,8 +33264,15 @@
         <v>2.2084000000000001</v>
       </c>
       <c r="U7" s="11">
-        <f t="shared" ref="U7:U11" si="8">T7/C7-1</f>
+        <f t="shared" ref="U7:U11" si="9">T7/C7-1</f>
         <v>1.9537339548412191E-2</v>
+      </c>
+      <c r="V7" s="1">
+        <v>2.7549999999999999</v>
+      </c>
+      <c r="W7" s="35">
+        <f t="shared" si="8"/>
+        <v>0.27188252601696949</v>
       </c>
       <c r="Z7" s="12"/>
       <c r="AA7" s="12"/>
@@ -32798,8 +33350,15 @@
         <v>2.2155999999999998</v>
       </c>
       <c r="U8" s="11">
+        <f t="shared" si="9"/>
+        <v>1.9874495595318509E-2</v>
+      </c>
+      <c r="V8" s="1">
+        <v>2.7627000000000002</v>
+      </c>
+      <c r="W8" s="35">
         <f t="shared" si="8"/>
-        <v>1.9874495595318509E-2</v>
+        <v>0.27171297570914743</v>
       </c>
       <c r="Z8" s="12"/>
       <c r="AA8" s="12"/>
@@ -32877,8 +33436,15 @@
         <v>2.2199</v>
       </c>
       <c r="U9" s="11">
+        <f t="shared" si="9"/>
+        <v>1.9764917096115386E-2</v>
+      </c>
+      <c r="V9" s="1">
+        <v>2.7685</v>
+      </c>
+      <c r="W9" s="35">
         <f t="shared" si="8"/>
-        <v>1.9764917096115386E-2</v>
+        <v>0.27177763547033451</v>
       </c>
       <c r="Z9" s="12"/>
       <c r="AA9" s="12"/>
@@ -32956,8 +33522,15 @@
         <v>2.2101999999999999</v>
       </c>
       <c r="U10" s="11">
+        <f t="shared" si="9"/>
+        <v>1.9370906742920413E-2</v>
+      </c>
+      <c r="V10" s="1">
+        <v>2.7717000000000001</v>
+      </c>
+      <c r="W10" s="35">
         <f t="shared" si="8"/>
-        <v>1.9370906742920413E-2</v>
+        <v>0.27834148141315374</v>
       </c>
       <c r="Z10" s="12"/>
       <c r="AA10" s="12"/>
@@ -33035,8 +33608,15 @@
         <v>2.2160000000000002</v>
       </c>
       <c r="U11" s="11">
+        <f t="shared" si="9"/>
+        <v>1.931922723091084E-2</v>
+      </c>
+      <c r="V11" s="1">
+        <v>2.7608999999999999</v>
+      </c>
+      <c r="W11" s="35">
         <f t="shared" si="8"/>
-        <v>1.931922723091084E-2</v>
+        <v>0.26996320147194108</v>
       </c>
       <c r="Z11" s="12"/>
       <c r="AA11" s="12"/>
@@ -33049,7 +33629,7 @@
         <f>AVERAGE(G5:G11)</f>
         <v>0.15088705874977998</v>
       </c>
-      <c r="H12" s="26"/>
+      <c r="H12" s="21"/>
       <c r="I12" s="10">
         <f>AVERAGE(I5:I11)</f>
         <v>7.8091801285272239E-2</v>
@@ -33256,6 +33836,12 @@
       <c r="U52" s="5" t="s">
         <v>33</v>
       </c>
+      <c r="V52" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="W52" s="5" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
@@ -33330,6 +33916,13 @@
         <f>T53/C53-1</f>
         <v>9.1730098591696452E-2</v>
       </c>
+      <c r="V53" s="1">
+        <v>1.9782999999999999</v>
+      </c>
+      <c r="W53" s="35">
+        <f>V53/C53-1</f>
+        <v>0.50590549019938158</v>
+      </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
@@ -33345,64 +33938,71 @@
         <v>1.66296236606968</v>
       </c>
       <c r="E54" s="11">
-        <f t="shared" ref="E54:E59" si="9">D54/C54-1</f>
+        <f t="shared" ref="E54:E59" si="10">D54/C54-1</f>
         <v>0.25404724731738937</v>
       </c>
       <c r="F54" s="7">
         <v>1.6787424785652301</v>
       </c>
       <c r="G54" s="11">
-        <f t="shared" ref="G54:G59" si="10">F54/C54-1</f>
+        <f t="shared" ref="G54:G59" si="11">F54/C54-1</f>
         <v>0.26594709967795338</v>
       </c>
       <c r="H54" s="3">
         <v>1.7507999999999999</v>
       </c>
       <c r="I54" s="11">
-        <f t="shared" ref="I54:I57" si="11">H54/C54-1</f>
+        <f t="shared" ref="I54:I57" si="12">H54/C54-1</f>
         <v>0.32028599407960856</v>
       </c>
       <c r="J54" s="3">
         <v>1.641</v>
       </c>
       <c r="K54" s="11">
-        <f t="shared" ref="K54:K59" si="12">J54/C54-1</f>
+        <f t="shared" ref="K54:K59" si="13">J54/C54-1</f>
         <v>0.23748533029737118</v>
       </c>
       <c r="L54" s="3">
         <v>1.5098</v>
       </c>
       <c r="M54" s="11">
-        <f t="shared" ref="M54:M59" si="13">L54/C54-1</f>
+        <f t="shared" ref="M54:M59" si="14">L54/C54-1</f>
         <v>0.13854683222606412</v>
       </c>
       <c r="N54" s="3">
         <v>1.4966999999999999</v>
       </c>
       <c r="O54" s="11">
-        <f t="shared" ref="O54:O59" si="14">N54/C54-1</f>
+        <f t="shared" ref="O54:O59" si="15">N54/C54-1</f>
         <v>0.12866806450705393</v>
       </c>
       <c r="P54" s="5">
         <v>1.4653</v>
       </c>
       <c r="Q54" s="11">
-        <f t="shared" ref="Q54:Q59" si="15">P54/C54-1</f>
+        <f t="shared" ref="Q54:Q59" si="16">P54/C54-1</f>
         <v>0.10498918615767105</v>
       </c>
       <c r="R54" s="3">
         <v>1.4409000000000001</v>
       </c>
       <c r="S54" s="11">
-        <f t="shared" ref="S54:S59" si="16">R54/C54-1</f>
+        <f t="shared" ref="S54:S59" si="17">R54/C54-1</f>
         <v>8.6589038650507266E-2</v>
       </c>
       <c r="T54" s="3">
         <v>1.4093</v>
       </c>
       <c r="U54" s="11">
-        <f t="shared" ref="U54:U59" si="17">T54/C54-1</f>
+        <f t="shared" ref="U54:U59" si="18">T54/C54-1</f>
         <v>6.2759339419917959E-2</v>
+      </c>
+      <c r="V54" s="1">
+        <v>1.9832000000000001</v>
+      </c>
+      <c r="W54" s="35">
+        <f t="shared" ref="W54:W59" si="19">V54/C54-1</f>
+        <v>0.49553985804128375</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.25">
@@ -33419,64 +34019,71 @@
         <v>1.6189142811861501</v>
       </c>
       <c r="E55" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.2351134559775252</v>
       </c>
       <c r="F55" s="7">
         <v>1.66104361610881</v>
       </c>
       <c r="G55" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.26725506412754796</v>
       </c>
       <c r="H55" s="7">
         <v>1.7794000000000001</v>
       </c>
       <c r="I55" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.35755234795763702</v>
       </c>
       <c r="J55" s="5">
         <v>1.6334</v>
       </c>
       <c r="K55" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.24616500233449723</v>
       </c>
       <c r="L55" s="3">
         <v>1.5123</v>
       </c>
       <c r="M55" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.15377453962927645</v>
       </c>
       <c r="N55" s="5">
         <v>1.5014000000000001</v>
       </c>
       <c r="O55" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.14545863505878187</v>
       </c>
       <c r="P55" s="5">
         <v>1.4744999999999999</v>
       </c>
       <c r="Q55" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.12493589809123051</v>
       </c>
       <c r="R55" s="5">
         <v>1.4461999999999999</v>
       </c>
       <c r="S55" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.103345063288937</v>
       </c>
       <c r="T55" s="5">
         <v>1.4287000000000001</v>
       </c>
       <c r="U55" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>8.999384035465674E-2</v>
+      </c>
+      <c r="V55" s="1">
+        <v>1.9793000000000001</v>
+      </c>
+      <c r="W55" s="35">
+        <f t="shared" si="19"/>
+        <v>0.51006146021836063</v>
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.25">
@@ -33493,64 +34100,71 @@
         <v>1.61578116477689</v>
       </c>
       <c r="E56" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.23025628576504853</v>
       </c>
       <c r="F56" s="7">
         <v>1.6673769389450199</v>
       </c>
       <c r="G56" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.26954132440332246</v>
       </c>
       <c r="H56" s="7">
         <v>1.7916000000000001</v>
       </c>
       <c r="I56" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.36412480206192455</v>
       </c>
       <c r="J56" s="5">
         <v>1.6202000000000001</v>
       </c>
       <c r="K56" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.23362078829020438</v>
       </c>
       <c r="L56" s="3">
         <v>1.5193000000000001</v>
       </c>
       <c r="M56" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.15679549663579029</v>
       </c>
       <c r="N56" s="5">
         <v>1.4993000000000001</v>
       </c>
       <c r="O56" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.14156749036137706</v>
       </c>
       <c r="P56" s="5">
         <v>1.4734</v>
       </c>
       <c r="Q56" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.1218472222360123</v>
       </c>
       <c r="R56" s="5">
         <v>1.4498</v>
       </c>
       <c r="S56" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.10387817483220463</v>
       </c>
       <c r="T56" s="5">
         <v>1.4302999999999999</v>
       </c>
       <c r="U56" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>8.9030868714651934E-2</v>
+      </c>
+      <c r="V56" s="1">
+        <v>1.9742</v>
+      </c>
+      <c r="W56" s="35">
+        <f t="shared" si="19"/>
+        <v>0.50315649934731588</v>
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.25">
@@ -33567,66 +34181,72 @@
         <v>1.67159373558772</v>
       </c>
       <c r="E57" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.27467321415521906</v>
       </c>
       <c r="F57" s="7">
         <v>1.6592669488042</v>
       </c>
       <c r="G57" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.26527342723628156</v>
       </c>
       <c r="H57" s="3">
         <v>1.7534000000000001</v>
       </c>
       <c r="I57" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.33705455226173586</v>
       </c>
       <c r="J57" s="3">
         <v>1.6294999999999999</v>
       </c>
       <c r="K57" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.24257465091279706</v>
       </c>
       <c r="L57" s="3">
         <v>1.5106999999999999</v>
       </c>
       <c r="M57" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.15198375276708354</v>
       </c>
       <c r="N57" s="3">
         <v>1.502</v>
       </c>
       <c r="O57" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.14534957083217015</v>
       </c>
       <c r="P57" s="5">
         <v>1.4752000000000001</v>
       </c>
       <c r="Q57" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.12491324027404627</v>
       </c>
       <c r="R57" s="5">
         <v>1.4549000000000001</v>
       </c>
       <c r="S57" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.10943348242591511</v>
       </c>
       <c r="T57" s="3">
         <v>1.427</v>
       </c>
       <c r="U57" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>8.8158347255330893E-2</v>
       </c>
-      <c r="W57" s="18"/>
+      <c r="V57" s="1">
+        <v>1.9766999999999999</v>
+      </c>
+      <c r="W57" s="35">
+        <f t="shared" si="19"/>
+        <v>0.50733188859117884</v>
+      </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
@@ -33642,14 +34262,14 @@
         <v>1.6436999999999999</v>
       </c>
       <c r="E58" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.25876857099096329</v>
       </c>
       <c r="F58" s="7">
         <v>1.6563443330241701</v>
       </c>
       <c r="G58" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.26845177900457196</v>
       </c>
       <c r="H58" s="7">
@@ -33663,46 +34283,52 @@
         <v>1.6262824125209601</v>
       </c>
       <c r="K58" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.24542993760220555</v>
       </c>
       <c r="L58" s="7">
         <v>1.5089999999999999</v>
       </c>
       <c r="M58" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.15561341706233711</v>
       </c>
       <c r="N58" s="7">
         <v>1.4903999999999999</v>
       </c>
       <c r="O58" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.14136927553989875</v>
       </c>
       <c r="P58" s="7">
         <v>1.4696</v>
       </c>
       <c r="Q58" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.12544034308469909</v>
       </c>
       <c r="R58" s="7">
         <v>1.4469000000000001</v>
       </c>
       <c r="S58" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.10805636391484152</v>
       </c>
       <c r="T58" s="7">
         <v>1.4241999999999999</v>
       </c>
       <c r="U58" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>9.0672384744983736E-2</v>
       </c>
-      <c r="W58" s="18"/>
-      <c r="X58" s="19"/>
+      <c r="V58" s="1">
+        <v>1.9664999999999999</v>
+      </c>
+      <c r="W58" s="35">
+        <f t="shared" si="19"/>
+        <v>0.50597334967069973</v>
+      </c>
+      <c r="X58" s="18"/>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
@@ -33718,74 +34344,80 @@
         <v>1.6688000000000001</v>
       </c>
       <c r="E59" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.26943556975505856</v>
       </c>
       <c r="F59" s="7">
         <v>1.66296334967665</v>
       </c>
       <c r="G59" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.26499570186874344</v>
       </c>
       <c r="H59" s="7">
         <v>1.7286999999999999</v>
       </c>
       <c r="I59" s="11">
-        <f t="shared" ref="I59" si="18">H59/C59-1</f>
+        <f t="shared" ref="I59" si="20">H59/C59-1</f>
         <v>0.31500076068766147</v>
       </c>
       <c r="J59" s="7">
         <v>1.6317744739904601</v>
       </c>
       <c r="K59" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.24127070895364366</v>
       </c>
       <c r="L59" s="7">
         <v>1.5119</v>
       </c>
       <c r="M59" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.15008367564278102</v>
       </c>
       <c r="N59" s="7">
         <v>1.5023</v>
       </c>
       <c r="O59" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.14278107409097829</v>
       </c>
       <c r="P59" s="7">
         <v>1.4731000000000001</v>
       </c>
       <c r="Q59" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.1205689943709114</v>
       </c>
       <c r="R59" s="7">
         <v>1.4480999999999999</v>
       </c>
       <c r="S59" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.10155180282975818</v>
       </c>
       <c r="T59" s="7">
         <v>1.4301999999999999</v>
       </c>
       <c r="U59" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>8.7935493686292387E-2</v>
       </c>
-      <c r="W59" s="18"/>
-      <c r="X59" s="19"/>
+      <c r="V59" s="1">
+        <v>1.9686999999999999</v>
+      </c>
+      <c r="W59" s="35">
+        <f t="shared" si="19"/>
+        <v>0.49756579948273227</v>
+      </c>
+      <c r="X59" s="18"/>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G60" s="10">
         <f>AVERAGE(G53:G59)</f>
         <v>0.26674776894425922</v>
       </c>
-      <c r="H60" s="26"/>
+      <c r="H60" s="21"/>
       <c r="I60" s="10">
         <f>AVERAGE(I53:I59)</f>
         <v>0.34784093530118632</v>
@@ -33803,8 +34435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FFAF1FE-2FEA-46A2-8EC9-1166977F4C6E}">
   <dimension ref="A1:AD115"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G115" sqref="G115:I115"/>
+    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33824,7 +34456,7 @@
     <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" customWidth="1"/>
     <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16.85546875" customWidth="1"/>
     <col min="19" max="19" width="14.42578125" bestFit="1" customWidth="1"/>
@@ -33929,28 +34561,34 @@
         <v>29</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="O4" s="5" t="s">
         <v>30</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="Q4" s="5" t="s">
         <v>31</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="S4" s="5" t="s">
         <v>32</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="U4" s="5" t="s">
         <v>33</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="Z4" s="12"/>
       <c r="AA4" s="12"/>
@@ -33996,40 +34634,47 @@
         <f>J5/C5-1</f>
         <v>0.22029127154850325</v>
       </c>
-      <c r="L5" s="22">
-        <v>24.097999999999999</v>
-      </c>
-      <c r="M5" s="23">
+      <c r="L5" s="7">
+        <v>23.072399999999998</v>
+      </c>
+      <c r="M5" s="11">
         <f>L5/C5-1</f>
-        <v>0.21349151996132609</v>
+        <v>0.16184586875075535</v>
       </c>
       <c r="N5" s="7">
-        <v>23.461200000000002</v>
+        <v>22.768699999999999</v>
       </c>
       <c r="O5" s="11">
         <f>N5/C5-1</f>
-        <v>0.18142448535632294</v>
+        <v>0.14655259235386531</v>
       </c>
       <c r="P5" s="7">
-        <v>22.3767</v>
+        <v>21.307400000000001</v>
       </c>
       <c r="Q5" s="11">
         <f>P5/C5-1</f>
-        <v>0.1268128348708859</v>
+        <v>7.2966603553156428E-2</v>
       </c>
       <c r="R5" s="7">
-        <v>21.492999999999999</v>
+        <v>20.864599999999999</v>
       </c>
       <c r="S5" s="11">
         <f>R5/C5-1</f>
-        <v>8.2312774443056735E-2</v>
-      </c>
-      <c r="T5" s="7">
+        <v>5.0668734641260205E-2</v>
+      </c>
+      <c r="T5" s="43">
         <v>19.873699999999999</v>
       </c>
       <c r="U5" s="11">
         <f>T5/C5-1</f>
         <v>7.7045482012638722E-4</v>
+      </c>
+      <c r="V5" s="43">
+        <v>24.097999999999999</v>
+      </c>
+      <c r="W5" s="35">
+        <f>V5/C5-1</f>
+        <v>0.21349151996132609</v>
       </c>
       <c r="Z5" s="12"/>
       <c r="AA5" s="12"/>
@@ -34075,40 +34720,47 @@
         <f t="shared" ref="K6:K11" si="3">J6/C6-1</f>
         <v>0.23049772498639842</v>
       </c>
-      <c r="L6" s="24">
-        <v>24.7197</v>
-      </c>
-      <c r="M6" s="23">
+      <c r="L6" s="8">
+        <v>23.6068</v>
+      </c>
+      <c r="M6" s="11">
         <f t="shared" ref="M6:M11" si="4">L6/C6-1</f>
-        <v>0.21645481789863719</v>
+        <v>0.16168908179183195</v>
       </c>
       <c r="N6" s="8">
-        <v>23.9</v>
+        <v>23.406600000000001</v>
       </c>
       <c r="O6" s="11">
         <f t="shared" ref="O6:O11" si="5">N6/C6-1</f>
-        <v>0.17611743458769435</v>
+        <v>0.15183725290461636</v>
       </c>
       <c r="P6" s="13">
-        <v>22.664000000000001</v>
+        <v>21.575800000000001</v>
       </c>
       <c r="Q6" s="11">
         <f t="shared" ref="Q6:Q11" si="6">P6/C6-1</f>
-        <v>0.11529395554374511</v>
+        <v>6.1743704819128942E-2</v>
       </c>
       <c r="R6" s="3">
-        <v>21.8902</v>
+        <v>20.964600000000001</v>
       </c>
       <c r="S6" s="11">
         <f t="shared" ref="S6:S11" si="7">R6/C6-1</f>
-        <v>7.7215308226424639E-2</v>
-      </c>
-      <c r="T6" s="3">
+        <v>3.1666592851764985E-2</v>
+      </c>
+      <c r="T6" s="41">
         <v>20.3216</v>
       </c>
       <c r="U6" s="11">
         <f>T6/C6-1</f>
         <v>2.460496725076311E-5</v>
+      </c>
+      <c r="V6" s="44">
+        <v>24.7197</v>
+      </c>
+      <c r="W6" s="35">
+        <f t="shared" ref="W6:W11" si="8">V6/C6-1</f>
+        <v>0.21645481789863719</v>
       </c>
       <c r="Z6" s="12"/>
       <c r="AA6" s="12"/>
@@ -34154,40 +34806,47 @@
         <f t="shared" si="3"/>
         <v>0.20813150280500747</v>
       </c>
-      <c r="L7" s="25">
-        <v>24.251200000000001</v>
-      </c>
-      <c r="M7" s="23">
+      <c r="L7" s="9">
+        <v>23.279800000000002</v>
+      </c>
+      <c r="M7" s="11">
         <f t="shared" si="4"/>
-        <v>0.22444322146431106</v>
+        <v>0.175397230118298</v>
       </c>
       <c r="N7" s="14">
-        <v>23.221900000000002</v>
+        <v>22.403700000000001</v>
       </c>
       <c r="O7" s="11">
         <f t="shared" si="5"/>
-        <v>0.1724738587996506</v>
+        <v>0.13116293629676012</v>
       </c>
       <c r="P7" s="14">
-        <v>22.164899999999999</v>
+        <v>21.256799999999998</v>
       </c>
       <c r="Q7" s="11">
         <f t="shared" si="6"/>
-        <v>0.11910592298254552</v>
+        <v>7.3255948984898289E-2</v>
       </c>
       <c r="R7" s="7">
-        <v>21.336400000000001</v>
+        <v>20.519200000000001</v>
       </c>
       <c r="S7" s="11">
         <f t="shared" si="7"/>
-        <v>7.7274953422969972E-2</v>
-      </c>
-      <c r="T7" s="5">
+        <v>3.6014520925582882E-2</v>
+      </c>
+      <c r="T7" s="42">
         <v>19.814800000000002</v>
       </c>
       <c r="U7" s="11">
-        <f t="shared" ref="U7:U11" si="8">T7/C7-1</f>
+        <f t="shared" ref="U7:U11" si="9">T7/C7-1</f>
         <v>4.4936104898041229E-4</v>
+      </c>
+      <c r="V7" s="45">
+        <v>24.251200000000001</v>
+      </c>
+      <c r="W7" s="35">
+        <f t="shared" si="8"/>
+        <v>0.22444322146431106</v>
       </c>
       <c r="Z7" s="12"/>
       <c r="AA7" s="12"/>
@@ -34233,40 +34892,47 @@
         <f t="shared" si="3"/>
         <v>0.21925241313515853</v>
       </c>
-      <c r="L8" s="25">
-        <v>24.2867</v>
-      </c>
-      <c r="M8" s="23">
+      <c r="L8" s="9">
+        <v>23.4497</v>
+      </c>
+      <c r="M8" s="11">
         <f t="shared" si="4"/>
-        <v>0.21725031450323518</v>
+        <v>0.17529984312428248</v>
       </c>
       <c r="N8" s="5">
-        <v>23.561599999999999</v>
+        <v>22.992999999999999</v>
       </c>
       <c r="O8" s="11">
         <f t="shared" si="5"/>
-        <v>0.1809082753193898</v>
+        <v>0.15241002200269627</v>
       </c>
       <c r="P8" s="14">
-        <v>22.2879</v>
+        <v>21.459</v>
       </c>
       <c r="Q8" s="11">
         <f t="shared" si="6"/>
-        <v>0.11707038356864685</v>
+        <v>7.5525884493361506E-2</v>
       </c>
       <c r="R8" s="5">
-        <v>21.412700000000001</v>
+        <v>20.9163</v>
       </c>
       <c r="S8" s="11">
         <f t="shared" si="7"/>
-        <v>7.3205326757584288E-2</v>
-      </c>
-      <c r="T8" s="5">
+        <v>4.8325740147653562E-2</v>
+      </c>
+      <c r="T8" s="42">
         <v>19.9603</v>
       </c>
       <c r="U8" s="11">
+        <f t="shared" si="9"/>
+        <v>4.1098430741626224E-4</v>
+      </c>
+      <c r="V8" s="45">
+        <v>24.2867</v>
+      </c>
+      <c r="W8" s="35">
         <f t="shared" si="8"/>
-        <v>4.1098430741626224E-4</v>
+        <v>0.21725031450323518</v>
       </c>
       <c r="Z8" s="12"/>
       <c r="AA8" s="12"/>
@@ -34312,40 +34978,47 @@
         <f t="shared" si="3"/>
         <v>0.21796733886209618</v>
       </c>
-      <c r="L9" s="24">
-        <v>24.623000000000001</v>
-      </c>
-      <c r="M9" s="23">
+      <c r="L9" s="8">
+        <v>23.5276</v>
+      </c>
+      <c r="M9" s="11">
         <f t="shared" si="4"/>
-        <v>0.22364295049869076</v>
+        <v>0.16920691557296008</v>
       </c>
       <c r="N9" s="3">
-        <v>23.82</v>
+        <v>23.097100000000001</v>
       </c>
       <c r="O9" s="11">
         <f t="shared" si="5"/>
-        <v>0.18373776878848269</v>
+        <v>0.14781316622520846</v>
       </c>
       <c r="P9" s="13">
-        <v>22.496700000000001</v>
+        <v>21.779399999999999</v>
       </c>
       <c r="Q9" s="11">
         <f t="shared" si="6"/>
-        <v>0.11797621591535945</v>
+        <v>8.2329906026527233E-2</v>
       </c>
       <c r="R9" s="3">
-        <v>21.704599999999999</v>
+        <v>20.93675</v>
       </c>
       <c r="S9" s="11">
         <f t="shared" si="7"/>
-        <v>7.8612711017905124E-2</v>
-      </c>
-      <c r="T9" s="3">
+        <v>4.0454312791027069E-2</v>
+      </c>
+      <c r="T9" s="41">
         <v>20.141999999999999</v>
       </c>
       <c r="U9" s="11">
+        <f t="shared" si="9"/>
+        <v>9.5911582441732257E-4</v>
+      </c>
+      <c r="V9" s="44">
+        <v>24.623000000000001</v>
+      </c>
+      <c r="W9" s="35">
         <f t="shared" si="8"/>
-        <v>9.5911582441732257E-4</v>
+        <v>0.22364295049869076</v>
       </c>
       <c r="Z9" s="12"/>
       <c r="AA9" s="12"/>
@@ -34391,40 +35064,47 @@
         <f t="shared" si="3"/>
         <v>0.21386113887078984</v>
       </c>
-      <c r="L10" s="24">
-        <v>24.373000000000001</v>
-      </c>
-      <c r="M10" s="23">
+      <c r="L10" s="8">
+        <v>23.576899999999998</v>
+      </c>
+      <c r="M10" s="11">
         <f t="shared" si="4"/>
-        <v>0.21077993045206167</v>
+        <v>0.17123199205166406</v>
       </c>
       <c r="N10" s="7">
-        <v>23.7942</v>
+        <v>23.190200000000001</v>
       </c>
       <c r="O10" s="11">
         <f t="shared" si="5"/>
-        <v>0.18202682563338302</v>
+        <v>0.15202185792349732</v>
       </c>
       <c r="P10" s="7">
-        <v>22.486899999999999</v>
+        <v>21.664400000000001</v>
       </c>
       <c r="Q10" s="11">
         <f t="shared" si="6"/>
-        <v>0.11708395429706897</v>
+        <v>7.6224540486835579E-2</v>
       </c>
       <c r="R10" s="7">
-        <v>21.714300000000001</v>
+        <v>21.137799999999999</v>
       </c>
       <c r="S10" s="11">
         <f t="shared" si="7"/>
-        <v>7.8703427719821306E-2</v>
-      </c>
-      <c r="T10" s="7">
+        <v>5.0064580228514677E-2</v>
+      </c>
+      <c r="T10" s="43">
         <v>20.136700000000001</v>
       </c>
       <c r="U10" s="11">
+        <f t="shared" si="9"/>
+        <v>3.328365623449514E-4</v>
+      </c>
+      <c r="V10" s="44">
+        <v>24.373000000000001</v>
+      </c>
+      <c r="W10" s="35">
         <f t="shared" si="8"/>
-        <v>3.328365623449514E-4</v>
+        <v>0.21077993045206167</v>
       </c>
       <c r="Z10" s="12"/>
       <c r="AA10" s="12"/>
@@ -34470,40 +35150,47 @@
         <f t="shared" si="3"/>
         <v>0.22158274879109285</v>
       </c>
-      <c r="L11" s="22">
-        <v>24.1495</v>
-      </c>
-      <c r="M11" s="23">
+      <c r="L11" s="7">
+        <v>23.3857</v>
+      </c>
+      <c r="M11" s="11">
         <f t="shared" si="4"/>
-        <v>0.22970812286133291</v>
+        <v>0.19081493400684368</v>
       </c>
       <c r="N11" s="7">
-        <v>23.139199999999999</v>
+        <v>22.619399999999999</v>
       </c>
       <c r="O11" s="11">
         <f t="shared" si="5"/>
-        <v>0.17826299494867182</v>
+        <v>0.15179444353918847</v>
       </c>
       <c r="P11" s="7">
-        <v>22.075099999999999</v>
+        <v>21.167100000000001</v>
       </c>
       <c r="Q11" s="11">
         <f t="shared" si="6"/>
-        <v>0.12407833632067766</v>
+        <v>7.7842390418771501E-2</v>
       </c>
       <c r="R11" s="7">
-        <v>21.0764</v>
+        <v>20.5395</v>
       </c>
       <c r="S11" s="11">
         <f t="shared" si="7"/>
-        <v>7.3223887893107298E-2</v>
-      </c>
-      <c r="T11" s="7">
+        <v>4.588459344956819E-2</v>
+      </c>
+      <c r="T11" s="43">
         <v>19.649899999999999</v>
       </c>
       <c r="U11" s="11">
+        <f t="shared" si="9"/>
+        <v>5.8558742056380453E-4</v>
+      </c>
+      <c r="V11" s="43">
+        <v>24.1495</v>
+      </c>
+      <c r="W11" s="35">
         <f t="shared" si="8"/>
-        <v>5.8558742056380453E-4</v>
+        <v>0.22970812286133291</v>
       </c>
       <c r="Z11" s="12"/>
       <c r="AA11" s="12"/>
@@ -34516,10 +35203,18 @@
         <f>AVERAGE(G5:G11)</f>
         <v>1.1685070988920496E-2</v>
       </c>
-      <c r="H12" s="26"/>
+      <c r="H12" s="21"/>
       <c r="I12" s="10">
         <f>AVERAGE(I5:I11)</f>
         <v>0.28523751452828716</v>
+      </c>
+      <c r="K12" s="38">
+        <f>AVERAGE(K5:K11)</f>
+        <v>0.21879773414272094</v>
+      </c>
+      <c r="W12" s="37">
+        <f>AVERAGE(W5:W11)</f>
+        <v>0.21939583966279927</v>
       </c>
       <c r="Z12" s="12"/>
       <c r="AA12" s="12"/>
@@ -34555,90 +35250,162 @@
       <c r="AC16" s="12"/>
       <c r="AD16" s="12"/>
     </row>
-    <row r="17" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="19:30" x14ac:dyDescent="0.25">
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="39"/>
       <c r="Z17" s="12"/>
       <c r="AA17" s="12"/>
       <c r="AB17" s="12"/>
       <c r="AC17" s="12"/>
       <c r="AD17" s="12"/>
     </row>
-    <row r="18" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="19:30" x14ac:dyDescent="0.25">
+      <c r="S18" s="39"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="39"/>
+      <c r="V18" s="39"/>
       <c r="Z18" s="12"/>
       <c r="AA18" s="12"/>
       <c r="AB18" s="12"/>
       <c r="AC18" s="12"/>
       <c r="AD18" s="12"/>
     </row>
-    <row r="19" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="19:30" x14ac:dyDescent="0.25">
+      <c r="S19" s="39"/>
+      <c r="T19" s="39"/>
+      <c r="U19" s="39"/>
+      <c r="V19" s="39"/>
       <c r="Z19" s="12"/>
       <c r="AA19" s="12"/>
       <c r="AB19" s="12"/>
       <c r="AC19" s="12"/>
       <c r="AD19" s="12"/>
     </row>
-    <row r="20" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="19:30" x14ac:dyDescent="0.25">
+      <c r="S20" s="39"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="39"/>
+      <c r="V20" s="39"/>
       <c r="Z20" s="12"/>
       <c r="AA20" s="12"/>
       <c r="AB20" s="12"/>
       <c r="AC20" s="12"/>
       <c r="AD20" s="12"/>
     </row>
-    <row r="21" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="19:30" x14ac:dyDescent="0.25">
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="39"/>
+      <c r="V21" s="39"/>
       <c r="Z21" s="12"/>
       <c r="AA21" s="12"/>
       <c r="AB21" s="12"/>
       <c r="AC21" s="12"/>
       <c r="AD21" s="12"/>
     </row>
-    <row r="22" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="19:30" x14ac:dyDescent="0.25">
+      <c r="S22" s="39"/>
+      <c r="T22" s="39"/>
+      <c r="U22" s="39"/>
+      <c r="V22" s="39"/>
       <c r="Z22" s="12"/>
       <c r="AA22" s="12"/>
       <c r="AB22" s="12"/>
       <c r="AC22" s="12"/>
       <c r="AD22" s="12"/>
     </row>
-    <row r="23" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="19:30" x14ac:dyDescent="0.25">
+      <c r="S23" s="39"/>
+      <c r="T23" s="39"/>
+      <c r="U23" s="39"/>
+      <c r="V23" s="39"/>
       <c r="Z23" s="12"/>
       <c r="AA23" s="12"/>
       <c r="AB23" s="12"/>
       <c r="AC23" s="12"/>
       <c r="AD23" s="12"/>
     </row>
-    <row r="24" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="19:30" x14ac:dyDescent="0.25">
+      <c r="S24" s="39"/>
+      <c r="T24" s="39"/>
+      <c r="U24" s="39"/>
+      <c r="V24" s="39"/>
       <c r="Z24" s="12"/>
       <c r="AA24" s="12"/>
       <c r="AB24" s="12"/>
       <c r="AC24" s="12"/>
       <c r="AD24" s="12"/>
     </row>
-    <row r="25" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="19:30" x14ac:dyDescent="0.25">
+      <c r="S25" s="39"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="39"/>
+      <c r="V25" s="39"/>
       <c r="Z25" s="12"/>
       <c r="AA25" s="12"/>
       <c r="AB25" s="12"/>
       <c r="AC25" s="12"/>
       <c r="AD25" s="12"/>
     </row>
-    <row r="26" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="19:30" x14ac:dyDescent="0.25">
+      <c r="S26" s="39"/>
+      <c r="T26" s="39"/>
+      <c r="U26" s="39"/>
+      <c r="V26" s="39"/>
       <c r="Z26" s="12"/>
       <c r="AA26" s="12"/>
       <c r="AB26" s="12"/>
       <c r="AC26" s="12"/>
       <c r="AD26" s="12"/>
     </row>
-    <row r="27" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="19:30" x14ac:dyDescent="0.25">
+      <c r="S27" s="39"/>
+      <c r="T27" s="39"/>
+      <c r="U27" s="39"/>
+      <c r="V27" s="39"/>
       <c r="Z27" s="12"/>
       <c r="AA27" s="12"/>
       <c r="AB27" s="12"/>
       <c r="AC27" s="12"/>
       <c r="AD27" s="12"/>
     </row>
-    <row r="28" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="19:30" x14ac:dyDescent="0.25">
+      <c r="S28" s="39"/>
+      <c r="T28" s="39"/>
+      <c r="U28" s="39"/>
+      <c r="V28" s="39"/>
       <c r="Z28" s="12"/>
       <c r="AA28" s="12"/>
       <c r="AB28" s="12"/>
       <c r="AC28" s="12"/>
       <c r="AD28" s="12"/>
     </row>
+    <row r="29" spans="19:30" x14ac:dyDescent="0.25">
+      <c r="S29" s="39"/>
+      <c r="T29" s="39"/>
+      <c r="U29" s="39"/>
+      <c r="V29" s="39"/>
+    </row>
+    <row r="30" spans="19:30" x14ac:dyDescent="0.25">
+      <c r="S30" s="39"/>
+      <c r="T30" s="39"/>
+      <c r="U30" s="39"/>
+      <c r="V30" s="39"/>
+    </row>
+    <row r="31" spans="19:30" x14ac:dyDescent="0.25">
+      <c r="S31" s="39"/>
+      <c r="T31" s="39"/>
+      <c r="U31" s="39"/>
+      <c r="V31" s="39"/>
+    </row>
+    <row r="32" spans="19:30" x14ac:dyDescent="0.25">
+      <c r="S32" s="39"/>
+      <c r="T32" s="39"/>
+      <c r="U32" s="39"/>
+      <c r="V32" s="39"/>
+    </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>4</v>
@@ -34812,63 +35579,63 @@
         <v>146.56489999999999</v>
       </c>
       <c r="E54" s="11">
-        <f t="shared" ref="E54:E57" si="9">D54/C54-1</f>
+        <f t="shared" ref="E54:E57" si="10">D54/C54-1</f>
         <v>84.630345875204483</v>
       </c>
       <c r="F54" s="3">
         <v>2.54256287721577</v>
       </c>
       <c r="G54" s="11">
-        <f t="shared" ref="G54:G57" si="10">F54/C54-1</f>
+        <f t="shared" ref="G54:G57" si="11">F54/C54-1</f>
         <v>0.48548894438874157</v>
       </c>
       <c r="H54" s="3">
         <v>3.3035999999999999</v>
       </c>
       <c r="I54" s="11">
-        <f t="shared" ref="I54:I57" si="11">H54/C54-1</f>
+        <f t="shared" ref="I54:I57" si="12">H54/C54-1</f>
         <v>0.93012386071512032</v>
       </c>
       <c r="J54" s="7">
         <v>2.6861000000000002</v>
       </c>
       <c r="K54" s="11">
-        <f t="shared" ref="K54:K57" si="12">J54/C54-1</f>
+        <f t="shared" ref="K54:K57" si="13">J54/C54-1</f>
         <v>0.56935031549427451</v>
       </c>
       <c r="L54" s="3">
         <v>1.9527000000000001</v>
       </c>
       <c r="M54" s="11">
-        <f t="shared" ref="M54:M57" si="13">L54/C54-1</f>
+        <f t="shared" ref="M54:M57" si="14">L54/C54-1</f>
         <v>0.14086235101659272</v>
       </c>
       <c r="N54" s="3">
         <v>1.9112</v>
       </c>
       <c r="O54" s="11">
-        <f t="shared" ref="O54:O57" si="14">N54/C54-1</f>
+        <f t="shared" ref="O54:O57" si="15">N54/C54-1</f>
         <v>0.11661603178312685</v>
       </c>
       <c r="P54" s="5">
         <v>1.8764000000000001</v>
       </c>
       <c r="Q54" s="11">
-        <f t="shared" ref="Q54:Q57" si="15">P54/C54-1</f>
+        <f t="shared" ref="Q54:Q57" si="16">P54/C54-1</f>
         <v>9.6284178546389487E-2</v>
       </c>
       <c r="R54" s="5">
         <v>1.8633999999999999</v>
       </c>
       <c r="S54" s="11">
-        <f t="shared" ref="S54:S57" si="16">R54/C54-1</f>
+        <f t="shared" ref="S54:S57" si="17">R54/C54-1</f>
         <v>8.8688946015424097E-2</v>
       </c>
       <c r="T54" s="3">
         <v>1.8581000000000001</v>
       </c>
       <c r="U54" s="11">
-        <f t="shared" ref="U54:U57" si="17">T54/C54-1</f>
+        <f t="shared" ref="U54:U57" si="18">T54/C54-1</f>
         <v>8.5592428137415411E-2</v>
       </c>
     </row>
@@ -34886,63 +35653,63 @@
         <v>51.031030718023104</v>
       </c>
       <c r="E55" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>28.964607203641688</v>
       </c>
       <c r="F55" s="7">
         <v>2.5322460403475402</v>
       </c>
       <c r="G55" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.48689448114934097</v>
       </c>
       <c r="H55" s="7">
         <v>2.9327999999999999</v>
       </c>
       <c r="I55" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.7220933767227018</v>
       </c>
       <c r="J55" s="6">
         <v>2.6911999999999998</v>
       </c>
       <c r="K55" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.58022971066425777</v>
       </c>
       <c r="L55" s="3">
         <v>1.9369000000000001</v>
       </c>
       <c r="M55" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.13731678306539874</v>
       </c>
       <c r="N55" s="5">
         <v>1.9159999999999999</v>
       </c>
       <c r="O55" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.12504463645686603</v>
       </c>
       <c r="P55" s="5">
         <v>1.8943000000000001</v>
       </c>
       <c r="Q55" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.11230274260972939</v>
       </c>
       <c r="R55" s="5">
         <v>1.8933</v>
       </c>
       <c r="S55" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.11171555856147419</v>
       </c>
       <c r="T55" s="5">
         <v>1.8993</v>
       </c>
       <c r="U55" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.11523866285100515</v>
       </c>
     </row>
@@ -34960,63 +35727,63 @@
         <v>62.330671194401901</v>
       </c>
       <c r="E56" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>35.3864310789115</v>
       </c>
       <c r="F56" s="7">
         <v>2.5429469197090602</v>
       </c>
       <c r="G56" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.48448205447263493</v>
       </c>
       <c r="H56" s="7">
         <v>2.9142999999999999</v>
       </c>
       <c r="I56" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.70126478764431521</v>
       </c>
       <c r="J56" s="6">
         <v>2.7309999999999999</v>
       </c>
       <c r="K56" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.5942607607509951</v>
       </c>
       <c r="L56" s="3">
         <v>1.9479</v>
       </c>
       <c r="M56" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.13711480624930905</v>
       </c>
       <c r="N56" s="5">
         <v>1.9268000000000001</v>
       </c>
       <c r="O56" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.12479737598499363</v>
       </c>
       <c r="P56" s="5">
         <v>1.8937999999999999</v>
       </c>
       <c r="Q56" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.10553314855739093</v>
       </c>
       <c r="R56" s="5">
         <v>1.899</v>
       </c>
       <c r="S56" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.10856872378840698</v>
       </c>
       <c r="T56" s="5">
         <v>1.9074</v>
       </c>
       <c r="U56" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.11347234531543315</v>
       </c>
     </row>
@@ -35034,63 +35801,63 @@
         <v>49.514683496694197</v>
       </c>
       <c r="E57" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>28.025177591831653</v>
       </c>
       <c r="F57" s="3">
         <v>2.54078320010519</v>
       </c>
       <c r="G57" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.48939018483919239</v>
       </c>
       <c r="H57" s="3">
         <v>2.5127999999999999</v>
       </c>
       <c r="I57" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.47298661936562669</v>
       </c>
       <c r="J57" s="7">
         <v>2.6671</v>
       </c>
       <c r="K57" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.56343625139687337</v>
       </c>
       <c r="L57" s="3">
         <v>1.948</v>
       </c>
       <c r="M57" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.14190462214431743</v>
       </c>
       <c r="N57" s="3">
         <v>1.9142999999999999</v>
       </c>
       <c r="O57" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.12214990665855585</v>
       </c>
       <c r="P57" s="5">
         <v>1.8992</v>
       </c>
       <c r="Q57" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.11329838725692398</v>
       </c>
       <c r="R57" s="5">
         <v>1.8916999999999999</v>
       </c>
       <c r="S57" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.10890193722300068</v>
       </c>
       <c r="T57" s="3">
         <v>1.8976999999999999</v>
       </c>
       <c r="U57" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.11241909725013932</v>
       </c>
     </row>
@@ -35099,13 +35866,13 @@
         <f>AVERAGE(G51:G57)</f>
         <v>0.48677195222684821</v>
       </c>
-      <c r="H58" s="26"/>
+      <c r="H58" s="21"/>
       <c r="I58" s="10">
         <f>AVERAGE(I51:I57)</f>
         <v>0.66442614020953705</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>4</v>
       </c>
@@ -35116,7 +35883,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>47</v>
       </c>
@@ -35125,7 +35892,7 @@
       </c>
       <c r="C105" s="1"/>
     </row>
-    <row r="107" spans="1:21" ht="90" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" ht="90" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>16</v>
       </c>
@@ -35189,8 +35956,14 @@
       <c r="U107" s="5" t="s">
         <v>33</v>
       </c>
+      <c r="V107" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="W107" s="5" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>9</v>
       </c>
@@ -35263,8 +36036,15 @@
         <f>T108/C108-1</f>
         <v>9.8126972278649749E-2</v>
       </c>
+      <c r="V108" s="1">
+        <v>2.6280999999999999</v>
+      </c>
+      <c r="W108" s="35">
+        <f>V108/C108-1</f>
+        <v>0.53935752925406399</v>
+      </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>10</v>
       </c>
@@ -35278,56 +36058,56 @@
         <v>82.191953899403501</v>
       </c>
       <c r="E109" s="11">
-        <f t="shared" ref="E109:E114" si="18">D109/C109-1</f>
+        <f t="shared" ref="E109:E114" si="19">D109/C109-1</f>
         <v>46.465661914769946</v>
       </c>
       <c r="F109" s="3">
         <v>2.5486043090064898</v>
       </c>
       <c r="G109" s="11">
-        <f t="shared" ref="G109:G114" si="19">F109/C109-1</f>
+        <f t="shared" ref="G109:G114" si="20">F109/C109-1</f>
         <v>0.47181305160219389</v>
       </c>
       <c r="H109" s="3">
         <v>2.9658000000000002</v>
       </c>
       <c r="I109" s="11">
-        <f t="shared" ref="I109:I112" si="20">H109/C109-1</f>
+        <f t="shared" ref="I109:I112" si="21">H109/C109-1</f>
         <v>0.7127425913139942</v>
       </c>
       <c r="J109" s="3">
         <v>2.6861000000000002</v>
       </c>
       <c r="K109" s="11">
-        <f t="shared" ref="K109:K114" si="21">J109/C109-1</f>
+        <f t="shared" ref="K109:K114" si="22">J109/C109-1</f>
         <v>0.55121649286146068</v>
       </c>
       <c r="L109" s="3">
         <v>1.9598</v>
       </c>
       <c r="M109" s="11">
-        <f t="shared" ref="M109:M114" si="22">L109/C109-1</f>
+        <f t="shared" ref="M109:M114" si="23">L109/C109-1</f>
         <v>0.13177993474177807</v>
       </c>
       <c r="N109" s="3">
         <v>1.9139999999999999</v>
       </c>
       <c r="O109" s="11">
-        <f t="shared" ref="O109:O114" si="23">N109/C109-1</f>
+        <f t="shared" ref="O109:O114" si="24">N109/C109-1</f>
         <v>0.10533054143063758</v>
       </c>
       <c r="P109" s="5">
         <v>1.8766</v>
       </c>
       <c r="Q109" s="11">
-        <f t="shared" ref="Q109:Q114" si="24">P109/C109-1</f>
+        <f t="shared" ref="Q109:Q114" si="25">P109/C109-1</f>
         <v>8.3732128552107765E-2</v>
       </c>
       <c r="R109" s="5">
         <v>1.8537999999999999</v>
       </c>
       <c r="S109" s="11">
-        <f t="shared" ref="S109:S114" si="25">R109/C109-1</f>
+        <f t="shared" ref="S109:S114" si="26">R109/C109-1</f>
         <v>7.056518166359238E-2</v>
       </c>
       <c r="T109" s="3">
@@ -35337,8 +36117,15 @@
         <f>T109/C109-1</f>
         <v>6.8601689583726033E-2</v>
       </c>
+      <c r="V109" s="1">
+        <v>2.6377999999999999</v>
+      </c>
+      <c r="W109" s="35">
+        <f t="shared" ref="W109:W114" si="27">V109/C109-1</f>
+        <v>0.52332335537394759</v>
+      </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>11</v>
       </c>
@@ -35352,67 +36139,74 @@
         <v>51.031030718023104</v>
       </c>
       <c r="E110" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>28.964607203641688</v>
       </c>
       <c r="F110" s="7">
         <v>2.5322460403475402</v>
       </c>
       <c r="G110" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.48689448114934097</v>
       </c>
       <c r="H110" s="7">
         <v>2.9327999999999999</v>
       </c>
       <c r="I110" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.7220933767227018</v>
       </c>
       <c r="J110" s="5">
         <v>2.6911999999999998</v>
       </c>
       <c r="K110" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.58022971066425777</v>
       </c>
       <c r="L110" s="3">
         <v>1.9369000000000001</v>
       </c>
       <c r="M110" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.13731678306539874</v>
       </c>
       <c r="N110" s="5">
         <v>1.9178999999999999</v>
       </c>
       <c r="O110" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.1261602861485509</v>
       </c>
       <c r="P110" s="5">
         <v>1.8807</v>
       </c>
       <c r="Q110" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.10431703955345939</v>
       </c>
       <c r="R110" s="5">
         <v>1.8734</v>
       </c>
       <c r="S110" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.10003059600119668</v>
       </c>
       <c r="T110" s="5">
         <v>1.8678999999999999</v>
       </c>
       <c r="U110" s="11">
-        <f t="shared" ref="U110:U114" si="26">T110/C110-1</f>
+        <f t="shared" ref="U110:U114" si="28">T110/C110-1</f>
         <v>9.6801083735793325E-2</v>
       </c>
+      <c r="V110" s="1">
+        <v>2.6217000000000001</v>
+      </c>
+      <c r="W110" s="35">
+        <f t="shared" si="27"/>
+        <v>0.5394204193105252</v>
+      </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>12</v>
       </c>
@@ -35426,67 +36220,74 @@
         <v>62.330671194401901</v>
       </c>
       <c r="E111" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>35.3864310789115</v>
       </c>
       <c r="F111" s="7">
         <v>2.5429469197090602</v>
       </c>
       <c r="G111" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.48448205447263493</v>
       </c>
       <c r="H111" s="7">
         <v>2.9142999999999999</v>
       </c>
       <c r="I111" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.70126478764431521</v>
       </c>
       <c r="J111" s="5">
         <v>2.7309999999999999</v>
       </c>
       <c r="K111" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.5942607607509951</v>
       </c>
       <c r="L111" s="3">
         <v>1.9479</v>
       </c>
       <c r="M111" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.13711480624930905</v>
       </c>
       <c r="N111" s="5">
         <v>1.9254</v>
       </c>
       <c r="O111" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.12398010573048923</v>
       </c>
       <c r="P111" s="5">
         <v>1.8951</v>
       </c>
       <c r="Q111" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.106292042365145</v>
       </c>
       <c r="R111" s="5">
         <v>1.8806</v>
       </c>
       <c r="S111" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>9.7827457586349809E-2</v>
       </c>
       <c r="T111" s="5">
         <v>1.8741000000000001</v>
       </c>
       <c r="U111" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>9.4032988547579688E-2</v>
       </c>
+      <c r="V111" s="1">
+        <v>2.6246999999999998</v>
+      </c>
+      <c r="W111" s="35">
+        <f t="shared" si="27"/>
+        <v>0.53220659785541424</v>
+      </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>13</v>
       </c>
@@ -35500,67 +36301,74 @@
         <v>49.514683496694197</v>
       </c>
       <c r="E112" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>28.025177591831653</v>
       </c>
       <c r="F112" s="3">
         <v>2.54078320010519</v>
       </c>
       <c r="G112" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.48939018483919239</v>
       </c>
       <c r="H112" s="3">
         <v>2.5127999999999999</v>
       </c>
       <c r="I112" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.47298661936562669</v>
       </c>
       <c r="J112" s="3">
         <v>2.6671</v>
       </c>
       <c r="K112" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.56343625139687337</v>
       </c>
       <c r="L112" s="3">
         <v>1.948</v>
       </c>
       <c r="M112" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.14190462214431743</v>
       </c>
       <c r="N112" s="3">
         <v>1.9054</v>
       </c>
       <c r="O112" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.11693278595163381</v>
       </c>
       <c r="P112" s="5">
         <v>1.8858999999999999</v>
       </c>
       <c r="Q112" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.10550201586343344</v>
       </c>
       <c r="R112" s="5">
         <v>1.8732</v>
       </c>
       <c r="S112" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>9.8057360472656896E-2</v>
       </c>
       <c r="T112" s="3">
         <v>1.8652</v>
       </c>
       <c r="U112" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>9.3367813769805519E-2</v>
       </c>
+      <c r="V112" s="1">
+        <v>2.6190000000000002</v>
+      </c>
+      <c r="W112" s="35">
+        <f t="shared" si="27"/>
+        <v>0.5352403518459794</v>
+      </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>14</v>
       </c>
@@ -35574,14 +36382,14 @@
         <v>43.499299999999998</v>
       </c>
       <c r="E113" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>24.464992389649925</v>
       </c>
       <c r="F113" s="7">
         <v>2.54333164248819</v>
       </c>
       <c r="G113" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.48889570453587994</v>
       </c>
       <c r="H113" s="7">
@@ -35595,46 +36403,53 @@
         <v>2.6986206731062401</v>
       </c>
       <c r="K113" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.57980369576527346</v>
       </c>
       <c r="L113" s="7">
         <v>1.9472</v>
       </c>
       <c r="M113" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.13991335909144142</v>
       </c>
       <c r="N113" s="7">
         <v>1.9198</v>
       </c>
       <c r="O113" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.12387308277719233</v>
       </c>
       <c r="P113" s="7">
         <v>1.8922000000000001</v>
       </c>
       <c r="Q113" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.10771572415408048</v>
       </c>
       <c r="R113" s="7">
         <v>1.881</v>
       </c>
       <c r="S113" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.10115911485774509</v>
       </c>
       <c r="T113" s="7">
         <v>1.8763000000000001</v>
       </c>
       <c r="U113" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>9.8407680599461589E-2</v>
       </c>
+      <c r="V113" s="1">
+        <v>2.6389999999999998</v>
+      </c>
+      <c r="W113" s="35">
+        <f t="shared" si="27"/>
+        <v>0.54490106544901051</v>
+      </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>15</v>
       </c>
@@ -35648,72 +36463,79 @@
         <v>50.247599999999998</v>
       </c>
       <c r="E114" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>28.484567539021242</v>
       </c>
       <c r="F114" s="7">
         <v>2.53591942632085</v>
       </c>
       <c r="G114" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.48804097307877603</v>
       </c>
       <c r="H114" s="7">
         <v>2.8997999999999999</v>
       </c>
       <c r="I114" s="11">
-        <f t="shared" ref="I114" si="27">H114/C114-1</f>
+        <f t="shared" ref="I114" si="29">H114/C114-1</f>
         <v>0.70156084966553234</v>
       </c>
       <c r="J114" s="7">
         <v>2.7210910505653398</v>
       </c>
       <c r="K114" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.59669701359308758</v>
       </c>
       <c r="L114" s="7">
         <v>1.9489000000000001</v>
       </c>
       <c r="M114" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.1435864335171928</v>
       </c>
       <c r="N114" s="7">
         <v>1.9168000000000001</v>
       </c>
       <c r="O114" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.12475061612486815</v>
       </c>
       <c r="P114" s="7">
         <v>1.8871</v>
       </c>
       <c r="Q114" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.10732308414505343</v>
       </c>
       <c r="R114" s="7">
         <v>1.8758999999999999</v>
       </c>
       <c r="S114" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.10075108555333889</v>
       </c>
       <c r="T114" s="7">
         <v>1.8705000000000001</v>
       </c>
       <c r="U114" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>9.7582443375190842E-2</v>
       </c>
+      <c r="V114" s="1">
+        <v>2.6276000000000002</v>
+      </c>
+      <c r="W114" s="35">
+        <f t="shared" si="27"/>
+        <v>0.54183781246332607</v>
+      </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G115" s="10">
         <f>AVERAGE(G108:G114)</f>
         <v>0.48530293513747852</v>
       </c>
-      <c r="H115" s="26"/>
+      <c r="H115" s="21"/>
       <c r="I115" s="10">
         <f>AVERAGE(I108:I114)</f>
         <v>0.67114416365909946</v>
@@ -35731,7 +36553,7 @@
   <dimension ref="A1:AD71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60:I60"/>
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35759,6 +36581,8 @@
     <col min="21" max="21" width="13.85546875" customWidth="1"/>
     <col min="22" max="22" width="23.28515625" customWidth="1"/>
     <col min="23" max="23" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="20.140625" bestFit="1" customWidth="1"/>
@@ -35794,7 +36618,7 @@
         <v>0.3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Z2" s="12"/>
       <c r="AA2" s="3">
@@ -35804,7 +36628,7 @@
         <v>132</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AD2" s="12"/>
     </row>
@@ -35856,34 +36680,40 @@
         <v>29</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O4" s="5" t="s">
         <v>30</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q4" s="5" t="s">
         <v>31</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="S4" s="5" t="s">
         <v>32</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="U4" s="5" t="s">
         <v>33</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="W4" s="5" t="s">
         <v>51</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="Z4" s="12"/>
       <c r="AA4" s="12"/>
@@ -35911,65 +36741,72 @@
       <c r="F5" s="15">
         <v>1.7002269122811899</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="29">
         <f>F5/C5-1</f>
         <v>7.3289869409576269E-5</v>
       </c>
       <c r="H5" s="15">
         <v>1.9125000000000001</v>
       </c>
-      <c r="I5" s="27">
+      <c r="I5" s="22">
         <f>H5/C5-1</f>
         <v>0.12493229760083135</v>
       </c>
       <c r="J5" s="15">
         <v>1.7211858205506401</v>
       </c>
-      <c r="K5" s="28">
+      <c r="K5" s="23">
         <f>J5/C5-1</f>
         <v>1.2401317495426722E-2</v>
       </c>
       <c r="L5" s="15">
         <v>1.7123999999999999</v>
       </c>
-      <c r="M5" s="28">
+      <c r="M5" s="23">
         <f>L5/C5-1</f>
         <v>7.2334987773403636E-3</v>
       </c>
       <c r="N5" s="15">
         <v>1.7092000000000001</v>
       </c>
-      <c r="O5" s="28">
+      <c r="O5" s="23">
         <f>N5/C5-1</f>
         <v>5.3512591159952105E-3</v>
       </c>
       <c r="P5" s="15">
         <v>1.7019</v>
       </c>
-      <c r="Q5" s="28">
+      <c r="Q5" s="23">
         <f>P5/C5-1</f>
         <v>1.057399888551469E-3</v>
       </c>
       <c r="R5" s="15">
         <v>1.7002699999999999</v>
       </c>
-      <c r="S5" s="31">
+      <c r="S5" s="26">
         <f>R5/C5-1</f>
         <v>9.8634061053815003E-5</v>
       </c>
       <c r="T5" s="15">
         <v>1.7034</v>
       </c>
-      <c r="U5" s="28">
+      <c r="U5" s="23">
         <f>T5/C5-1</f>
         <v>1.9396997298071206E-3</v>
       </c>
       <c r="V5" s="15">
         <v>1.7095</v>
       </c>
-      <c r="W5" s="28">
+      <c r="W5" s="23">
         <f>V5/C5-1</f>
         <v>5.5277190842462076E-3</v>
+      </c>
+      <c r="X5" s="40">
+        <v>1.8561000000000001</v>
+      </c>
+      <c r="Y5" s="35">
+        <f>X5/C5-1</f>
+        <v>9.1757823569622587E-2</v>
       </c>
       <c r="Z5" s="12"/>
       <c r="AA5" s="12"/>
@@ -35997,65 +36834,72 @@
       <c r="F6" s="15">
         <v>1.6897773547744599</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="30">
         <f t="shared" ref="G6:G11" si="1">F6/C6-1</f>
         <v>5.7872736526509705E-4</v>
       </c>
       <c r="H6" s="15">
         <v>1.9218</v>
       </c>
-      <c r="I6" s="27">
+      <c r="I6" s="22">
         <f t="shared" ref="I6:I11" si="2">H6/C6-1</f>
         <v>0.1379677877783041</v>
       </c>
       <c r="J6" s="15">
         <v>1.71272398524397</v>
       </c>
-      <c r="K6" s="28">
+      <c r="K6" s="23">
         <f t="shared" ref="K6:K11" si="3">J6/C6-1</f>
         <v>1.4166263171464966E-2</v>
       </c>
       <c r="L6" s="15">
         <v>1.7001500000000001</v>
       </c>
-      <c r="M6" s="28">
+      <c r="M6" s="23">
         <f t="shared" ref="M6:M11" si="4">L6/C6-1</f>
         <v>6.7207484604452361E-3</v>
       </c>
       <c r="N6" s="15">
         <v>1.6925699999999999</v>
       </c>
-      <c r="O6" s="28">
+      <c r="O6" s="23">
         <f t="shared" ref="O6:O11" si="5">N6/C6-1</f>
         <v>2.2323543344384689E-3</v>
       </c>
-      <c r="P6" s="20">
+      <c r="P6" s="19">
         <v>1.6912</v>
       </c>
-      <c r="Q6" s="28">
+      <c r="Q6" s="23">
         <f t="shared" ref="Q6:Q11" si="6">P6/C6-1</f>
         <v>1.42112742775935E-3</v>
       </c>
-      <c r="R6" s="20">
+      <c r="R6" s="19">
         <v>1.6910000000000001</v>
       </c>
-      <c r="S6" s="32">
+      <c r="S6" s="27">
         <f t="shared" ref="S6:S11" si="7">R6/C6-1</f>
         <v>1.302700142112645E-3</v>
       </c>
       <c r="T6" s="15">
         <v>1.6904300000000001</v>
       </c>
-      <c r="U6" s="28">
+      <c r="U6" s="23">
         <f>T6/C6-1</f>
         <v>9.6518237801990203E-4</v>
       </c>
       <c r="V6" s="15">
         <v>1.6889700000000001</v>
       </c>
-      <c r="W6" s="29">
+      <c r="W6" s="24">
         <f t="shared" ref="W6:W11" si="8">V6/C6-1</f>
         <v>1.0066319279955493E-4</v>
+      </c>
+      <c r="X6" s="40">
+        <v>1.8360000000000001</v>
+      </c>
+      <c r="Y6" s="35">
+        <f t="shared" ref="Y6:Y11" si="9">X6/C6-1</f>
+        <v>8.7162482235907168E-2</v>
       </c>
       <c r="Z6" s="12"/>
       <c r="AA6" s="12"/>
@@ -36083,65 +36927,72 @@
       <c r="F7" s="15">
         <v>1.70701393950102</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G7" s="30">
         <f t="shared" si="1"/>
         <v>4.2546762472084332E-4</v>
       </c>
       <c r="H7" s="15">
         <v>1.8948</v>
       </c>
-      <c r="I7" s="27">
+      <c r="I7" s="22">
         <f t="shared" si="2"/>
         <v>0.11048078295683306</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="19">
         <v>1.7291981295236101</v>
       </c>
-      <c r="K7" s="28">
+      <c r="K7" s="23">
         <f t="shared" si="3"/>
         <v>1.3426901393746027E-2</v>
       </c>
       <c r="L7" s="15">
         <v>1.7170000000000001</v>
       </c>
-      <c r="M7" s="28">
+      <c r="M7" s="23">
         <f t="shared" si="4"/>
         <v>6.277973578679763E-3</v>
       </c>
-      <c r="N7" s="20">
+      <c r="N7" s="19">
         <v>1.7101999999999999</v>
       </c>
-      <c r="O7" s="28">
+      <c r="O7" s="23">
         <f t="shared" si="5"/>
         <v>2.292714277378094E-3</v>
       </c>
-      <c r="P7" s="20">
+      <c r="P7" s="19">
         <v>1.7072000000000001</v>
       </c>
-      <c r="Q7" s="28">
+      <c r="Q7" s="23">
         <f t="shared" si="6"/>
         <v>5.3451164445084132E-4</v>
       </c>
-      <c r="R7" s="20">
+      <c r="R7" s="19">
         <v>1.7063999999999999</v>
       </c>
-      <c r="S7" s="33">
+      <c r="S7" s="28">
         <f t="shared" si="7"/>
         <v>6.5657609003677564E-5</v>
       </c>
-      <c r="T7" s="20">
+      <c r="T7" s="19">
         <v>1.7146999999999999</v>
       </c>
-      <c r="U7" s="28">
-        <f t="shared" ref="U7:U11" si="9">T7/C7-1</f>
+      <c r="U7" s="23">
+        <f t="shared" ref="U7:U11" si="10">T7/C7-1</f>
         <v>4.9300182267688619E-3</v>
       </c>
-      <c r="V7" s="20">
+      <c r="V7" s="19">
         <v>1.7165999999999999</v>
       </c>
-      <c r="W7" s="28">
+      <c r="W7" s="23">
         <f t="shared" si="8"/>
         <v>6.0435465609560701E-3</v>
+      </c>
+      <c r="X7" s="40">
+        <v>1.8445</v>
+      </c>
+      <c r="Y7" s="35">
+        <f t="shared" si="9"/>
+        <v>8.1001585478086779E-2</v>
       </c>
       <c r="Z7" s="12"/>
       <c r="AA7" s="12"/>
@@ -36169,65 +37020,72 @@
       <c r="F8" s="15">
         <v>1.6850180503730601</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8" s="30">
         <f t="shared" si="1"/>
         <v>5.944119776948309E-4</v>
       </c>
       <c r="H8" s="15">
         <v>1.8818999999999999</v>
       </c>
-      <c r="I8" s="27">
+      <c r="I8" s="22">
         <f t="shared" si="2"/>
         <v>0.11750649999501572</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="19">
         <v>1.7031508252551999</v>
       </c>
-      <c r="K8" s="28">
+      <c r="K8" s="23">
         <f t="shared" si="3"/>
         <v>1.1361984002636438E-2</v>
       </c>
       <c r="L8" s="15">
         <v>1.6902999999999999</v>
       </c>
-      <c r="M8" s="28">
+      <c r="M8" s="23">
         <f t="shared" si="4"/>
         <v>3.7309298802141733E-3</v>
       </c>
-      <c r="N8" s="20">
+      <c r="N8" s="19">
         <v>1.6870000000000001</v>
       </c>
-      <c r="O8" s="28">
+      <c r="O8" s="23">
         <f t="shared" si="5"/>
         <v>1.7713297686337004E-3</v>
       </c>
-      <c r="P8" s="20">
+      <c r="P8" s="19">
         <v>1.6846000000000001</v>
       </c>
-      <c r="Q8" s="29">
+      <c r="Q8" s="24">
         <f t="shared" si="6"/>
         <v>3.4616605112058885E-4</v>
       </c>
-      <c r="R8" s="20">
+      <c r="R8" s="19">
         <v>1.6942999999999999</v>
       </c>
-      <c r="S8" s="32">
+      <c r="S8" s="27">
         <f t="shared" si="7"/>
         <v>6.1062027427363219E-3</v>
       </c>
-      <c r="T8" s="20">
+      <c r="T8" s="19">
         <v>1.6913</v>
       </c>
-      <c r="U8" s="28">
-        <f t="shared" si="9"/>
+      <c r="U8" s="23">
+        <f t="shared" si="10"/>
         <v>4.3247480958448214E-3</v>
       </c>
-      <c r="V8" s="20">
+      <c r="V8" s="19">
         <v>1.6934</v>
       </c>
-      <c r="W8" s="28">
+      <c r="W8" s="23">
         <f t="shared" si="8"/>
         <v>5.5717663486689606E-3</v>
+      </c>
+      <c r="X8" s="40">
+        <v>1.8394999999999999</v>
+      </c>
+      <c r="Y8" s="35">
+        <f t="shared" si="9"/>
+        <v>9.2328607652283123E-2</v>
       </c>
       <c r="Z8" s="12"/>
       <c r="AA8" s="12"/>
@@ -36255,28 +37113,28 @@
       <c r="F9" s="15">
         <v>1.6814967618558401</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9" s="29">
         <f t="shared" si="1"/>
         <v>3.2894860643062351E-4</v>
       </c>
       <c r="H9" s="15">
         <v>1.9047000000000001</v>
       </c>
-      <c r="I9" s="27">
+      <c r="I9" s="22">
         <f t="shared" si="2"/>
         <v>0.13311342110929258</v>
       </c>
       <c r="J9" s="15">
         <v>1.70514059872124</v>
       </c>
-      <c r="K9" s="28">
+      <c r="K9" s="23">
         <f t="shared" si="3"/>
         <v>1.4394758906584482E-2</v>
       </c>
       <c r="L9" s="15">
         <v>1.6923999999999999</v>
       </c>
-      <c r="M9" s="28">
+      <c r="M9" s="23">
         <f t="shared" si="4"/>
         <v>6.8153272879543092E-3</v>
       </c>
@@ -36284,37 +37142,44 @@
         <f>AVERAGE(1.6997,1.672)</f>
         <v>1.6858499999999998</v>
       </c>
-      <c r="O9" s="28">
+      <c r="O9" s="23">
         <f t="shared" si="5"/>
         <v>2.9187068709510822E-3</v>
       </c>
-      <c r="P9" s="20">
+      <c r="P9" s="19">
         <v>1.6819</v>
       </c>
-      <c r="Q9" s="30">
+      <c r="Q9" s="25">
         <f t="shared" si="6"/>
         <v>5.6883654314021648E-4</v>
       </c>
-      <c r="R9" s="20">
+      <c r="R9" s="19">
         <v>1.6861999999999999</v>
       </c>
-      <c r="S9" s="32">
+      <c r="S9" s="27">
         <f t="shared" si="7"/>
         <v>3.1269232291115667E-3</v>
       </c>
       <c r="T9" s="15">
         <v>1.6876</v>
       </c>
-      <c r="U9" s="28">
-        <f t="shared" si="9"/>
+      <c r="U9" s="23">
+        <f t="shared" si="10"/>
         <v>3.959788661753505E-3</v>
       </c>
       <c r="V9" s="15">
         <v>1.6848000000000001</v>
       </c>
-      <c r="W9" s="28">
+      <c r="W9" s="23">
         <f t="shared" si="8"/>
         <v>2.2940577964698505E-3</v>
+      </c>
+      <c r="X9" s="40">
+        <v>1.8314999999999999</v>
+      </c>
+      <c r="Y9" s="35">
+        <f t="shared" si="9"/>
+        <v>8.9566457059730764E-2</v>
       </c>
       <c r="Z9" s="12"/>
       <c r="AA9" s="12"/>
@@ -36342,65 +37207,72 @@
       <c r="F10" s="15">
         <v>1.6953908953583401</v>
       </c>
-      <c r="G10" s="36">
+      <c r="G10" s="31">
         <f t="shared" si="1"/>
         <v>3.4865196975464308E-4</v>
       </c>
       <c r="H10" s="15">
         <v>1.925</v>
       </c>
-      <c r="I10" s="27">
+      <c r="I10" s="22">
         <f>H10/C10-1</f>
         <v>0.13582723625206516</v>
       </c>
       <c r="J10" s="15">
         <v>1.71782201131168</v>
       </c>
-      <c r="K10" s="28">
+      <c r="K10" s="23">
         <f t="shared" si="3"/>
         <v>1.3583910379797004E-2</v>
       </c>
       <c r="L10" s="15">
         <v>1.7032</v>
       </c>
-      <c r="M10" s="28">
+      <c r="M10" s="23">
         <f t="shared" si="4"/>
         <v>4.9563370309180232E-3</v>
       </c>
       <c r="N10" s="15">
         <v>1.7002999999999999</v>
       </c>
-      <c r="O10" s="28">
+      <c r="O10" s="23">
         <f t="shared" si="5"/>
         <v>3.2452206750057666E-3</v>
       </c>
-      <c r="P10" s="20">
+      <c r="P10" s="19">
         <v>1.6963999999999999</v>
       </c>
-      <c r="Q10" s="28">
+      <c r="Q10" s="23">
         <f t="shared" si="6"/>
         <v>9.4406419636516858E-4</v>
       </c>
       <c r="R10" s="16">
         <v>1.69638</v>
       </c>
-      <c r="S10" s="32">
+      <c r="S10" s="27">
         <f t="shared" si="7"/>
         <v>9.3226339391083712E-4</v>
       </c>
       <c r="T10" s="15">
         <v>1.6974</v>
       </c>
-      <c r="U10" s="28">
-        <f t="shared" si="9"/>
+      <c r="U10" s="23">
+        <f t="shared" si="10"/>
         <v>1.534104319093732E-3</v>
       </c>
       <c r="V10" s="15">
         <v>1.7074</v>
       </c>
-      <c r="W10" s="28">
+      <c r="W10" s="23">
         <f t="shared" si="8"/>
         <v>7.4345055463771459E-3</v>
+      </c>
+      <c r="X10" s="40">
+        <v>1.8568</v>
+      </c>
+      <c r="Y10" s="35">
+        <f t="shared" si="9"/>
+        <v>9.5586499881991971E-2</v>
       </c>
       <c r="Z10" s="12"/>
       <c r="AA10" s="12"/>
@@ -36428,65 +37300,72 @@
       <c r="F11" s="15">
         <v>1.7056370239996701</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G11" s="30">
         <f t="shared" si="1"/>
         <v>9.6069483548721912E-4</v>
       </c>
       <c r="H11" s="15">
         <v>1.9271</v>
       </c>
-      <c r="I11" s="27">
+      <c r="I11" s="22">
         <f t="shared" si="2"/>
         <v>0.1309272300469484</v>
       </c>
       <c r="J11" s="15">
         <v>1.7245407380104101</v>
       </c>
-      <c r="K11" s="28">
+      <c r="K11" s="23">
         <f t="shared" si="3"/>
         <v>1.2054423715029516E-2</v>
       </c>
       <c r="L11" s="15">
         <v>1.7143999999999999</v>
       </c>
-      <c r="M11" s="28">
+      <c r="M11" s="23">
         <f t="shared" si="4"/>
         <v>6.1032863849765917E-3</v>
       </c>
       <c r="N11" s="15">
         <v>1.7126999999999999</v>
       </c>
-      <c r="O11" s="28">
+      <c r="O11" s="23">
         <f t="shared" si="5"/>
         <v>5.1056338028168113E-3</v>
       </c>
       <c r="P11" s="15">
         <v>1.7052</v>
       </c>
-      <c r="Q11" s="29">
+      <c r="Q11" s="24">
         <f t="shared" si="6"/>
         <v>7.0422535211278614E-4</v>
       </c>
       <c r="R11" s="15">
         <v>1.7098500000000001</v>
       </c>
-      <c r="S11" s="32">
+      <c r="S11" s="27">
         <f t="shared" si="7"/>
         <v>3.4330985915493883E-3</v>
       </c>
       <c r="T11" s="15">
         <v>1.7048000000000001</v>
       </c>
-      <c r="U11" s="28">
-        <f t="shared" si="9"/>
+      <c r="U11" s="23">
+        <f t="shared" si="10"/>
         <v>4.6948356807519076E-4</v>
       </c>
       <c r="V11" s="15">
         <v>1.7085999999999999</v>
       </c>
-      <c r="W11" s="28">
+      <c r="W11" s="23">
         <f t="shared" si="8"/>
         <v>2.6995305164319028E-3</v>
+      </c>
+      <c r="X11" s="40">
+        <v>1.8553999999999999</v>
+      </c>
+      <c r="Y11" s="35">
+        <f t="shared" si="9"/>
+        <v>8.8849765258215863E-2</v>
       </c>
       <c r="Z11" s="12"/>
       <c r="AA11" s="12"/>
@@ -36499,7 +37378,7 @@
         <f>AVERAGE(G5:G11)</f>
         <v>4.7288460696611904E-4</v>
       </c>
-      <c r="H12" s="26"/>
+      <c r="H12" s="21"/>
       <c r="I12" s="10">
         <f>AVERAGE(I5:I11)</f>
         <v>0.12725075081989862</v>
@@ -36525,8 +37404,8 @@
       <c r="AD14" s="12"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
       <c r="Z15" s="12"/>
       <c r="AA15" s="12"/>
       <c r="AB15" s="12"/>
@@ -36534,14 +37413,14 @@
       <c r="AD15" s="12"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="21"/>
-      <c r="Y16" s="21"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="20"/>
+      <c r="Y16" s="20"/>
       <c r="Z16" s="12"/>
       <c r="AA16" s="12"/>
       <c r="AB16" s="12"/>
@@ -36549,14 +37428,14 @@
       <c r="AD16" s="12"/>
     </row>
     <row r="17" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="21"/>
-      <c r="W17" s="21"/>
-      <c r="X17" s="21"/>
-      <c r="Y17" s="21"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="20"/>
       <c r="Z17" s="12"/>
       <c r="AA17" s="12"/>
       <c r="AB17" s="12"/>
@@ -36564,14 +37443,14 @@
       <c r="AD17" s="12"/>
     </row>
     <row r="18" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="21"/>
-      <c r="W18" s="21"/>
-      <c r="X18" s="21"/>
-      <c r="Y18" s="21"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="20"/>
+      <c r="Y18" s="20"/>
       <c r="Z18" s="12"/>
       <c r="AA18" s="12"/>
       <c r="AB18" s="12"/>
@@ -36579,14 +37458,14 @@
       <c r="AD18" s="12"/>
     </row>
     <row r="19" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R19" s="21"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="21"/>
-      <c r="W19" s="21"/>
-      <c r="X19" s="21"/>
-      <c r="Y19" s="21"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="20"/>
+      <c r="Y19" s="20"/>
       <c r="Z19" s="12"/>
       <c r="AA19" s="12"/>
       <c r="AB19" s="12"/>
@@ -36594,14 +37473,14 @@
       <c r="AD19" s="12"/>
     </row>
     <row r="20" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="21"/>
-      <c r="W20" s="21"/>
-      <c r="X20" s="21"/>
-      <c r="Y20" s="21"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="20"/>
+      <c r="Y20" s="20"/>
       <c r="Z20" s="12"/>
       <c r="AA20" s="12"/>
       <c r="AB20" s="12"/>
@@ -36609,14 +37488,14 @@
       <c r="AD20" s="12"/>
     </row>
     <row r="21" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="21"/>
-      <c r="W21" s="21"/>
-      <c r="X21" s="21"/>
-      <c r="Y21" s="21"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="20"/>
+      <c r="X21" s="20"/>
+      <c r="Y21" s="20"/>
       <c r="Z21" s="12"/>
       <c r="AA21" s="12"/>
       <c r="AB21" s="12"/>
@@ -36624,14 +37503,14 @@
       <c r="AD21" s="12"/>
     </row>
     <row r="22" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R22" s="21"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="21"/>
-      <c r="V22" s="21"/>
-      <c r="W22" s="21"/>
-      <c r="X22" s="21"/>
-      <c r="Y22" s="21"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="20"/>
+      <c r="Y22" s="20"/>
       <c r="Z22" s="12"/>
       <c r="AA22" s="12"/>
       <c r="AB22" s="12"/>
@@ -36639,14 +37518,14 @@
       <c r="AD22" s="12"/>
     </row>
     <row r="23" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R23" s="21"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="21"/>
-      <c r="U23" s="21"/>
-      <c r="V23" s="21"/>
-      <c r="W23" s="21"/>
-      <c r="X23" s="21"/>
-      <c r="Y23" s="21"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="20"/>
+      <c r="Y23" s="20"/>
       <c r="Z23" s="12"/>
       <c r="AA23" s="12"/>
       <c r="AB23" s="12"/>
@@ -36654,12 +37533,12 @@
       <c r="AD23" s="12"/>
     </row>
     <row r="24" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="T24" s="21"/>
-      <c r="U24" s="21"/>
-      <c r="V24" s="21"/>
-      <c r="W24" s="21"/>
-      <c r="X24" s="21"/>
-      <c r="Y24" s="21"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="20"/>
       <c r="Z24" s="12"/>
       <c r="AA24" s="12"/>
       <c r="AB24" s="12"/>
@@ -36667,12 +37546,12 @@
       <c r="AD24" s="12"/>
     </row>
     <row r="25" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="T25" s="21"/>
-      <c r="U25" s="21"/>
-      <c r="V25" s="21"/>
-      <c r="W25" s="21"/>
-      <c r="X25" s="21"/>
-      <c r="Y25" s="21"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="20"/>
+      <c r="Y25" s="20"/>
       <c r="Z25" s="12"/>
       <c r="AA25" s="12"/>
       <c r="AB25" s="12"/>
@@ -36680,12 +37559,12 @@
       <c r="AD25" s="12"/>
     </row>
     <row r="26" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="T26" s="21"/>
-      <c r="U26" s="21"/>
-      <c r="V26" s="21"/>
-      <c r="W26" s="21"/>
-      <c r="X26" s="21"/>
-      <c r="Y26" s="21"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="20"/>
+      <c r="X26" s="20"/>
+      <c r="Y26" s="20"/>
       <c r="Z26" s="12"/>
       <c r="AA26" s="12"/>
       <c r="AB26" s="12"/>
@@ -36693,12 +37572,12 @@
       <c r="AD26" s="12"/>
     </row>
     <row r="27" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="T27" s="21"/>
-      <c r="U27" s="21"/>
-      <c r="V27" s="21"/>
-      <c r="W27" s="21"/>
-      <c r="X27" s="21"/>
-      <c r="Y27" s="21"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="20"/>
+      <c r="X27" s="20"/>
+      <c r="Y27" s="20"/>
       <c r="Z27" s="12"/>
       <c r="AA27" s="12"/>
       <c r="AB27" s="12"/>
@@ -36706,12 +37585,12 @@
       <c r="AD27" s="12"/>
     </row>
     <row r="28" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="T28" s="21"/>
-      <c r="U28" s="21"/>
-      <c r="V28" s="21"/>
-      <c r="W28" s="21"/>
-      <c r="X28" s="21"/>
-      <c r="Y28" s="21"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="20"/>
+      <c r="W28" s="20"/>
+      <c r="X28" s="20"/>
+      <c r="Y28" s="20"/>
       <c r="Z28" s="12"/>
       <c r="AA28" s="12"/>
       <c r="AB28" s="12"/>
@@ -36719,70 +37598,70 @@
       <c r="AD28" s="12"/>
     </row>
     <row r="29" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="T29" s="21"/>
-      <c r="U29" s="21"/>
-      <c r="V29" s="21"/>
-      <c r="W29" s="21"/>
-      <c r="X29" s="21"/>
-      <c r="Y29" s="21"/>
+      <c r="T29" s="20"/>
+      <c r="U29" s="20"/>
+      <c r="V29" s="20"/>
+      <c r="W29" s="20"/>
+      <c r="X29" s="20"/>
+      <c r="Y29" s="20"/>
     </row>
     <row r="30" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="T30" s="21"/>
-      <c r="U30" s="21"/>
-      <c r="V30" s="21"/>
-      <c r="W30" s="21"/>
-      <c r="X30" s="21"/>
-      <c r="Y30" s="21"/>
+      <c r="T30" s="20"/>
+      <c r="U30" s="20"/>
+      <c r="V30" s="20"/>
+      <c r="W30" s="20"/>
+      <c r="X30" s="20"/>
+      <c r="Y30" s="20"/>
     </row>
     <row r="31" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="T31" s="21"/>
-      <c r="U31" s="21"/>
-      <c r="V31" s="21"/>
-      <c r="W31" s="21"/>
-      <c r="X31" s="21"/>
-      <c r="Y31" s="21"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="20"/>
+      <c r="V31" s="20"/>
+      <c r="W31" s="20"/>
+      <c r="X31" s="20"/>
+      <c r="Y31" s="20"/>
     </row>
     <row r="32" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="T32" s="21"/>
-      <c r="U32" s="21"/>
-      <c r="V32" s="21"/>
-      <c r="W32" s="21"/>
-      <c r="X32" s="21"/>
-      <c r="Y32" s="21"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="20"/>
+      <c r="V32" s="20"/>
+      <c r="W32" s="20"/>
+      <c r="X32" s="20"/>
+      <c r="Y32" s="20"/>
     </row>
     <row r="33" spans="20:25" x14ac:dyDescent="0.25">
-      <c r="T33" s="21"/>
-      <c r="U33" s="21"/>
-      <c r="V33" s="21"/>
-      <c r="W33" s="21"/>
-      <c r="X33" s="21"/>
-      <c r="Y33" s="21"/>
+      <c r="T33" s="20"/>
+      <c r="U33" s="20"/>
+      <c r="V33" s="20"/>
+      <c r="W33" s="20"/>
+      <c r="X33" s="20"/>
+      <c r="Y33" s="20"/>
     </row>
     <row r="34" spans="20:25" x14ac:dyDescent="0.25">
-      <c r="T34" s="21"/>
-      <c r="U34" s="21"/>
-      <c r="V34" s="21"/>
-      <c r="W34" s="21"/>
-      <c r="X34" s="21"/>
-      <c r="Y34" s="21"/>
+      <c r="T34" s="20"/>
+      <c r="U34" s="20"/>
+      <c r="V34" s="20"/>
+      <c r="W34" s="20"/>
+      <c r="X34" s="20"/>
+      <c r="Y34" s="20"/>
     </row>
     <row r="35" spans="20:25" x14ac:dyDescent="0.25">
-      <c r="T35" s="21"/>
-      <c r="U35" s="21"/>
-      <c r="V35" s="21"/>
-      <c r="W35" s="21"/>
-      <c r="X35" s="21"/>
-      <c r="Y35" s="21"/>
+      <c r="T35" s="20"/>
+      <c r="U35" s="20"/>
+      <c r="V35" s="20"/>
+      <c r="W35" s="20"/>
+      <c r="X35" s="20"/>
+      <c r="Y35" s="20"/>
     </row>
     <row r="36" spans="20:25" x14ac:dyDescent="0.25">
-      <c r="T36" s="21"/>
-      <c r="U36" s="21"/>
-      <c r="V36" s="21"/>
-      <c r="W36" s="21"/>
-      <c r="X36" s="21"/>
-      <c r="Y36" s="21"/>
+      <c r="T36" s="20"/>
+      <c r="U36" s="20"/>
+      <c r="V36" s="20"/>
+      <c r="W36" s="20"/>
+      <c r="X36" s="20"/>
+      <c r="Y36" s="20"/>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>4</v>
       </c>
@@ -36793,7 +37672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>47</v>
       </c>
@@ -36802,7 +37681,7 @@
       </c>
       <c r="C50" s="1"/>
     </row>
-    <row r="52" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" ht="90" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>16</v>
       </c>
@@ -36843,37 +37722,43 @@
         <v>29</v>
       </c>
       <c r="N52" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="O52" s="5" t="s">
         <v>30</v>
       </c>
       <c r="P52" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q52" s="5" t="s">
         <v>31</v>
       </c>
       <c r="R52" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="S52" s="5" t="s">
         <v>32</v>
       </c>
       <c r="T52" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="U52" s="5" t="s">
         <v>33</v>
       </c>
       <c r="V52" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="W52" s="5" t="s">
         <v>51</v>
       </c>
+      <c r="X52" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y52" s="5" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>9</v>
       </c>
@@ -36953,8 +37838,15 @@
         <f>V53/C53-1</f>
         <v>0.12182588384493864</v>
       </c>
+      <c r="X53" s="1">
+        <v>2.7046000000000001</v>
+      </c>
+      <c r="Y53" s="35">
+        <f t="shared" ref="Y53:Y54" si="11">X53/C53-1</f>
+        <v>0.92959188848067997</v>
+      </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>10</v>
       </c>
@@ -36968,74 +37860,81 @@
         <v>2.4297614465146</v>
       </c>
       <c r="E54" s="11">
-        <f t="shared" ref="E54:E59" si="10">D54/C54-1</f>
+        <f t="shared" ref="E54:E59" si="12">D54/C54-1</f>
         <v>0.73355278836796733</v>
       </c>
       <c r="F54" s="3">
         <v>2.1358414964127301</v>
       </c>
       <c r="G54" s="11">
-        <f t="shared" ref="G54:G59" si="11">F54/C54-1</f>
+        <f t="shared" ref="G54:G59" si="13">F54/C54-1</f>
         <v>0.52385082368046043</v>
       </c>
       <c r="H54" s="3">
         <v>2.2904</v>
       </c>
       <c r="I54" s="11">
-        <f t="shared" ref="I54:I57" si="12">H54/C54-1</f>
+        <f t="shared" ref="I54:I57" si="14">H54/C54-1</f>
         <v>0.63412309968682923</v>
       </c>
       <c r="J54" s="3">
         <v>2.0163000000000002</v>
       </c>
       <c r="K54" s="11">
-        <f t="shared" ref="K54:K59" si="13">J54/C54-1</f>
+        <f t="shared" ref="K54:K59" si="15">J54/C54-1</f>
         <v>0.43856200047963423</v>
       </c>
       <c r="L54" s="3">
         <v>1.7562</v>
       </c>
       <c r="M54" s="11">
-        <f t="shared" ref="M54:M59" si="14">L54/C54-1</f>
+        <f t="shared" ref="M54:M59" si="16">L54/C54-1</f>
         <v>0.25298942877663699</v>
       </c>
       <c r="N54" s="3">
         <v>1.718</v>
       </c>
       <c r="O54" s="11">
-        <f t="shared" ref="O54:O59" si="15">N54/C54-1</f>
+        <f t="shared" ref="O54:O59" si="17">N54/C54-1</f>
         <v>0.22573501801518181</v>
       </c>
       <c r="P54" s="5">
         <v>1.643</v>
       </c>
       <c r="Q54" s="11">
-        <f t="shared" ref="Q54:Q59" si="16">P54/C54-1</f>
+        <f t="shared" ref="Q54:Q59" si="18">P54/C54-1</f>
         <v>0.17222504924269155</v>
       </c>
       <c r="R54" s="5">
         <v>1.5871</v>
       </c>
       <c r="S54" s="11">
-        <f t="shared" ref="S54:S59" si="17">R54/C54-1</f>
+        <f t="shared" ref="S54:S59" si="19">R54/C54-1</f>
         <v>0.13234228585092844</v>
       </c>
       <c r="T54" s="3">
         <v>1.5430999999999999</v>
       </c>
       <c r="U54" s="11">
-        <f t="shared" ref="U54:U59" si="18">T54/C54-1</f>
+        <f t="shared" ref="U54:U59" si="20">T54/C54-1</f>
         <v>0.10094977083773404</v>
       </c>
       <c r="V54" s="3">
         <v>1.5183</v>
       </c>
       <c r="W54" s="11">
-        <f t="shared" ref="W54:W59" si="19">V54/C54-1</f>
+        <f t="shared" ref="W54:W59" si="21">V54/C54-1</f>
         <v>8.3255807830297179E-2</v>
       </c>
+      <c r="X54" s="1">
+        <v>2.6930000000000001</v>
+      </c>
+      <c r="Y54" s="35">
+        <f t="shared" si="11"/>
+        <v>0.92136461205755826</v>
+      </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>11</v>
       </c>
@@ -37049,74 +37948,81 @@
         <v>2.4097092147940402</v>
       </c>
       <c r="E55" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.71009276883645689</v>
       </c>
       <c r="F55" s="7">
         <v>2.1529162805510502</v>
       </c>
       <c r="G55" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.52785512072472529</v>
       </c>
       <c r="H55" s="7">
         <v>2.2801</v>
       </c>
       <c r="I55" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.61811329694287265</v>
       </c>
       <c r="J55" s="5">
         <v>2.032</v>
       </c>
       <c r="K55" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.4420447433831487</v>
       </c>
       <c r="L55" s="3">
         <v>1.7542</v>
       </c>
       <c r="M55" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.24489905946984214</v>
       </c>
       <c r="N55" s="5">
         <v>1.7319</v>
       </c>
       <c r="O55" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.22907347001243861</v>
       </c>
       <c r="P55" s="5">
         <v>1.6716</v>
       </c>
       <c r="Q55" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.18628050838546817</v>
       </c>
       <c r="R55" s="5">
         <v>1.6398999999999999</v>
       </c>
       <c r="S55" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.16378404265454005</v>
       </c>
       <c r="T55" s="5">
         <v>1.6126</v>
       </c>
       <c r="U55" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.14441011475377241</v>
       </c>
       <c r="V55" s="5">
         <v>1.5899000000000001</v>
       </c>
       <c r="W55" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.12830065822089964</v>
       </c>
+      <c r="X55" s="1">
+        <v>2.7174999999999998</v>
+      </c>
+      <c r="Y55" s="35">
+        <f>X55/C55-1</f>
+        <v>0.92852194396835919</v>
+      </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>12</v>
       </c>
@@ -37130,74 +38036,81 @@
         <v>2.28095695097561</v>
       </c>
       <c r="E56" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.61682572421959292</v>
       </c>
       <c r="F56" s="7">
         <v>2.1530404680272999</v>
       </c>
       <c r="G56" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.52615384192296988</v>
       </c>
       <c r="H56" s="7">
         <v>2.2768000000000002</v>
       </c>
       <c r="I56" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.6138791253068816</v>
       </c>
       <c r="J56" s="5">
         <v>2.0259999999999998</v>
       </c>
       <c r="K56" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.43610291104697008</v>
       </c>
       <c r="L56" s="3">
         <v>1.7684</v>
       </c>
       <c r="M56" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.25350660804316982</v>
       </c>
       <c r="N56" s="5">
         <v>1.7304999999999999</v>
       </c>
       <c r="O56" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.22664170166178788</v>
       </c>
       <c r="P56" s="5">
         <v>1.696</v>
       </c>
       <c r="Q56" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.20218683965235029</v>
       </c>
       <c r="R56" s="5">
         <v>1.6496</v>
       </c>
       <c r="S56" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.16929682234110666</v>
       </c>
       <c r="T56" s="5">
         <v>1.6073999999999999</v>
       </c>
       <c r="U56" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.13938391866579458</v>
       </c>
       <c r="V56" s="5">
         <v>1.5878000000000001</v>
       </c>
       <c r="W56" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.12549072169811426</v>
       </c>
+      <c r="X56" s="1">
+        <v>2.7250000000000001</v>
+      </c>
+      <c r="Y56" s="35">
+        <f t="shared" ref="Y56:Y59" si="22">X56/C56-1</f>
+        <v>0.93157968045557471</v>
+      </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>13</v>
       </c>
@@ -37211,74 +38124,81 @@
         <v>2.40787053436999</v>
       </c>
       <c r="E57" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.71409172570825841</v>
       </c>
       <c r="F57" s="3">
         <v>2.14250754472886</v>
       </c>
       <c r="G57" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.52518767195601668</v>
       </c>
       <c r="H57" s="3">
         <v>2.2814999999999999</v>
       </c>
       <c r="I57" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.6241322846814148</v>
       </c>
       <c r="J57" s="3">
         <v>2.0285000000000002</v>
       </c>
       <c r="K57" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.44402907713182138</v>
       </c>
       <c r="L57" s="3">
         <v>1.7687999999999999</v>
       </c>
       <c r="M57" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.25915633799889837</v>
       </c>
       <c r="N57" s="3">
         <v>1.7276</v>
       </c>
       <c r="O57" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.22982727811335191</v>
       </c>
       <c r="P57" s="5">
         <v>1.6800999999999999</v>
       </c>
       <c r="Q57" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.19601343479870481</v>
       </c>
       <c r="R57" s="5">
         <v>1.6347</v>
       </c>
       <c r="S57" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.163694519293758</v>
       </c>
       <c r="T57" s="3">
         <v>1.6032</v>
       </c>
       <c r="U57" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.14127060214825526</v>
       </c>
       <c r="V57" s="3">
         <v>1.5807</v>
       </c>
       <c r="W57" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.12525351847289623</v>
       </c>
+      <c r="X57" s="1">
+        <v>2.7002000000000002</v>
+      </c>
+      <c r="Y57" s="35">
+        <f t="shared" si="22"/>
+        <v>0.922192415120209</v>
+      </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>14</v>
       </c>
@@ -37292,14 +38212,14 @@
         <v>2.2117</v>
       </c>
       <c r="E58" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.58272506082725073</v>
       </c>
       <c r="F58" s="7">
         <v>2.1342210554900198</v>
       </c>
       <c r="G58" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.52727998818521526</v>
       </c>
       <c r="H58" s="7">
@@ -37313,53 +38233,60 @@
         <v>2.0263549435611901</v>
       </c>
       <c r="K58" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.45008941145068704</v>
       </c>
       <c r="L58" s="7">
         <v>1.7452000000000001</v>
       </c>
       <c r="M58" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.24889079719479046</v>
       </c>
       <c r="N58" s="7">
         <v>1.7159</v>
       </c>
       <c r="O58" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.22792328610276225</v>
       </c>
       <c r="P58" s="7">
         <v>1.6697</v>
       </c>
       <c r="Q58" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.19486188636038348</v>
       </c>
       <c r="R58" s="7">
         <v>1.6287</v>
       </c>
       <c r="S58" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.16552168312580506</v>
       </c>
       <c r="T58" s="7">
         <v>1.5979000000000001</v>
       </c>
       <c r="U58" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.14348074996421945</v>
       </c>
       <c r="V58" s="7">
         <v>1.5738000000000001</v>
       </c>
       <c r="W58" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.12623443537999157</v>
       </c>
+      <c r="X58" s="1">
+        <v>2.7109000000000001</v>
+      </c>
+      <c r="Y58" s="35">
+        <f t="shared" si="22"/>
+        <v>0.93995992557607</v>
+      </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>15</v>
       </c>
@@ -37373,93 +38300,100 @@
         <v>2.1949999999999998</v>
       </c>
       <c r="E59" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.56875357347055444</v>
       </c>
       <c r="F59" s="7">
         <v>2.1373248655016899</v>
       </c>
       <c r="G59" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.52753349449806319</v>
       </c>
       <c r="H59" s="7">
         <v>2.2086000000000001</v>
       </c>
       <c r="I59" s="11">
-        <f t="shared" ref="I59" si="20">H59/C59-1</f>
+        <f t="shared" ref="I59" si="23">H59/C59-1</f>
         <v>0.57847341337907388</v>
       </c>
       <c r="J59" s="7">
         <v>2.0216868050670298</v>
       </c>
       <c r="K59" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.44488765370713956</v>
       </c>
       <c r="L59" s="7">
         <v>1.7519</v>
       </c>
       <c r="M59" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.25207261292166949</v>
       </c>
       <c r="N59" s="7">
         <v>1.7157</v>
       </c>
       <c r="O59" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.22620068610634658</v>
       </c>
       <c r="P59" s="7">
         <v>1.6718999999999999</v>
       </c>
       <c r="Q59" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.1948970840480273</v>
       </c>
       <c r="R59" s="7">
         <v>1.6344000000000001</v>
       </c>
       <c r="S59" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.16809605488850776</v>
       </c>
       <c r="T59" s="7">
         <v>1.597</v>
       </c>
       <c r="U59" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.14136649514007993</v>
       </c>
       <c r="V59" s="7">
         <v>1.5780000000000001</v>
       </c>
       <c r="W59" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.12778730703259011</v>
       </c>
+      <c r="X59" s="1">
+        <v>2.7067000000000001</v>
+      </c>
+      <c r="Y59" s="35">
+        <f t="shared" si="22"/>
+        <v>0.93446255002858791</v>
+      </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="G60" s="10">
         <f>AVERAGE(G53:G59)</f>
         <v>0.52701095353325544</v>
       </c>
-      <c r="H60" s="26"/>
+      <c r="H60" s="21"/>
       <c r="I60" s="10">
         <f>AVERAGE(I53:I59)</f>
         <v>0.61050677564826827</v>
       </c>
     </row>
     <row r="71" spans="20:27" x14ac:dyDescent="0.25">
-      <c r="T71" s="37"/>
-      <c r="U71" s="37"/>
-      <c r="V71" s="37"/>
-      <c r="W71" s="37"/>
-      <c r="X71" s="37"/>
-      <c r="Y71" s="37"/>
-      <c r="Z71" s="37"/>
-      <c r="AA71" s="37"/>
+      <c r="T71" s="32"/>
+      <c r="U71" s="32"/>
+      <c r="V71" s="32"/>
+      <c r="W71" s="32"/>
+      <c r="X71" s="32"/>
+      <c r="Y71" s="32"/>
+      <c r="Z71" s="32"/>
+      <c r="AA71" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Smart_Nodes_Routing/Evaluations_v2.xlsx
+++ b/Smart_Nodes_Routing/Evaluations_v2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IdoYe\PycharmProjects\Research_Implementing\Smart_Nodes_Routing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F9391A-37A1-4F12-BAA3-3358B6D11159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A506EA47-6E62-4AF2-AC97-D4E9CB839339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="4" xr2:uid="{F03132DC-CDBD-427F-ACA0-8693D7E39B80}"/>
   </bookViews>
@@ -586,7 +586,6 @@
     <xf numFmtId="169" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -614,6 +613,7 @@
     <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7390,7 +7390,7 @@
                   <c:v>0.14441011475377241</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.12830065822089964</c:v>
+                  <c:v>0.12524908715960636</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7459,7 +7459,7 @@
                   <c:v>0.13938391866579458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.12549072169811426</c:v>
+                  <c:v>0.12435658317014031</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26476,7 +26476,7 @@
       <c r="V5" s="1">
         <v>1.6101000000000001</v>
       </c>
-      <c r="W5" s="35">
+      <c r="W5" s="34">
         <f>V5/C5-1</f>
         <v>0.15681771972697045</v>
       </c>
@@ -26557,7 +26557,7 @@
       <c r="V6" s="1">
         <v>1.6269</v>
       </c>
-      <c r="W6" s="35">
+      <c r="W6" s="34">
         <f t="shared" ref="W6:W11" si="8">V6/C6-1</f>
         <v>0.1416032941437193</v>
       </c>
@@ -26638,7 +26638,7 @@
       <c r="V7" s="1">
         <v>1.6624000000000001</v>
       </c>
-      <c r="W7" s="35">
+      <c r="W7" s="34">
         <f t="shared" si="8"/>
         <v>0.15430883368797699</v>
       </c>
@@ -26719,7 +26719,7 @@
       <c r="V8" s="1">
         <v>1.6612</v>
       </c>
-      <c r="W8" s="35">
+      <c r="W8" s="34">
         <f t="shared" si="8"/>
         <v>0.18382294035289171</v>
       </c>
@@ -26800,7 +26800,7 @@
       <c r="V9" s="1">
         <v>1.6444000000000001</v>
       </c>
-      <c r="W9" s="35">
+      <c r="W9" s="34">
         <f t="shared" si="8"/>
         <v>0.16713276428381696</v>
       </c>
@@ -26881,7 +26881,7 @@
       <c r="V10" s="1">
         <v>1.6073</v>
       </c>
-      <c r="W10" s="35">
+      <c r="W10" s="34">
         <f t="shared" si="8"/>
         <v>0.15566580385389694</v>
       </c>
@@ -26962,7 +26962,7 @@
       <c r="V11" s="1">
         <v>1.6392</v>
       </c>
-      <c r="W11" s="35">
+      <c r="W11" s="34">
         <f t="shared" si="8"/>
         <v>0.17186159565341708</v>
       </c>
@@ -27147,7 +27147,7 @@
       <c r="V53" s="1">
         <v>1.6101000000000001</v>
       </c>
-      <c r="W53" s="35">
+      <c r="W53" s="34">
         <f>V53/C53-1</f>
         <v>0.15681771972697045</v>
       </c>
@@ -27228,7 +27228,7 @@
       <c r="V54" s="1">
         <v>1.6305000000000001</v>
       </c>
-      <c r="W54" s="35">
+      <c r="W54" s="34">
         <f t="shared" ref="W54:W59" si="19">V54/C54-1</f>
         <v>0.14586958391101268</v>
       </c>
@@ -27309,7 +27309,7 @@
       <c r="V55" s="1">
         <v>1.6624000000000001</v>
       </c>
-      <c r="W55" s="35">
+      <c r="W55" s="34">
         <f t="shared" si="19"/>
         <v>0.15430883368797699</v>
       </c>
@@ -27390,7 +27390,7 @@
       <c r="V56" s="1">
         <v>1.6612</v>
       </c>
-      <c r="W56" s="35">
+      <c r="W56" s="34">
         <f t="shared" si="19"/>
         <v>0.18382294035289171</v>
       </c>
@@ -27471,7 +27471,7 @@
       <c r="V57" s="1">
         <v>1.6444000000000001</v>
       </c>
-      <c r="W57" s="35">
+      <c r="W57" s="34">
         <f t="shared" si="19"/>
         <v>0.16713276428381696</v>
       </c>
@@ -27552,7 +27552,7 @@
       <c r="V58" s="1">
         <v>1.6073</v>
       </c>
-      <c r="W58" s="35">
+      <c r="W58" s="34">
         <f t="shared" si="19"/>
         <v>0.15566580385389694</v>
       </c>
@@ -27633,7 +27633,7 @@
       <c r="V59" s="1">
         <v>1.6392</v>
       </c>
-      <c r="W59" s="35">
+      <c r="W59" s="34">
         <f t="shared" si="19"/>
         <v>0.17186159565341708</v>
       </c>
@@ -27818,7 +27818,7 @@
       <c r="V100" s="1">
         <v>2.8329</v>
       </c>
-      <c r="W100" s="35">
+      <c r="W100" s="34">
         <f t="shared" ref="W100:W101" si="21">V100/C100-1</f>
         <v>0.11472495678583261</v>
       </c>
@@ -27899,7 +27899,7 @@
       <c r="V101" s="1">
         <v>2.8477000000000001</v>
       </c>
-      <c r="W101" s="35">
+      <c r="W101" s="34">
         <f t="shared" si="21"/>
         <v>0.12091017513408042</v>
       </c>
@@ -27980,7 +27980,7 @@
       <c r="V102" s="1">
         <v>2.8492999999999999</v>
       </c>
-      <c r="W102" s="35">
+      <c r="W102" s="34">
         <f>V102/C102-1</f>
         <v>0.11802972750611618</v>
       </c>
@@ -28058,10 +28058,10 @@
         <f t="shared" si="30"/>
         <v>4.324950290704721E-2</v>
       </c>
-      <c r="V103" s="36">
+      <c r="V103" s="35">
         <v>2.8494999999999999</v>
       </c>
-      <c r="W103" s="35">
+      <c r="W103" s="34">
         <f t="shared" ref="W103:W106" si="31">V103/C103-1</f>
         <v>0.12467443195128269</v>
       </c>
@@ -28142,7 +28142,7 @@
       <c r="V104" s="1">
         <v>2.8256000000000001</v>
       </c>
-      <c r="W104" s="35">
+      <c r="W104" s="34">
         <f t="shared" si="31"/>
         <v>0.10985763279869776</v>
       </c>
@@ -28223,7 +28223,7 @@
       <c r="V105" s="1">
         <v>2.8292999999999999</v>
       </c>
-      <c r="W105" s="35">
+      <c r="W105" s="34">
         <f t="shared" si="31"/>
         <v>0.11812361681947503</v>
       </c>
@@ -28304,7 +28304,7 @@
       <c r="V106" s="1">
         <v>2.8542000000000001</v>
       </c>
-      <c r="W106" s="35">
+      <c r="W106" s="34">
         <f t="shared" si="31"/>
         <v>0.11431248535956895</v>
       </c>
@@ -28401,7 +28401,7 @@
       <c r="T142" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="U142" s="33" t="s">
+      <c r="U142" s="32" t="s">
         <v>33</v>
       </c>
       <c r="V142" s="5" t="s">
@@ -28480,14 +28480,14 @@
       <c r="T143" s="3">
         <v>1.6838</v>
       </c>
-      <c r="U143" s="34">
+      <c r="U143" s="33">
         <f>T143/C143-1</f>
         <v>6.1520030727223673E-2</v>
       </c>
       <c r="V143" s="1">
         <v>1.9448000000000001</v>
       </c>
-      <c r="W143" s="35">
+      <c r="W143" s="34">
         <f t="shared" ref="W143:W145" si="33">V143/C143-1</f>
         <v>0.2260625702329877</v>
       </c>
@@ -28561,14 +28561,14 @@
       <c r="T144" s="3">
         <v>1.6953</v>
       </c>
-      <c r="U144" s="34">
+      <c r="U144" s="33">
         <f t="shared" ref="U144:U149" si="42">T144/C144-1</f>
         <v>6.038449407662605E-2</v>
       </c>
       <c r="V144" s="1">
         <v>1.9710000000000001</v>
       </c>
-      <c r="W144" s="35">
+      <c r="W144" s="34">
         <f t="shared" si="33"/>
         <v>0.23283067175427963</v>
       </c>
@@ -28642,14 +28642,14 @@
       <c r="T145" s="5">
         <v>1.7094</v>
       </c>
-      <c r="U145" s="34">
+      <c r="U145" s="33">
         <f t="shared" si="42"/>
         <v>6.7328782027356038E-2</v>
       </c>
       <c r="V145" s="1">
         <v>1.9757</v>
       </c>
-      <c r="W145" s="35">
+      <c r="W145" s="34">
         <f t="shared" si="33"/>
         <v>0.23360329627439302</v>
       </c>
@@ -28723,14 +28723,14 @@
       <c r="T146" s="5">
         <v>1.6946000000000001</v>
       </c>
-      <c r="U146" s="34">
+      <c r="U146" s="33">
         <f t="shared" si="42"/>
         <v>6.6512255183853286E-2</v>
       </c>
       <c r="V146" s="1">
         <v>1.9805999999999999</v>
       </c>
-      <c r="W146" s="35">
+      <c r="W146" s="34">
         <f t="shared" ref="W146:W149" si="43">V146/C146-1</f>
         <v>0.24650901252044122</v>
       </c>
@@ -28804,14 +28804,14 @@
       <c r="T147" s="3">
         <v>1.7000999999999999</v>
       </c>
-      <c r="U147" s="34">
+      <c r="U147" s="33">
         <f t="shared" si="42"/>
         <v>6.3095887273942663E-2</v>
       </c>
       <c r="V147" s="1">
         <v>1.9538</v>
       </c>
-      <c r="W147" s="35">
+      <c r="W147" s="34">
         <f t="shared" si="43"/>
         <v>0.22173798279855839</v>
       </c>
@@ -28885,14 +28885,14 @@
       <c r="T148" s="7">
         <v>1.6962999999999999</v>
       </c>
-      <c r="U148" s="34">
+      <c r="U148" s="33">
         <f t="shared" si="42"/>
         <v>6.4846202134337672E-2</v>
       </c>
       <c r="V148" s="1">
         <v>1.9613</v>
       </c>
-      <c r="W148" s="35">
+      <c r="W148" s="34">
         <f t="shared" si="43"/>
         <v>0.23119899560577539</v>
       </c>
@@ -28966,14 +28966,14 @@
       <c r="T149" s="7">
         <v>1.6793</v>
       </c>
-      <c r="U149" s="34">
+      <c r="U149" s="33">
         <f t="shared" si="42"/>
         <v>6.2848101265822853E-2</v>
       </c>
       <c r="V149" s="1">
         <v>1.9419999999999999</v>
       </c>
-      <c r="W149" s="35">
+      <c r="W149" s="34">
         <f t="shared" si="43"/>
         <v>0.2291139240506328</v>
       </c>
@@ -29251,7 +29251,7 @@
       <c r="X5" s="1">
         <v>2.1383999999999999</v>
       </c>
-      <c r="Y5" s="35">
+      <c r="Y5" s="34">
         <f>X5/C5-1</f>
         <v>0.22708035012777139</v>
       </c>
@@ -29344,7 +29344,7 @@
       <c r="X6" s="1">
         <v>2.1657999999999999</v>
       </c>
-      <c r="Y6" s="35">
+      <c r="Y6" s="34">
         <f t="shared" ref="Y6:Y11" si="9">X6/C6-1</f>
         <v>0.21797384261039698</v>
       </c>
@@ -29437,7 +29437,7 @@
       <c r="X7" s="1">
         <v>2.1261999999999999</v>
       </c>
-      <c r="Y7" s="35">
+      <c r="Y7" s="34">
         <f t="shared" si="9"/>
         <v>0.21019031478756234</v>
       </c>
@@ -29530,7 +29530,7 @@
       <c r="X8" s="1">
         <v>2.1114999999999999</v>
       </c>
-      <c r="Y8" s="35">
+      <c r="Y8" s="34">
         <f t="shared" si="9"/>
         <v>0.22835092858608985</v>
       </c>
@@ -29623,7 +29623,7 @@
       <c r="X9" s="1">
         <v>2.1433</v>
       </c>
-      <c r="Y9" s="35">
+      <c r="Y9" s="34">
         <f t="shared" si="9"/>
         <v>0.2260406735198941</v>
       </c>
@@ -29716,7 +29716,7 @@
       <c r="X10" s="1">
         <v>2.1423000000000001</v>
       </c>
-      <c r="Y10" s="35">
+      <c r="Y10" s="34">
         <f t="shared" si="9"/>
         <v>0.21486900306226597</v>
       </c>
@@ -29809,7 +29809,7 @@
       <c r="X11" s="1">
         <v>2.1111</v>
       </c>
-      <c r="Y11" s="35">
+      <c r="Y11" s="34">
         <f t="shared" si="9"/>
         <v>0.20689458037960207</v>
       </c>
@@ -30129,7 +30129,7 @@
       <c r="X53" s="1">
         <v>2.1383999999999999</v>
       </c>
-      <c r="Y53" s="35">
+      <c r="Y53" s="34">
         <f>X53/C53-1</f>
         <v>0.22708035012777139</v>
       </c>
@@ -30217,7 +30217,7 @@
       <c r="X54" s="1">
         <v>2.1349999999999998</v>
       </c>
-      <c r="Y54" s="35">
+      <c r="Y54" s="34">
         <f t="shared" ref="Y54:Y59" si="21">X54/C54-1</f>
         <v>0.21148499120467568</v>
       </c>
@@ -30305,7 +30305,7 @@
       <c r="X55" s="1">
         <v>2.1261999999999999</v>
       </c>
-      <c r="Y55" s="35">
+      <c r="Y55" s="34">
         <f t="shared" si="21"/>
         <v>0.21019031478756234</v>
       </c>
@@ -30393,7 +30393,7 @@
       <c r="X56" s="1">
         <v>2.1114999999999999</v>
       </c>
-      <c r="Y56" s="35">
+      <c r="Y56" s="34">
         <f t="shared" si="21"/>
         <v>0.22835092858608985</v>
       </c>
@@ -30481,7 +30481,7 @@
       <c r="X57" s="1">
         <v>2.1433</v>
       </c>
-      <c r="Y57" s="35">
+      <c r="Y57" s="34">
         <f t="shared" si="21"/>
         <v>0.2260406735198941</v>
       </c>
@@ -30569,7 +30569,7 @@
       <c r="X58" s="1">
         <v>2.1423000000000001</v>
       </c>
-      <c r="Y58" s="35">
+      <c r="Y58" s="34">
         <f t="shared" si="21"/>
         <v>0.21486900306226597</v>
       </c>
@@ -30657,7 +30657,7 @@
       <c r="X59" s="1">
         <v>2.1111</v>
       </c>
-      <c r="Y59" s="35">
+      <c r="Y59" s="34">
         <f t="shared" si="21"/>
         <v>0.20689458037960207</v>
       </c>
@@ -30855,7 +30855,7 @@
       <c r="X108" s="1">
         <v>1.7778</v>
       </c>
-      <c r="Y108" s="35">
+      <c r="Y108" s="34">
         <f>X108/C108-1</f>
         <v>0.307595588616002</v>
       </c>
@@ -30943,7 +30943,7 @@
       <c r="X109" s="1">
         <v>1.7733000000000001</v>
       </c>
-      <c r="Y109" s="35">
+      <c r="Y109" s="34">
         <f t="shared" ref="Y109:Y114" si="32">X109/C109-1</f>
         <v>0.3101005915908337</v>
       </c>
@@ -31031,7 +31031,7 @@
       <c r="X110" s="1">
         <v>1.7914000000000001</v>
       </c>
-      <c r="Y110" s="35">
+      <c r="Y110" s="34">
         <f t="shared" si="32"/>
         <v>0.31244811474451217</v>
       </c>
@@ -31119,7 +31119,7 @@
       <c r="X111" s="1">
         <v>1.7739</v>
       </c>
-      <c r="Y111" s="35">
+      <c r="Y111" s="34">
         <f t="shared" si="32"/>
         <v>0.31265586374957399</v>
       </c>
@@ -31207,7 +31207,7 @@
       <c r="X112" s="1">
         <v>1.8085</v>
       </c>
-      <c r="Y112" s="35">
+      <c r="Y112" s="34">
         <f t="shared" si="32"/>
         <v>0.3248339764135233</v>
       </c>
@@ -31295,7 +31295,7 @@
       <c r="X113" s="1">
         <v>1.7926</v>
       </c>
-      <c r="Y113" s="35">
+      <c r="Y113" s="34">
         <f t="shared" si="32"/>
         <v>0.32451603369292159</v>
       </c>
@@ -31383,7 +31383,7 @@
       <c r="X114" s="1">
         <v>1.7885</v>
       </c>
-      <c r="Y114" s="35">
+      <c r="Y114" s="34">
         <f t="shared" si="32"/>
         <v>0.32090103397341196</v>
       </c>
@@ -31581,7 +31581,7 @@
       <c r="X164" s="1">
         <v>4.7020999999999997</v>
       </c>
-      <c r="Y164" s="35">
+      <c r="Y164" s="34">
         <f>X164/C164-1</f>
         <v>0.17895722483028198</v>
       </c>
@@ -31669,7 +31669,7 @@
       <c r="X165" s="1">
         <v>4.7183999999999999</v>
       </c>
-      <c r="Y165" s="35">
+      <c r="Y165" s="34">
         <f t="shared" ref="Y165:Y170" si="44">X165/C165-1</f>
         <v>0.17359944535302052</v>
       </c>
@@ -31757,7 +31757,7 @@
       <c r="X166" s="1">
         <v>4.7438000000000002</v>
       </c>
-      <c r="Y166" s="35">
+      <c r="Y166" s="34">
         <f t="shared" si="44"/>
         <v>0.18013399912736561</v>
       </c>
@@ -31845,7 +31845,7 @@
       <c r="X167" s="1">
         <v>4.7175000000000002</v>
       </c>
-      <c r="Y167" s="35">
+      <c r="Y167" s="34">
         <f t="shared" si="44"/>
         <v>0.17451621670673978</v>
       </c>
@@ -31933,7 +31933,7 @@
       <c r="X168" s="1">
         <v>4.7173999999999996</v>
       </c>
-      <c r="Y168" s="35">
+      <c r="Y168" s="34">
         <f t="shared" si="44"/>
         <v>0.1621002174887507</v>
       </c>
@@ -32022,7 +32022,7 @@
       <c r="X169" s="1">
         <v>4.7107000000000001</v>
       </c>
-      <c r="Y169" s="35">
+      <c r="Y169" s="34">
         <f t="shared" si="44"/>
         <v>0.17068018588931122</v>
       </c>
@@ -32110,7 +32110,7 @@
       <c r="X170" s="1">
         <v>4.7229000000000001</v>
       </c>
-      <c r="Y170" s="35">
+      <c r="Y170" s="34">
         <f t="shared" si="44"/>
         <v>0.1846342931674525</v>
       </c>
@@ -32306,7 +32306,7 @@
       <c r="X221" s="1">
         <v>1.7130000000000001</v>
       </c>
-      <c r="Y221" s="35">
+      <c r="Y221" s="34">
         <f>X221/C221-1</f>
         <v>0.63223034903785646</v>
       </c>
@@ -32394,7 +32394,7 @@
       <c r="X222" s="1">
         <v>1.7241</v>
       </c>
-      <c r="Y222" s="35">
+      <c r="Y222" s="34">
         <f t="shared" ref="Y222:Y227" si="57">X222/C222-1</f>
         <v>0.63703511143509806</v>
       </c>
@@ -32482,7 +32482,7 @@
       <c r="X223" s="1">
         <v>1.7236</v>
       </c>
-      <c r="Y223" s="35">
+      <c r="Y223" s="34">
         <f t="shared" si="57"/>
         <v>0.64222426311050773</v>
       </c>
@@ -32570,7 +32570,7 @@
       <c r="X224" s="1">
         <v>1.7135</v>
       </c>
-      <c r="Y224" s="35">
+      <c r="Y224" s="34">
         <f t="shared" si="57"/>
         <v>0.63621220684209434</v>
       </c>
@@ -32658,7 +32658,7 @@
       <c r="X225" s="1">
         <v>1.7208000000000001</v>
       </c>
-      <c r="Y225" s="35">
+      <c r="Y225" s="34">
         <f t="shared" si="57"/>
         <v>0.63875454388681985</v>
       </c>
@@ -32746,7 +32746,7 @@
       <c r="X226" s="1">
         <v>1.7223999999999999</v>
       </c>
-      <c r="Y226" s="35">
+      <c r="Y226" s="34">
         <f t="shared" si="57"/>
         <v>0.63757368320973562</v>
       </c>
@@ -32834,7 +32834,7 @@
       <c r="X227" s="1">
         <v>1.7202</v>
       </c>
-      <c r="Y227" s="35">
+      <c r="Y227" s="34">
         <f t="shared" si="57"/>
         <v>0.6319134806944311</v>
       </c>
@@ -33098,7 +33098,7 @@
       <c r="V5" s="1">
         <v>2.7524000000000002</v>
       </c>
-      <c r="W5" s="35">
+      <c r="W5" s="34">
         <f>V5/C5-1</f>
         <v>0.27848535207008118</v>
       </c>
@@ -33184,7 +33184,7 @@
       <c r="V6" s="1">
         <v>2.7747000000000002</v>
       </c>
-      <c r="W6" s="35">
+      <c r="W6" s="34">
         <f t="shared" ref="W6:W11" si="8">V6/C6-1</f>
         <v>0.28096579105304453</v>
       </c>
@@ -33270,7 +33270,7 @@
       <c r="V7" s="1">
         <v>2.7549999999999999</v>
       </c>
-      <c r="W7" s="35">
+      <c r="W7" s="34">
         <f t="shared" si="8"/>
         <v>0.27188252601696949</v>
       </c>
@@ -33356,7 +33356,7 @@
       <c r="V8" s="1">
         <v>2.7627000000000002</v>
       </c>
-      <c r="W8" s="35">
+      <c r="W8" s="34">
         <f t="shared" si="8"/>
         <v>0.27171297570914743</v>
       </c>
@@ -33442,7 +33442,7 @@
       <c r="V9" s="1">
         <v>2.7685</v>
       </c>
-      <c r="W9" s="35">
+      <c r="W9" s="34">
         <f t="shared" si="8"/>
         <v>0.27177763547033451</v>
       </c>
@@ -33528,7 +33528,7 @@
       <c r="V10" s="1">
         <v>2.7717000000000001</v>
       </c>
-      <c r="W10" s="35">
+      <c r="W10" s="34">
         <f t="shared" si="8"/>
         <v>0.27834148141315374</v>
       </c>
@@ -33614,7 +33614,7 @@
       <c r="V11" s="1">
         <v>2.7608999999999999</v>
       </c>
-      <c r="W11" s="35">
+      <c r="W11" s="34">
         <f t="shared" si="8"/>
         <v>0.26996320147194108</v>
       </c>
@@ -33919,7 +33919,7 @@
       <c r="V53" s="1">
         <v>1.9782999999999999</v>
       </c>
-      <c r="W53" s="35">
+      <c r="W53" s="34">
         <f>V53/C53-1</f>
         <v>0.50590549019938158</v>
       </c>
@@ -34000,7 +34000,7 @@
       <c r="V54" s="1">
         <v>1.9832000000000001</v>
       </c>
-      <c r="W54" s="35">
+      <c r="W54" s="34">
         <f t="shared" ref="W54:W59" si="19">V54/C54-1</f>
         <v>0.49553985804128375</v>
       </c>
@@ -34081,7 +34081,7 @@
       <c r="V55" s="1">
         <v>1.9793000000000001</v>
       </c>
-      <c r="W55" s="35">
+      <c r="W55" s="34">
         <f t="shared" si="19"/>
         <v>0.51006146021836063</v>
       </c>
@@ -34162,7 +34162,7 @@
       <c r="V56" s="1">
         <v>1.9742</v>
       </c>
-      <c r="W56" s="35">
+      <c r="W56" s="34">
         <f t="shared" si="19"/>
         <v>0.50315649934731588</v>
       </c>
@@ -34243,7 +34243,7 @@
       <c r="V57" s="1">
         <v>1.9766999999999999</v>
       </c>
-      <c r="W57" s="35">
+      <c r="W57" s="34">
         <f t="shared" si="19"/>
         <v>0.50733188859117884</v>
       </c>
@@ -34324,7 +34324,7 @@
       <c r="V58" s="1">
         <v>1.9664999999999999</v>
       </c>
-      <c r="W58" s="35">
+      <c r="W58" s="34">
         <f t="shared" si="19"/>
         <v>0.50597334967069973</v>
       </c>
@@ -34406,7 +34406,7 @@
       <c r="V59" s="1">
         <v>1.9686999999999999</v>
       </c>
-      <c r="W59" s="35">
+      <c r="W59" s="34">
         <f t="shared" si="19"/>
         <v>0.49756579948273227</v>
       </c>
@@ -34662,17 +34662,17 @@
         <f>R5/C5-1</f>
         <v>5.0668734641260205E-2</v>
       </c>
-      <c r="T5" s="43">
+      <c r="T5" s="42">
         <v>19.873699999999999</v>
       </c>
       <c r="U5" s="11">
         <f>T5/C5-1</f>
         <v>7.7045482012638722E-4</v>
       </c>
-      <c r="V5" s="43">
+      <c r="V5" s="42">
         <v>24.097999999999999</v>
       </c>
-      <c r="W5" s="35">
+      <c r="W5" s="34">
         <f>V5/C5-1</f>
         <v>0.21349151996132609</v>
       </c>
@@ -34748,17 +34748,17 @@
         <f t="shared" ref="S6:S11" si="7">R6/C6-1</f>
         <v>3.1666592851764985E-2</v>
       </c>
-      <c r="T6" s="41">
+      <c r="T6" s="40">
         <v>20.3216</v>
       </c>
       <c r="U6" s="11">
         <f>T6/C6-1</f>
         <v>2.460496725076311E-5</v>
       </c>
-      <c r="V6" s="44">
+      <c r="V6" s="43">
         <v>24.7197</v>
       </c>
-      <c r="W6" s="35">
+      <c r="W6" s="34">
         <f t="shared" ref="W6:W11" si="8">V6/C6-1</f>
         <v>0.21645481789863719</v>
       </c>
@@ -34834,17 +34834,17 @@
         <f t="shared" si="7"/>
         <v>3.6014520925582882E-2</v>
       </c>
-      <c r="T7" s="42">
+      <c r="T7" s="41">
         <v>19.814800000000002</v>
       </c>
       <c r="U7" s="11">
         <f t="shared" ref="U7:U11" si="9">T7/C7-1</f>
         <v>4.4936104898041229E-4</v>
       </c>
-      <c r="V7" s="45">
+      <c r="V7" s="44">
         <v>24.251200000000001</v>
       </c>
-      <c r="W7" s="35">
+      <c r="W7" s="34">
         <f t="shared" si="8"/>
         <v>0.22444322146431106</v>
       </c>
@@ -34920,17 +34920,17 @@
         <f t="shared" si="7"/>
         <v>4.8325740147653562E-2</v>
       </c>
-      <c r="T8" s="42">
+      <c r="T8" s="41">
         <v>19.9603</v>
       </c>
       <c r="U8" s="11">
         <f t="shared" si="9"/>
         <v>4.1098430741626224E-4</v>
       </c>
-      <c r="V8" s="45">
+      <c r="V8" s="44">
         <v>24.2867</v>
       </c>
-      <c r="W8" s="35">
+      <c r="W8" s="34">
         <f t="shared" si="8"/>
         <v>0.21725031450323518</v>
       </c>
@@ -35006,17 +35006,17 @@
         <f t="shared" si="7"/>
         <v>4.0454312791027069E-2</v>
       </c>
-      <c r="T9" s="41">
+      <c r="T9" s="40">
         <v>20.141999999999999</v>
       </c>
       <c r="U9" s="11">
         <f t="shared" si="9"/>
         <v>9.5911582441732257E-4</v>
       </c>
-      <c r="V9" s="44">
+      <c r="V9" s="43">
         <v>24.623000000000001</v>
       </c>
-      <c r="W9" s="35">
+      <c r="W9" s="34">
         <f t="shared" si="8"/>
         <v>0.22364295049869076</v>
       </c>
@@ -35092,17 +35092,17 @@
         <f t="shared" si="7"/>
         <v>5.0064580228514677E-2</v>
       </c>
-      <c r="T10" s="43">
+      <c r="T10" s="42">
         <v>20.136700000000001</v>
       </c>
       <c r="U10" s="11">
         <f t="shared" si="9"/>
         <v>3.328365623449514E-4</v>
       </c>
-      <c r="V10" s="44">
+      <c r="V10" s="43">
         <v>24.373000000000001</v>
       </c>
-      <c r="W10" s="35">
+      <c r="W10" s="34">
         <f t="shared" si="8"/>
         <v>0.21077993045206167</v>
       </c>
@@ -35178,17 +35178,17 @@
         <f t="shared" si="7"/>
         <v>4.588459344956819E-2</v>
       </c>
-      <c r="T11" s="43">
+      <c r="T11" s="42">
         <v>19.649899999999999</v>
       </c>
       <c r="U11" s="11">
         <f t="shared" si="9"/>
         <v>5.8558742056380453E-4</v>
       </c>
-      <c r="V11" s="43">
+      <c r="V11" s="42">
         <v>24.1495</v>
       </c>
-      <c r="W11" s="35">
+      <c r="W11" s="34">
         <f t="shared" si="8"/>
         <v>0.22970812286133291</v>
       </c>
@@ -35208,11 +35208,11 @@
         <f>AVERAGE(I5:I11)</f>
         <v>0.28523751452828716</v>
       </c>
-      <c r="K12" s="38">
+      <c r="K12" s="37">
         <f>AVERAGE(K5:K11)</f>
         <v>0.21879773414272094</v>
       </c>
-      <c r="W12" s="37">
+      <c r="W12" s="36">
         <f>AVERAGE(W5:W11)</f>
         <v>0.21939583966279927</v>
       </c>
@@ -35251,10 +35251,10 @@
       <c r="AD16" s="12"/>
     </row>
     <row r="17" spans="19:30" x14ac:dyDescent="0.25">
-      <c r="S17" s="39"/>
-      <c r="T17" s="39"/>
-      <c r="U17" s="39"/>
-      <c r="V17" s="39"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="38"/>
       <c r="Z17" s="12"/>
       <c r="AA17" s="12"/>
       <c r="AB17" s="12"/>
@@ -35262,10 +35262,10 @@
       <c r="AD17" s="12"/>
     </row>
     <row r="18" spans="19:30" x14ac:dyDescent="0.25">
-      <c r="S18" s="39"/>
-      <c r="T18" s="39"/>
-      <c r="U18" s="39"/>
-      <c r="V18" s="39"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38"/>
       <c r="Z18" s="12"/>
       <c r="AA18" s="12"/>
       <c r="AB18" s="12"/>
@@ -35273,10 +35273,10 @@
       <c r="AD18" s="12"/>
     </row>
     <row r="19" spans="19:30" x14ac:dyDescent="0.25">
-      <c r="S19" s="39"/>
-      <c r="T19" s="39"/>
-      <c r="U19" s="39"/>
-      <c r="V19" s="39"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="38"/>
       <c r="Z19" s="12"/>
       <c r="AA19" s="12"/>
       <c r="AB19" s="12"/>
@@ -35284,10 +35284,10 @@
       <c r="AD19" s="12"/>
     </row>
     <row r="20" spans="19:30" x14ac:dyDescent="0.25">
-      <c r="S20" s="39"/>
-      <c r="T20" s="39"/>
-      <c r="U20" s="39"/>
-      <c r="V20" s="39"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="38"/>
       <c r="Z20" s="12"/>
       <c r="AA20" s="12"/>
       <c r="AB20" s="12"/>
@@ -35295,10 +35295,10 @@
       <c r="AD20" s="12"/>
     </row>
     <row r="21" spans="19:30" x14ac:dyDescent="0.25">
-      <c r="S21" s="39"/>
-      <c r="T21" s="39"/>
-      <c r="U21" s="39"/>
-      <c r="V21" s="39"/>
+      <c r="S21" s="38"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="38"/>
+      <c r="V21" s="38"/>
       <c r="Z21" s="12"/>
       <c r="AA21" s="12"/>
       <c r="AB21" s="12"/>
@@ -35306,10 +35306,10 @@
       <c r="AD21" s="12"/>
     </row>
     <row r="22" spans="19:30" x14ac:dyDescent="0.25">
-      <c r="S22" s="39"/>
-      <c r="T22" s="39"/>
-      <c r="U22" s="39"/>
-      <c r="V22" s="39"/>
+      <c r="S22" s="38"/>
+      <c r="T22" s="38"/>
+      <c r="U22" s="38"/>
+      <c r="V22" s="38"/>
       <c r="Z22" s="12"/>
       <c r="AA22" s="12"/>
       <c r="AB22" s="12"/>
@@ -35317,10 +35317,10 @@
       <c r="AD22" s="12"/>
     </row>
     <row r="23" spans="19:30" x14ac:dyDescent="0.25">
-      <c r="S23" s="39"/>
-      <c r="T23" s="39"/>
-      <c r="U23" s="39"/>
-      <c r="V23" s="39"/>
+      <c r="S23" s="38"/>
+      <c r="T23" s="38"/>
+      <c r="U23" s="38"/>
+      <c r="V23" s="38"/>
       <c r="Z23" s="12"/>
       <c r="AA23" s="12"/>
       <c r="AB23" s="12"/>
@@ -35328,10 +35328,10 @@
       <c r="AD23" s="12"/>
     </row>
     <row r="24" spans="19:30" x14ac:dyDescent="0.25">
-      <c r="S24" s="39"/>
-      <c r="T24" s="39"/>
-      <c r="U24" s="39"/>
-      <c r="V24" s="39"/>
+      <c r="S24" s="38"/>
+      <c r="T24" s="38"/>
+      <c r="U24" s="38"/>
+      <c r="V24" s="38"/>
       <c r="Z24" s="12"/>
       <c r="AA24" s="12"/>
       <c r="AB24" s="12"/>
@@ -35339,10 +35339,10 @@
       <c r="AD24" s="12"/>
     </row>
     <row r="25" spans="19:30" x14ac:dyDescent="0.25">
-      <c r="S25" s="39"/>
-      <c r="T25" s="39"/>
-      <c r="U25" s="39"/>
-      <c r="V25" s="39"/>
+      <c r="S25" s="38"/>
+      <c r="T25" s="38"/>
+      <c r="U25" s="38"/>
+      <c r="V25" s="38"/>
       <c r="Z25" s="12"/>
       <c r="AA25" s="12"/>
       <c r="AB25" s="12"/>
@@ -35350,10 +35350,10 @@
       <c r="AD25" s="12"/>
     </row>
     <row r="26" spans="19:30" x14ac:dyDescent="0.25">
-      <c r="S26" s="39"/>
-      <c r="T26" s="39"/>
-      <c r="U26" s="39"/>
-      <c r="V26" s="39"/>
+      <c r="S26" s="38"/>
+      <c r="T26" s="38"/>
+      <c r="U26" s="38"/>
+      <c r="V26" s="38"/>
       <c r="Z26" s="12"/>
       <c r="AA26" s="12"/>
       <c r="AB26" s="12"/>
@@ -35361,10 +35361,10 @@
       <c r="AD26" s="12"/>
     </row>
     <row r="27" spans="19:30" x14ac:dyDescent="0.25">
-      <c r="S27" s="39"/>
-      <c r="T27" s="39"/>
-      <c r="U27" s="39"/>
-      <c r="V27" s="39"/>
+      <c r="S27" s="38"/>
+      <c r="T27" s="38"/>
+      <c r="U27" s="38"/>
+      <c r="V27" s="38"/>
       <c r="Z27" s="12"/>
       <c r="AA27" s="12"/>
       <c r="AB27" s="12"/>
@@ -35372,10 +35372,10 @@
       <c r="AD27" s="12"/>
     </row>
     <row r="28" spans="19:30" x14ac:dyDescent="0.25">
-      <c r="S28" s="39"/>
-      <c r="T28" s="39"/>
-      <c r="U28" s="39"/>
-      <c r="V28" s="39"/>
+      <c r="S28" s="38"/>
+      <c r="T28" s="38"/>
+      <c r="U28" s="38"/>
+      <c r="V28" s="38"/>
       <c r="Z28" s="12"/>
       <c r="AA28" s="12"/>
       <c r="AB28" s="12"/>
@@ -35383,28 +35383,28 @@
       <c r="AD28" s="12"/>
     </row>
     <row r="29" spans="19:30" x14ac:dyDescent="0.25">
-      <c r="S29" s="39"/>
-      <c r="T29" s="39"/>
-      <c r="U29" s="39"/>
-      <c r="V29" s="39"/>
+      <c r="S29" s="38"/>
+      <c r="T29" s="38"/>
+      <c r="U29" s="38"/>
+      <c r="V29" s="38"/>
     </row>
     <row r="30" spans="19:30" x14ac:dyDescent="0.25">
-      <c r="S30" s="39"/>
-      <c r="T30" s="39"/>
-      <c r="U30" s="39"/>
-      <c r="V30" s="39"/>
+      <c r="S30" s="38"/>
+      <c r="T30" s="38"/>
+      <c r="U30" s="38"/>
+      <c r="V30" s="38"/>
     </row>
     <row r="31" spans="19:30" x14ac:dyDescent="0.25">
-      <c r="S31" s="39"/>
-      <c r="T31" s="39"/>
-      <c r="U31" s="39"/>
-      <c r="V31" s="39"/>
+      <c r="S31" s="38"/>
+      <c r="T31" s="38"/>
+      <c r="U31" s="38"/>
+      <c r="V31" s="38"/>
     </row>
     <row r="32" spans="19:30" x14ac:dyDescent="0.25">
-      <c r="S32" s="39"/>
-      <c r="T32" s="39"/>
-      <c r="U32" s="39"/>
-      <c r="V32" s="39"/>
+      <c r="S32" s="38"/>
+      <c r="T32" s="38"/>
+      <c r="U32" s="38"/>
+      <c r="V32" s="38"/>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
@@ -36039,7 +36039,7 @@
       <c r="V108" s="1">
         <v>2.6280999999999999</v>
       </c>
-      <c r="W108" s="35">
+      <c r="W108" s="34">
         <f>V108/C108-1</f>
         <v>0.53935752925406399</v>
       </c>
@@ -36120,7 +36120,7 @@
       <c r="V109" s="1">
         <v>2.6377999999999999</v>
       </c>
-      <c r="W109" s="35">
+      <c r="W109" s="34">
         <f t="shared" ref="W109:W114" si="27">V109/C109-1</f>
         <v>0.52332335537394759</v>
       </c>
@@ -36201,7 +36201,7 @@
       <c r="V110" s="1">
         <v>2.6217000000000001</v>
       </c>
-      <c r="W110" s="35">
+      <c r="W110" s="34">
         <f t="shared" si="27"/>
         <v>0.5394204193105252</v>
       </c>
@@ -36282,7 +36282,7 @@
       <c r="V111" s="1">
         <v>2.6246999999999998</v>
       </c>
-      <c r="W111" s="35">
+      <c r="W111" s="34">
         <f t="shared" si="27"/>
         <v>0.53220659785541424</v>
       </c>
@@ -36363,7 +36363,7 @@
       <c r="V112" s="1">
         <v>2.6190000000000002</v>
       </c>
-      <c r="W112" s="35">
+      <c r="W112" s="34">
         <f t="shared" si="27"/>
         <v>0.5352403518459794</v>
       </c>
@@ -36444,7 +36444,7 @@
       <c r="V113" s="1">
         <v>2.6389999999999998</v>
       </c>
-      <c r="W113" s="35">
+      <c r="W113" s="34">
         <f t="shared" si="27"/>
         <v>0.54490106544901051</v>
       </c>
@@ -36525,7 +36525,7 @@
       <c r="V114" s="1">
         <v>2.6276000000000002</v>
       </c>
-      <c r="W114" s="35">
+      <c r="W114" s="34">
         <f t="shared" si="27"/>
         <v>0.54183781246332607</v>
       </c>
@@ -36552,8 +36552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11AED99B-294B-42C3-BD53-BEA0C0BE6E68}">
   <dimension ref="A1:AD71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X55" sqref="X55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36801,10 +36801,10 @@
         <f>V5/C5-1</f>
         <v>5.5277190842462076E-3</v>
       </c>
-      <c r="X5" s="40">
+      <c r="X5" s="39">
         <v>1.8561000000000001</v>
       </c>
-      <c r="Y5" s="35">
+      <c r="Y5" s="34">
         <f>X5/C5-1</f>
         <v>9.1757823569622587E-2</v>
       </c>
@@ -36894,10 +36894,10 @@
         <f t="shared" ref="W6:W11" si="8">V6/C6-1</f>
         <v>1.0066319279955493E-4</v>
       </c>
-      <c r="X6" s="40">
+      <c r="X6" s="39">
         <v>1.8360000000000001</v>
       </c>
-      <c r="Y6" s="35">
+      <c r="Y6" s="34">
         <f t="shared" ref="Y6:Y11" si="9">X6/C6-1</f>
         <v>8.7162482235907168E-2</v>
       </c>
@@ -36987,10 +36987,10 @@
         <f t="shared" si="8"/>
         <v>6.0435465609560701E-3</v>
       </c>
-      <c r="X7" s="40">
+      <c r="X7" s="39">
         <v>1.8445</v>
       </c>
-      <c r="Y7" s="35">
+      <c r="Y7" s="34">
         <f t="shared" si="9"/>
         <v>8.1001585478086779E-2</v>
       </c>
@@ -37080,10 +37080,10 @@
         <f t="shared" si="8"/>
         <v>5.5717663486689606E-3</v>
       </c>
-      <c r="X8" s="40">
+      <c r="X8" s="39">
         <v>1.8394999999999999</v>
       </c>
-      <c r="Y8" s="35">
+      <c r="Y8" s="34">
         <f t="shared" si="9"/>
         <v>9.2328607652283123E-2</v>
       </c>
@@ -37174,10 +37174,10 @@
         <f t="shared" si="8"/>
         <v>2.2940577964698505E-3</v>
       </c>
-      <c r="X9" s="40">
+      <c r="X9" s="39">
         <v>1.8314999999999999</v>
       </c>
-      <c r="Y9" s="35">
+      <c r="Y9" s="34">
         <f t="shared" si="9"/>
         <v>8.9566457059730764E-2</v>
       </c>
@@ -37267,10 +37267,10 @@
         <f t="shared" si="8"/>
         <v>7.4345055463771459E-3</v>
       </c>
-      <c r="X10" s="40">
+      <c r="X10" s="39">
         <v>1.8568</v>
       </c>
-      <c r="Y10" s="35">
+      <c r="Y10" s="34">
         <f t="shared" si="9"/>
         <v>9.5586499881991971E-2</v>
       </c>
@@ -37360,10 +37360,10 @@
         <f t="shared" si="8"/>
         <v>2.6995305164319028E-3</v>
       </c>
-      <c r="X11" s="40">
+      <c r="X11" s="39">
         <v>1.8553999999999999</v>
       </c>
-      <c r="Y11" s="35">
+      <c r="Y11" s="34">
         <f t="shared" si="9"/>
         <v>8.8849765258215863E-2</v>
       </c>
@@ -37841,7 +37841,7 @@
       <c r="X53" s="1">
         <v>2.7046000000000001</v>
       </c>
-      <c r="Y53" s="35">
+      <c r="Y53" s="34">
         <f t="shared" ref="Y53:Y54" si="11">X53/C53-1</f>
         <v>0.92959188848067997</v>
       </c>
@@ -37929,7 +37929,7 @@
       <c r="X54" s="1">
         <v>2.6930000000000001</v>
       </c>
-      <c r="Y54" s="35">
+      <c r="Y54" s="34">
         <f t="shared" si="11"/>
         <v>0.92136461205755826</v>
       </c>
@@ -38007,17 +38007,17 @@
         <f t="shared" si="20"/>
         <v>0.14441011475377241</v>
       </c>
-      <c r="V55" s="5">
-        <v>1.5899000000000001</v>
+      <c r="V55" s="41">
+        <v>1.5855999999999999</v>
       </c>
       <c r="W55" s="11">
         <f t="shared" si="21"/>
-        <v>0.12830065822089964</v>
+        <v>0.12524908715960636</v>
       </c>
       <c r="X55" s="1">
         <v>2.7174999999999998</v>
       </c>
-      <c r="Y55" s="35">
+      <c r="Y55" s="34">
         <f>X55/C55-1</f>
         <v>0.92852194396835919</v>
       </c>
@@ -38095,17 +38095,17 @@
         <f t="shared" si="20"/>
         <v>0.13938391866579458</v>
       </c>
-      <c r="V56" s="5">
-        <v>1.5878000000000001</v>
+      <c r="V56" s="41">
+        <v>1.5862000000000001</v>
       </c>
       <c r="W56" s="11">
         <f t="shared" si="21"/>
-        <v>0.12549072169811426</v>
+        <v>0.12435658317014031</v>
       </c>
       <c r="X56" s="1">
         <v>2.7250000000000001</v>
       </c>
-      <c r="Y56" s="35">
+      <c r="Y56" s="34">
         <f t="shared" ref="Y56:Y59" si="22">X56/C56-1</f>
         <v>0.93157968045557471</v>
       </c>
@@ -38193,7 +38193,7 @@
       <c r="X57" s="1">
         <v>2.7002000000000002</v>
       </c>
-      <c r="Y57" s="35">
+      <c r="Y57" s="34">
         <f t="shared" si="22"/>
         <v>0.922192415120209</v>
       </c>
@@ -38281,7 +38281,7 @@
       <c r="X58" s="1">
         <v>2.7109000000000001</v>
       </c>
-      <c r="Y58" s="35">
+      <c r="Y58" s="34">
         <f t="shared" si="22"/>
         <v>0.93995992557607</v>
       </c>
@@ -38369,7 +38369,7 @@
       <c r="X59" s="1">
         <v>2.7067000000000001</v>
       </c>
-      <c r="Y59" s="35">
+      <c r="Y59" s="34">
         <f t="shared" si="22"/>
         <v>0.93446255002858791</v>
       </c>
@@ -38386,14 +38386,14 @@
       </c>
     </row>
     <row r="71" spans="20:27" x14ac:dyDescent="0.25">
-      <c r="T71" s="32"/>
-      <c r="U71" s="32"/>
-      <c r="V71" s="32"/>
-      <c r="W71" s="32"/>
-      <c r="X71" s="32"/>
-      <c r="Y71" s="32"/>
-      <c r="Z71" s="32"/>
-      <c r="AA71" s="32"/>
+      <c r="T71" s="45"/>
+      <c r="U71" s="45"/>
+      <c r="V71" s="45"/>
+      <c r="W71" s="45"/>
+      <c r="X71" s="45"/>
+      <c r="Y71" s="45"/>
+      <c r="Z71" s="45"/>
+      <c r="AA71" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="4">
